--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_8.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_8.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
   <si>
     <t>STR#</t>
   </si>
@@ -61,6 +61,15 @@
   </si>
   <si>
     <t>https://www.tripadvisor.com/Hotel_Review-g32525-d225799-Reviews-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>205</t>
   </si>
   <si>
     <t>https://www.orbitz.com/Los-Angeles-Hotels-LAX-Stadium-Inn.h558600.Hotel-Information?chkin=6%2F10%2F2018&amp;chkout=6%2F11%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1527968497311&amp;cancellable=false&amp;regionId=8192&amp;vip=false&amp;c=ecd621e8-5aa9-4e99-915a-fa1780e78d28&amp;mctc=9&amp;exp_dp=82.47&amp;exp_ts=1527968497975&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
@@ -532,11 +541,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +573,79 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="H1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="I1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="K1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="L1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="M1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="N1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="O1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="P1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="Q1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="R1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="S1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="T1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="U1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="V1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="W1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="X1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="Y1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_8.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_8.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="666">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,1914 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r575568360-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>32525</t>
+  </si>
+  <si>
+    <t>225799</t>
+  </si>
+  <si>
+    <t>575568360</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Horrible run down hotel stinks of smoke and located in an unsafe area</t>
+  </si>
+  <si>
+    <t>The place is very old run-down and does not in any way resemble the photos which must of been taken decades ago. It is located in a dodgy unsightly neighbourhood and when you go to check in, the staff are hidden behind bulletproof screens. This would indicate how much crime is in the area and its hardly a welcoming or comforting feeling.The lifts and corridors stink of cigarette smoke and people are hiding in walkways smoking and engaging in other activities including illicit drugs. Once you get into your room you walk into a very old dated room which is old run down and of very low quality where you would think it would be used for other less savoury activities.The rooms were basic and the feeling was quite unsafe. You definitely wouldn't want to bring children here and made sure all doors and windows were locked including putting the chain on your door.This hotel is terribly overpriced for what it offers and I would not stay here again under any circumstances.It's definitely not worth the money and it is overpriced and fails in so many areas. do yourself a favour and look elsewhere as others have stated in their reviews this is an unsafe area and its unsightly.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>HotelMangmt321, Hotel Support at LAX Stadium Inn, responded to this reviewResponded April 26, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 26, 2018</t>
+  </si>
+  <si>
+    <t>The place is very old run-down and does not in any way resemble the photos which must of been taken decades ago. It is located in a dodgy unsightly neighbourhood and when you go to check in, the staff are hidden behind bulletproof screens. This would indicate how much crime is in the area and its hardly a welcoming or comforting feeling.The lifts and corridors stink of cigarette smoke and people are hiding in walkways smoking and engaging in other activities including illicit drugs. Once you get into your room you walk into a very old dated room which is old run down and of very low quality where you would think it would be used for other less savoury activities.The rooms were basic and the feeling was quite unsafe. You definitely wouldn't want to bring children here and made sure all doors and windows were locked including putting the chain on your door.This hotel is terribly overpriced for what it offers and I would not stay here again under any circumstances.It's definitely not worth the money and it is overpriced and fails in so many areas. do yourself a favour and look elsewhere as others have stated in their reviews this is an unsafe area and its unsightly.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r568652480-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>568652480</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>Did not feel to safe at night .</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for one night . its very close to the airport. We arrived around 10 p.m. the hotel is older and needs renovations. Our room had mold in the window . the window to our room was open when we arrived. The mattress on our bed  was hard .  I did not get a good night's rest .  Someone on the streets below our room  was cussing  loudly  . This happened multiple times . We heard what sounded like gunshots around 4 a.m. the area just kind of looks like a slummy bad part of town . I definitely will not be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>HotelMangmt321, Hotel Support at LAX Stadium Inn, responded to this reviewResponded April 18, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 18, 2018</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here for one night . its very close to the airport. We arrived around 10 p.m. the hotel is older and needs renovations. Our room had mold in the window . the window to our room was open when we arrived. The mattress on our bed  was hard .  I did not get a good night's rest .  Someone on the streets below our room  was cussing  loudly  . This happened multiple times . We heard what sounded like gunshots around 4 a.m. the area just kind of looks like a slummy bad part of town . I definitely will not be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r567341190-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>567341190</t>
+  </si>
+  <si>
+    <t>03/18/2018</t>
+  </si>
+  <si>
+    <t>Basic, safe, comfortable</t>
+  </si>
+  <si>
+    <t>We needed a room close to the airport with free parking. Did not expect much but was pleasantly surprised after we checked in. Yes, the hotel area looked deserted after dark (when we arrived), but it did not look unsafe to us. We grabbed something to eat from a nearby store (it was 10-30 pm, so really late). Nothing suspicious was going on. The beds were nice and comfortable, the wifi was fast, the bathroom was clean. The front desk was helpful during checking out as well. It is very close to the airport and to the rental car return center, which was nice. All in all very satisfied with our stay. Will visit again if I am in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>HotelMangmt321, Hotel Support at LAX Stadium Inn, responded to this reviewResponded March 21, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 21, 2018</t>
+  </si>
+  <si>
+    <t>We needed a room close to the airport with free parking. Did not expect much but was pleasantly surprised after we checked in. Yes, the hotel area looked deserted after dark (when we arrived), but it did not look unsafe to us. We grabbed something to eat from a nearby store (it was 10-30 pm, so really late). Nothing suspicious was going on. The beds were nice and comfortable, the wifi was fast, the bathroom was clean. The front desk was helpful during checking out as well. It is very close to the airport and to the rental car return center, which was nice. All in all very satisfied with our stay. Will visit again if I am in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r555698822-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>555698822</t>
+  </si>
+  <si>
+    <t>01/22/2018</t>
+  </si>
+  <si>
+    <t>Works well for an overnight stay</t>
+  </si>
+  <si>
+    <t>Hotel is older, looking tired in many places. But the room was clean.  Crisp clean sheets and a clean bathroom with updated tub, toilet and basin.  Rooms face the road - so if you cant sleep with noise, try some earplugs.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>HotelMangmt321, Hotel Support at LAX Stadium Inn, responded to this reviewResponded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 7, 2018</t>
+  </si>
+  <si>
+    <t>Hotel is older, looking tired in many places. But the room was clean.  Crisp clean sheets and a clean bathroom with updated tub, toilet and basin.  Rooms face the road - so if you cant sleep with noise, try some earplugs.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r553840571-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>553840571</t>
+  </si>
+  <si>
+    <t>01/14/2018</t>
+  </si>
+  <si>
+    <t>Nice place for an early flight</t>
+  </si>
+  <si>
+    <t>The room was clean and fairly modern. The staff was friendly and accommodating. The only concern we had was the neighborhood. When we came back from dinner we were approached by a woman who wanted us to rent her a room. Also at the liquor store down the street there was people hanging out front arguing. I highly recommend getting what you need for the evening before checking in. Other than that, the room was nice and clean, bed was super comfortable.  You needed a key card to enter the hallway to the rooms and elevator,  put my mind a bit at ease, plus the rooms had double locks. If you don't mind a seedy neighborhood it is a decent place to stay for the value.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelMangmt321, Hotel Support at LAX Stadium Inn, responded to this reviewResponded January 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded January 19, 2018</t>
+  </si>
+  <si>
+    <t>The room was clean and fairly modern. The staff was friendly and accommodating. The only concern we had was the neighborhood. When we came back from dinner we were approached by a woman who wanted us to rent her a room. Also at the liquor store down the street there was people hanging out front arguing. I highly recommend getting what you need for the evening before checking in. Other than that, the room was nice and clean, bed was super comfortable.  You needed a key card to enter the hallway to the rooms and elevator,  put my mind a bit at ease, plus the rooms had double locks. If you don't mind a seedy neighborhood it is a decent place to stay for the value.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r548764151-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>548764151</t>
+  </si>
+  <si>
+    <t>12/22/2017</t>
+  </si>
+  <si>
+    <t>Worst hotel ever</t>
+  </si>
+  <si>
+    <t>This hotel is dishonest beyond belief and illegally charged my credit card for smoking in the room (I don't and never have smoked in my life) and the did it TWO DAY AFTER I stayed there!  Management was rude and deceitful and refuse to try to rectify the situation! Never stay here!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>This hotel is dishonest beyond belief and illegally charged my credit card for smoking in the room (I don't and never have smoked in my life) and the did it TWO DAY AFTER I stayed there!  Management was rude and deceitful and refuse to try to rectify the situation! Never stay here!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r537395080-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>537395080</t>
+  </si>
+  <si>
+    <t>10/31/2017</t>
+  </si>
+  <si>
+    <t>Almost horrible</t>
+  </si>
+  <si>
+    <t>This was definitely the worst motel I have ever stayed in, although it’s right near the airport, this place Leaves a whole lot to be desired and I think corporate needs to take a long and hard look at this particular location as it needs a lot of work on the outside as well as the inside everything from the facility itself all the way down to the employees MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>HotelMangmt321, Hotel Support at LAX Stadium Inn, responded to this reviewResponded November 6, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 6, 2017</t>
+  </si>
+  <si>
+    <t>This was definitely the worst motel I have ever stayed in, although it’s right near the airport, this place Leaves a whole lot to be desired and I think corporate needs to take a long and hard look at this particular location as it needs a lot of work on the outside as well as the inside everything from the facility itself all the way down to the employees More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r537297828-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>537297828</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>Clean, safe</t>
+  </si>
+  <si>
+    <t>This hotel was in a good location. Safe to park. The elevator was a little murdery but other than that, all good. (We did not get murdered so that's good.) good location as well. Only thing is our TV didn't work, but not a big deal. MoreShow less</t>
+  </si>
+  <si>
+    <t>This hotel was in a good location. Safe to park. The elevator was a little murdery but other than that, all good. (We did not get murdered so that's good.) good location as well. Only thing is our TV didn't work, but not a big deal. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r536398824-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>536398824</t>
+  </si>
+  <si>
+    <t>10/27/2017</t>
+  </si>
+  <si>
+    <t>Not for business travel</t>
+  </si>
+  <si>
+    <t>Its an average hotel, smelling bad.not  worth trying if you are a business traveller.only advantage is that it is close to LA airport, LAX.poor breakfast. you are offered only bagels and donuts and oats. nothing else. unfriendly staff.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelMangmt321, Hotel Support at LAX Stadium Inn, responded to this reviewResponded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 30, 2017</t>
+  </si>
+  <si>
+    <t>Its an average hotel, smelling bad.not  worth trying if you are a business traveller.only advantage is that it is close to LA airport, LAX.poor breakfast. you are offered only bagels and donuts and oats. nothing else. unfriendly staff.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r530347814-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>530347814</t>
+  </si>
+  <si>
+    <t>10/05/2017</t>
+  </si>
+  <si>
+    <t>Needs Improvement</t>
+  </si>
+  <si>
+    <t>Needs a make over, place is tired looking and dull, dark, old.Service though is great and people are warmth and helpful. location is easily accessible they can have add on service i.e. shuttle for extra. At least its a personal service.They should right and then advise clients via email once online booking has been confirmed.MoreShow less</t>
+  </si>
+  <si>
+    <t>HotelMangmt321, Hotel support at LAX Stadium Inn, responded to this reviewResponded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2017</t>
+  </si>
+  <si>
+    <t>Needs a make over, place is tired looking and dull, dark, old.Service though is great and people are warmth and helpful. location is easily accessible they can have add on service i.e. shuttle for extra. At least its a personal service.They should right and then advise clients via email once online booking has been confirmed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r528186442-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>528186442</t>
+  </si>
+  <si>
+    <t>09/28/2017</t>
+  </si>
+  <si>
+    <t>Not bad</t>
+  </si>
+  <si>
+    <t>Look, this isn't a 5 star hotel BUT for a night, it's not bad. The place is pretty clean and comfortable and offers a basic, but free, breakfast. For one night and to be close to the airport, this place is alright, and cheap!MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>HotelMangmt321, Hotel Support at LAX Stadium Inn, responded to this reviewResponded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 4, 2017</t>
+  </si>
+  <si>
+    <t>Look, this isn't a 5 star hotel BUT for a night, it's not bad. The place is pretty clean and comfortable and offers a basic, but free, breakfast. For one night and to be close to the airport, this place is alright, and cheap!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r509060158-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>509060158</t>
+  </si>
+  <si>
+    <t>08/05/2017</t>
+  </si>
+  <si>
+    <t>Refused to accept delivery</t>
+  </si>
+  <si>
+    <t>I was supposed to recibe some work stuff in the hotel, it has never been a deal. And this place refuse to accept them. And they denied it! Totally unprofessional, they just got me in a lot of trouble.</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r490222474-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>490222474</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>terrible old dodgy hotel Best Value Inn what a joke</t>
+  </si>
+  <si>
+    <t>This place is set in a dodgy part of town and its a very old run down hotel and its terrible.Reception are locked in behind what looks like a bullet proof screen and have to allow you access to check in, which give you an idea of the dodgy area.  The lifts and walkways leading to the rooms were filthy and stunk of cigarette smoke and there were butts lying all over.The rooms were very old,dated and poorly fitted out with a poor quality bed and pillows. The rooms smelt musty and unsafe and the locks on the door were tampered with and didn't work properly.we couldn't wait to check out the next morning.There is nothing like Best value as the name suggests, its a dodgy poor quality grossly overpriced hotel and I would avoid it at all costsMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>This place is set in a dodgy part of town and its a very old run down hotel and its terrible.Reception are locked in behind what looks like a bullet proof screen and have to allow you access to check in, which give you an idea of the dodgy area.  The lifts and walkways leading to the rooms were filthy and stunk of cigarette smoke and there were butts lying all over.The rooms were very old,dated and poorly fitted out with a poor quality bed and pillows. The rooms smelt musty and unsafe and the locks on the door were tampered with and didn't work properly.we couldn't wait to check out the next morning.There is nothing like Best value as the name suggests, its a dodgy poor quality grossly overpriced hotel and I would avoid it at all costsMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r489970492-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>489970492</t>
+  </si>
+  <si>
+    <t>06/02/2017</t>
+  </si>
+  <si>
+    <t>impressive big and nice</t>
+  </si>
+  <si>
+    <t>Very nice and quite, big and cleangood location close to the fwy the price is very reasonable for what you get. I will stay there again as well as recommend Americas Best Value Inn &amp; Suites to my friends and family.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r488854161-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>488854161</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Great pleace for great price</t>
+  </si>
+  <si>
+    <t>The 24 hr service is good. The rooms are nice, a lot of parking spaces, perfect location and nice price. I found this hotel on an awsome deal, it really came out as it was offer in expidia.com. Thank You!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r428582914-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>428582914</t>
+  </si>
+  <si>
+    <t>10/16/2016</t>
+  </si>
+  <si>
+    <t>Overnight stay for LAX</t>
+  </si>
+  <si>
+    <t>Hotel is older but was fine for an overnight stay.    It's not in the greatest part of town ( I wouldn't go out walking at night) but it worked for a quick stay.  I got a good price $100 per night which is hard to do near LAX</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r425741786-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>425741786</t>
+  </si>
+  <si>
+    <t>10/06/2016</t>
+  </si>
+  <si>
+    <t>Like sleeping on the road</t>
+  </si>
+  <si>
+    <t>Greate rooms with big TV, fridge,micro++, but its a lot of noise from the street outside. Absolutly no isolation in the windows made IT really noisy. Location is pretty good. Near the airport lax.....</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r424867437-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>424867437</t>
+  </si>
+  <si>
+    <t>10/03/2016</t>
+  </si>
+  <si>
+    <t>Great location close to airport</t>
+  </si>
+  <si>
+    <t>I flew into LAX and needed a hotel room close to Manhattan Beach without spending an arm and a leg. The room was large and very clean and had everything I needed. I am not a big breakfast person so I really liked the doughnuts. The manager told me that the doughnuts were from the world famous Randy's Doughnuts. I have seen Randy's in a number of TV shows and movies.</t>
+  </si>
+  <si>
+    <t>September 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r420390201-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>420390201</t>
+  </si>
+  <si>
+    <t>09/19/2016</t>
+  </si>
+  <si>
+    <t>Just ok</t>
+  </si>
+  <si>
+    <t>We my family and I stayed 2 times at this hotel. First when we arrived in Los Angeles and again 3 weeks later after a roadtrip.The hotelstaff was really friendly and the receptionist who checked us in the second time remembered us form 3 weeks ago. So nice.The rooms were ok roomy and the bed were nice, but there was a lot of noise from the street also at night.The breakfast was no good, they served doghnuts, but there were also coffee, tea and juice. The hotel is located in a mexican area, which at first seemed scary, but after walking around in the area, we found it to be ok.For the value, it is a nice hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>We my family and I stayed 2 times at this hotel. First when we arrived in Los Angeles and again 3 weeks later after a roadtrip.The hotelstaff was really friendly and the receptionist who checked us in the second time remembered us form 3 weeks ago. So nice.The rooms were ok roomy and the bed were nice, but there was a lot of noise from the street also at night.The breakfast was no good, they served doghnuts, but there were also coffee, tea and juice. The hotel is located in a mexican area, which at first seemed scary, but after walking around in the area, we found it to be ok.For the value, it is a nice hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r416077306-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>416077306</t>
+  </si>
+  <si>
+    <t>09/08/2016</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>I stayed at the Best Value Inn Hotel during Labor Day weekend ( Sept 2-4, 2016) for Cali Jam 2016, a Line Dance Conference. 
+I was VERY dissatisfied with my stay at this hotel. Where do I begin with the Numerous things that went wrong with my stay. First the Elevator was out of order my whole stay so I had to drag my luggage up two flights of stairs. I was put in a room that was next to the stair so ALL NIGHT I heard the door/gate slam close with every customer. The bathroom had a very bad odor coming from it so I had to keep that door close at all times. Next my sheet was dirty and when I ask Saturday Morning for house Keeping to CHANGE my Sheets (fresh sheets and did ask)  and to give me fresh towels. (Don't think that's asking to much). I get back to my room I did have fresh towels &amp; my bed was made BUT with the same sheets. I called the front desk to address this matter. The front desk personal tells me that, the house Keeper took the key and can't get me a clean sheet till later and even then no one will be able to make my bed back up because they Don't Know How, which was very disappointing. So the sheet sat On my desk is my room because I was too tired...I stayed at the Best Value Inn Hotel during Labor Day weekend ( Sept 2-4, 2016) for Cali Jam 2016, a Line Dance Conference. I was VERY dissatisfied with my stay at this hotel. Where do I begin with the Numerous things that went wrong with my stay. First the Elevator was out of order my whole stay so I had to drag my luggage up two flights of stairs. I was put in a room that was next to the stair so ALL NIGHT I heard the door/gate slam close with every customer. The bathroom had a very bad odor coming from it so I had to keep that door close at all times. Next my sheet was dirty and when I ask Saturday Morning for house Keeping to CHANGE my Sheets (fresh sheets and did ask)  and to give me fresh towels. (Don't think that's asking to much). I get back to my room I did have fresh towels &amp; my bed was made BUT with the same sheets. I called the front desk to address this matter. The front desk personal tells me that, the house Keeper took the key and can't get me a clean sheet till later and even then no one will be able to make my bed back up because they Don't Know How, which was very disappointing. So the sheet sat On my desk is my room because I was too tired coming from a dance conference &amp; walking up stair twice a day to change the sheet. There were many flaws with hotel from the no parking  down to the 3 Item Continental breakfast that I couldn't take to my room. So NO I would NOT stay here again. LaShalle WileyMoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed at the Best Value Inn Hotel during Labor Day weekend ( Sept 2-4, 2016) for Cali Jam 2016, a Line Dance Conference. 
+I was VERY dissatisfied with my stay at this hotel. Where do I begin with the Numerous things that went wrong with my stay. First the Elevator was out of order my whole stay so I had to drag my luggage up two flights of stairs. I was put in a room that was next to the stair so ALL NIGHT I heard the door/gate slam close with every customer. The bathroom had a very bad odor coming from it so I had to keep that door close at all times. Next my sheet was dirty and when I ask Saturday Morning for house Keeping to CHANGE my Sheets (fresh sheets and did ask)  and to give me fresh towels. (Don't think that's asking to much). I get back to my room I did have fresh towels &amp; my bed was made BUT with the same sheets. I called the front desk to address this matter. The front desk personal tells me that, the house Keeper took the key and can't get me a clean sheet till later and even then no one will be able to make my bed back up because they Don't Know How, which was very disappointing. So the sheet sat On my desk is my room because I was too tired...I stayed at the Best Value Inn Hotel during Labor Day weekend ( Sept 2-4, 2016) for Cali Jam 2016, a Line Dance Conference. I was VERY dissatisfied with my stay at this hotel. Where do I begin with the Numerous things that went wrong with my stay. First the Elevator was out of order my whole stay so I had to drag my luggage up two flights of stairs. I was put in a room that was next to the stair so ALL NIGHT I heard the door/gate slam close with every customer. The bathroom had a very bad odor coming from it so I had to keep that door close at all times. Next my sheet was dirty and when I ask Saturday Morning for house Keeping to CHANGE my Sheets (fresh sheets and did ask)  and to give me fresh towels. (Don't think that's asking to much). I get back to my room I did have fresh towels &amp; my bed was made BUT with the same sheets. I called the front desk to address this matter. The front desk personal tells me that, the house Keeper took the key and can't get me a clean sheet till later and even then no one will be able to make my bed back up because they Don't Know How, which was very disappointing. So the sheet sat On my desk is my room because I was too tired coming from a dance conference &amp; walking up stair twice a day to change the sheet. There were many flaws with hotel from the no parking  down to the 3 Item Continental breakfast that I couldn't take to my room. So NO I would NOT stay here again. LaShalle WileyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r410380402-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>410380402</t>
+  </si>
+  <si>
+    <t>08/24/2016</t>
+  </si>
+  <si>
+    <t>Really poor and didn't feel safe</t>
+  </si>
+  <si>
+    <t>This hotel was awful. First it looks like a prison. I should have guessed the problems when we found the lift our pf order meaning we had to lug all our cases up 4 flights of stairs and found half way up the stairs there was an extremely heavy gauge metal door protecting from non-guests. However the door was never locked so anyone has unrestricted access. We woke at 2.30 to the sound of noises on the corridor outside the room and didn't get much sleep after that. I'm unfamiliar with LA but the area where the hotel located didn't look very niceThe room was ok but not much better. It smelled of disinfectant or heavy cleaner. The furniture is old and some pieces are dirty. The bathroom is ok but the shower was low and only fit for someone less than 4 foot tall (it could not be altered) The breakfast was awful with  stewed coffee and stale croissants. The only positive were the really pleasant staff. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>This hotel was awful. First it looks like a prison. I should have guessed the problems when we found the lift our pf order meaning we had to lug all our cases up 4 flights of stairs and found half way up the stairs there was an extremely heavy gauge metal door protecting from non-guests. However the door was never locked so anyone has unrestricted access. We woke at 2.30 to the sound of noises on the corridor outside the room and didn't get much sleep after that. I'm unfamiliar with LA but the area where the hotel located didn't look very niceThe room was ok but not much better. It smelled of disinfectant or heavy cleaner. The furniture is old and some pieces are dirty. The bathroom is ok but the shower was low and only fit for someone less than 4 foot tall (it could not be altered) The breakfast was awful with  stewed coffee and stale croissants. The only positive were the really pleasant staff. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r399838175-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>399838175</t>
+  </si>
+  <si>
+    <t>08/01/2016</t>
+  </si>
+  <si>
+    <t>Distressed even more</t>
+  </si>
+  <si>
+    <t>I missed my final flight out to my destination due to some renovation going on and a forever immigration thing. I was keeping myself cool off to my situation that I have to stay a night and catch the early flight  the following day. I finally decide to check in just at least I would have a break and take a beauty rest, I chose this because it's somehow closest to the airport, budget wise and so far my room was very comfy not until I tried to go out to buy something to eat around 10 in the evening. Head back to the main door and my card key wasn't working (same at the first place upon my entry to the establishment ) I ask for the receptionist assistance and she told me that she's going to operate it by their main system. I just wonder why isn't working even in my room. Turn out to feel creepy around and I felt really scared and anxious. I know this is old but at least make everyone feel at home and safe. Overall experience was totally even more distressing.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>I missed my final flight out to my destination due to some renovation going on and a forever immigration thing. I was keeping myself cool off to my situation that I have to stay a night and catch the early flight  the following day. I finally decide to check in just at least I would have a break and take a beauty rest, I chose this because it's somehow closest to the airport, budget wise and so far my room was very comfy not until I tried to go out to buy something to eat around 10 in the evening. Head back to the main door and my card key wasn't working (same at the first place upon my entry to the establishment ) I ask for the receptionist assistance and she told me that she's going to operate it by their main system. I just wonder why isn't working even in my room. Turn out to feel creepy around and I felt really scared and anxious. I know this is old but at least make everyone feel at home and safe. Overall experience was totally even more distressing.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r396880715-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>396880715</t>
+  </si>
+  <si>
+    <t>07/25/2016</t>
+  </si>
+  <si>
+    <t>A welcome find after airport nightmares</t>
+  </si>
+  <si>
+    <t>This is a hotel which is part of the "travellers in distress" scheme - where a flight has been delayed etc. etc. and in this case I was on a flight from Chicago to Auckland via LAX.  My 1st flight was 3 hours late arriving so I had to be rebooked onto the next flight to Auckland - 24 hours later.With a heavy heart, and at 1am, I arrived at the hotel, after a somewhat difficult taxi ride - recommendation - DO use Uber for this.The receptionist was absolutely brilliant, friendly, and even though I was completely knackered, took care of me.My room was basic but very functional and with a good working shower.  The AC unit was  a bit noisy, but within the context of an emergency hotel - was OK.Location is very close to Lax - 10 min Uber ride, and there are 2 good very Mexican local cafes/bistro within 30 seconds walk for a great authentic Spanish breakfast!I wouldn't want to stay there for a holiday, but in transit, it's affordable and close by.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is a hotel which is part of the "travellers in distress" scheme - where a flight has been delayed etc. etc. and in this case I was on a flight from Chicago to Auckland via LAX.  My 1st flight was 3 hours late arriving so I had to be rebooked onto the next flight to Auckland - 24 hours later.With a heavy heart, and at 1am, I arrived at the hotel, after a somewhat difficult taxi ride - recommendation - DO use Uber for this.The receptionist was absolutely brilliant, friendly, and even though I was completely knackered, took care of me.My room was basic but very functional and with a good working shower.  The AC unit was  a bit noisy, but within the context of an emergency hotel - was OK.Location is very close to Lax - 10 min Uber ride, and there are 2 good very Mexican local cafes/bistro within 30 seconds walk for a great authentic Spanish breakfast!I wouldn't want to stay there for a holiday, but in transit, it's affordable and close by.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r395139919-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>395139919</t>
+  </si>
+  <si>
+    <t>07/21/2016</t>
+  </si>
+  <si>
+    <t>close, convenient but not up to par</t>
+  </si>
+  <si>
+    <t>this was our staycay last year near Manhattan Beach, CA.  it's average, but staff aren't very friendly.  I can't speak too highly of this place other than, it's inexpensive and close to Sepulveda Blvd. (LAX)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r384668128-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>384668128</t>
+  </si>
+  <si>
+    <t>06/21/2016</t>
+  </si>
+  <si>
+    <t>Great choice of hotel for a quick stay in LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Had only 1 stay in LA between flights. For a last minute booking close to the airport. Clean, great service. Bed is a bit hard for my personal taste but the room is decent for the price. I think it's the best value for your money. Only thing bad, no shuttle service but taxi fair is around $20-25 and Uber is around $10-15 depending on traffic. I recommand this hotel. </t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r383443736-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>383443736</t>
+  </si>
+  <si>
+    <t>06/17/2016</t>
+  </si>
+  <si>
+    <t>Nice stay</t>
+  </si>
+  <si>
+    <t>Good location and very close if your flying out of LAX or in between flights just to rest and relax or just too tired to drive. The staff on night shift was very professional and friendly. Made sure that we were comfortable and checked on us if we needed anything during our stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r381584776-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>381584776</t>
+  </si>
+  <si>
+    <t>06/11/2016</t>
+  </si>
+  <si>
+    <t>very good</t>
+  </si>
+  <si>
+    <t>The hotel is very comfortable and I am very satisfied, the bed is large and comfortable, although the hotel near the road, but the inside of the rooms in the hotel, quiet and rest is very good, the bathroom dry wet depart, easy to use. Convenient parking lot, hotel staff friendly, varieties rich breakfast, eat well. Tourism as the first time to come to the United States, I have a question to ask staff, they are very patient to help me, especially my English is not very good, I feel very happy. This brand of hotel leave deep impression to me, I will check in after opportunity.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r369114681-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>369114681</t>
+  </si>
+  <si>
+    <t>04/30/2016</t>
+  </si>
+  <si>
+    <t>Central location, good price</t>
+  </si>
+  <si>
+    <t>This was a good location for us to visit lots of places in Southern California. Room was big, clean, good amenities. Two bottles of drinking water in the room was a nice touch. Bed was very comfortable.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r368822327-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>368822327</t>
+  </si>
+  <si>
+    <t>04/29/2016</t>
+  </si>
+  <si>
+    <t>The Price is Right</t>
+  </si>
+  <si>
+    <t>You get what you pay for here, if your looking for frills and "Sheraton" style operation, this won't be for you. Booked into it for 4 nights and found the Staff very helpful, and polite. Ideal for short journey to the Airport, but the area isn't a place where you would take a holiday, so if you're looking for a place with a nightlife and decent restaurants, it's not going to work, although you can drive south to Long Beach and your about a 40 minute drive to Hollywood. I think the Hotel needs a bit of an upgrade as it's a little bit "tired" but the room was clean and tidy. If I was being a bit picky, I would say it's noisy with traffic but then again, it is Los Angeles!!MoreShow less</t>
+  </si>
+  <si>
+    <t>You get what you pay for here, if your looking for frills and "Sheraton" style operation, this won't be for you. Booked into it for 4 nights and found the Staff very helpful, and polite. Ideal for short journey to the Airport, but the area isn't a place where you would take a holiday, so if you're looking for a place with a nightlife and decent restaurants, it's not going to work, although you can drive south to Long Beach and your about a 40 minute drive to Hollywood. I think the Hotel needs a bit of an upgrade as it's a little bit "tired" but the room was clean and tidy. If I was being a bit picky, I would say it's noisy with traffic but then again, it is Los Angeles!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r368204458-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>368204458</t>
+  </si>
+  <si>
+    <t>04/27/2016</t>
+  </si>
+  <si>
+    <t>Convenient to LAX</t>
+  </si>
+  <si>
+    <t>The hotel was conveniently located close to the airport. There is a dollar-type store across the street that sells some food items and is convenient to pick up snacks and quick microwave type meals.The hotel itself was clean and the rooms are equipped with microwaves and mini-fridges. Although we left before breakfast, the staff gave us coffee and muffins for the road.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r349117916-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>349117916</t>
+  </si>
+  <si>
+    <t>02/19/2016</t>
+  </si>
+  <si>
+    <t>Good price &amp; clean room!</t>
+  </si>
+  <si>
+    <t>We stayed one night here, mostly because of the convenient location and price – we were spending the day in LA and when daylight started to get away from us. This place wasn’t too far and the price was extremely appealing. The front desk agent was very sweet, friendly even though she seemed a bit frazzled. Unfortunately unprofessional though – she announced our room number aloud (a pet peeve of mine as a hospitality student), but the lobby was empty.
+	The room itself was fine, a little worn, needed a few updates, but it was clean. The bed was a very welcome sight, and I had no complaints about the cleanliness of it. (Though the pillows could’ve been better - that’s what I get for not traveling with mine.)
+	The bathroom wasn’t spectacular, that’s where the need for updates was most obvious. When I attempted to take a shower, I could not get any hot water. Though my partner was when it was their turn. So maybe it takes a while to warm up, or maybe I was just too sleepy to properly operate a shower. Which is a distinct possibility, since the sink faucet was able to get hot water just fine. 
+	Noise level was what you’d expect, thinner walls means you can hear every conversation in the hallway, but the traffic noise wasn’t too bad for being close to the airport. 
+	My last note was that our keycard...We stayed one night here, mostly because of the convenient location and price – we were spending the day in LA and when daylight started to get away from us. This place wasn’t too far and the price was extremely appealing. The front desk agent was very sweet, friendly even though she seemed a bit frazzled. Unfortunately unprofessional though – she announced our room number aloud (a pet peeve of mine as a hospitality student), but the lobby was empty.	The room itself was fine, a little worn, needed a few updates, but it was clean. The bed was a very welcome sight, and I had no complaints about the cleanliness of it. (Though the pillows could’ve been better - that’s what I get for not traveling with mine.)	The bathroom wasn’t spectacular, that’s where the need for updates was most obvious. When I attempted to take a shower, I could not get any hot water. Though my partner was when it was their turn. So maybe it takes a while to warm up, or maybe I was just too sleepy to properly operate a shower. Which is a distinct possibility, since the sink faucet was able to get hot water just fine. 	Noise level was what you’d expect, thinner walls means you can hear every conversation in the hallway, but the traffic noise wasn’t too bad for being close to the airport. 	My last note was that our keycard seemed a little faulty. Sometimes it worked, other times the door wouldn’t even register it. Since there was two of us it was a little inconvenient but doable to work around, especially for just one night. One person would just have to stay in the room while the other stepped out. 	Overall I was pretty happy with it for the price. Under 100 in a very convenient part of town. There were obviously a couple of complaints, but for what I needed – a clean bed to recover from hours and hours of jet lag – it was just what I was looking for.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed one night here, mostly because of the convenient location and price – we were spending the day in LA and when daylight started to get away from us. This place wasn’t too far and the price was extremely appealing. The front desk agent was very sweet, friendly even though she seemed a bit frazzled. Unfortunately unprofessional though – she announced our room number aloud (a pet peeve of mine as a hospitality student), but the lobby was empty.
+	The room itself was fine, a little worn, needed a few updates, but it was clean. The bed was a very welcome sight, and I had no complaints about the cleanliness of it. (Though the pillows could’ve been better - that’s what I get for not traveling with mine.)
+	The bathroom wasn’t spectacular, that’s where the need for updates was most obvious. When I attempted to take a shower, I could not get any hot water. Though my partner was when it was their turn. So maybe it takes a while to warm up, or maybe I was just too sleepy to properly operate a shower. Which is a distinct possibility, since the sink faucet was able to get hot water just fine. 
+	Noise level was what you’d expect, thinner walls means you can hear every conversation in the hallway, but the traffic noise wasn’t too bad for being close to the airport. 
+	My last note was that our keycard...We stayed one night here, mostly because of the convenient location and price – we were spending the day in LA and when daylight started to get away from us. This place wasn’t too far and the price was extremely appealing. The front desk agent was very sweet, friendly even though she seemed a bit frazzled. Unfortunately unprofessional though – she announced our room number aloud (a pet peeve of mine as a hospitality student), but the lobby was empty.	The room itself was fine, a little worn, needed a few updates, but it was clean. The bed was a very welcome sight, and I had no complaints about the cleanliness of it. (Though the pillows could’ve been better - that’s what I get for not traveling with mine.)	The bathroom wasn’t spectacular, that’s where the need for updates was most obvious. When I attempted to take a shower, I could not get any hot water. Though my partner was when it was their turn. So maybe it takes a while to warm up, or maybe I was just too sleepy to properly operate a shower. Which is a distinct possibility, since the sink faucet was able to get hot water just fine. 	Noise level was what you’d expect, thinner walls means you can hear every conversation in the hallway, but the traffic noise wasn’t too bad for being close to the airport. 	My last note was that our keycard seemed a little faulty. Sometimes it worked, other times the door wouldn’t even register it. Since there was two of us it was a little inconvenient but doable to work around, especially for just one night. One person would just have to stay in the room while the other stepped out. 	Overall I was pretty happy with it for the price. Under 100 in a very convenient part of town. There were obviously a couple of complaints, but for what I needed – a clean bed to recover from hours and hours of jet lag – it was just what I was looking for.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r348969751-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>348969751</t>
+  </si>
+  <si>
+    <t>02/18/2016</t>
+  </si>
+  <si>
+    <t>good value</t>
+  </si>
+  <si>
+    <t>Good bed, free parking, good wifi. Nothing fancy. You get what You pay for. I really appreciate. The breakfasts wasn't good, only coffee, juice and junk food, no eggs, no brads, no fruits, no milk.. only donuts.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r347265075-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>347265075</t>
+  </si>
+  <si>
+    <t>02/12/2016</t>
+  </si>
+  <si>
+    <t>Full-featured and efficient</t>
+  </si>
+  <si>
+    <t>It was on a Thursday that I had to catch a 6am flight from the Los Angeles International Airport, after returning the rental car at an off-airport lot and allowing for time to ride the shuttle. Working backwards I figured I'd better check out no later than 4am. The ABVI El Segundo met my needs, being 10 minutes away from LAX. The neighborhood was not bad and the room was quiet and spotlessly clean. There are ample covered parking slots in the well-lit courtyard. In-room amenities included free WiFi, flat-screen TV, fridge and microwave - which all worked well. Nice reception staff. The only disadvantage was the scarcity of restaurants in the vicinity.MoreShow less</t>
+  </si>
+  <si>
+    <t>It was on a Thursday that I had to catch a 6am flight from the Los Angeles International Airport, after returning the rental car at an off-airport lot and allowing for time to ride the shuttle. Working backwards I figured I'd better check out no later than 4am. The ABVI El Segundo met my needs, being 10 minutes away from LAX. The neighborhood was not bad and the room was quiet and spotlessly clean. There are ample covered parking slots in the well-lit courtyard. In-room amenities included free WiFi, flat-screen TV, fridge and microwave - which all worked well. Nice reception staff. The only disadvantage was the scarcity of restaurants in the vicinity.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r341261044-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>341261044</t>
+  </si>
+  <si>
+    <t>01/19/2016</t>
+  </si>
+  <si>
+    <t>When all was lost!</t>
+  </si>
+  <si>
+    <t>We had been waiting for our plane to take off since 3pm...it was now 9pm and the flight was cancelled due to weather.  No luggage, no cab fare and no complimentary hotel.  ABVI is part of a program with AA that provides discounted rates for those stranded at the airport.  We got a room right away, the gentleman at the hotel was super nice and professional on the phone, greeted us most cordially when we arrived, arranged for a pickup the next morning, called us in our room to confirm this pick up, and even told us where we could easily walk to get a bite to eat.  He was great and made up for everything!MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>We had been waiting for our plane to take off since 3pm...it was now 9pm and the flight was cancelled due to weather.  No luggage, no cab fare and no complimentary hotel.  ABVI is part of a program with AA that provides discounted rates for those stranded at the airport.  We got a room right away, the gentleman at the hotel was super nice and professional on the phone, greeted us most cordially when we arrived, arranged for a pickup the next morning, called us in our room to confirm this pick up, and even told us where we could easily walk to get a bite to eat.  He was great and made up for everything!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r333059411-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>333059411</t>
+  </si>
+  <si>
+    <t>12/15/2015</t>
+  </si>
+  <si>
+    <t>Still the Best</t>
+  </si>
+  <si>
+    <t>I returned for another business trip and found that the customer service and value of this hotel to be top notch. The rooms were clean and we'll kept. The customer service was on par with my previous visits, and the location makes all areas if Los Angeles easily accessible. I will definitely stay here every time that I am in LA.</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r332131090-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>332131090</t>
+  </si>
+  <si>
+    <t>12/11/2015</t>
+  </si>
+  <si>
+    <t>Amazing hotel in the best location!</t>
+  </si>
+  <si>
+    <t>My family and I stayed here about a week ago for the weekend.  Overall had a great experience.  The staff at the front desk were very pleasant and helpful.  The rooms are HUGE and super clean.  We had the maids clean the rooms everyday which was nice because it was done before we got back to the rooms.  The breakfast every morning was delicious.  The donuts were fabulous!  I would recommend this hotel to anyone in the area!  We flew out of LAX and I arrived at the airport in less than 15 minutes!  Overall it was a fabulous stay :)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r321642656-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>321642656</t>
+  </si>
+  <si>
+    <t>10/25/2015</t>
+  </si>
+  <si>
+    <t>Best inn ever! Amazing service run by amazing people</t>
+  </si>
+  <si>
+    <t>The hotel was amazing, everything about it was top class! The people that ran it where so friendly and helpful and went out of there way for us! I would definetly go back! And i plan too! The rooms were amazing and the best was a cloud! The shower was great! I have no complaints at all! Great car parking! Great location! Great big rooms!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r321124852-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>321124852</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t>Best accomadation for price and location in LA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fantastic and friendly staff. 5 minutes from LAX. Lovely big rooms and the restrooms where fantastic. I will be staying here again on my next visit to LA. The area is nice and it is a 2 minute walk to down town towards the stores and other locations. I have recommend this hotel to all my friends </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r309045525-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>309045525</t>
+  </si>
+  <si>
+    <t>09/10/2015</t>
+  </si>
+  <si>
+    <t>Dirty horrible place</t>
+  </si>
+  <si>
+    <t>I had to stay 1 night close to the airport and chose this place. It was a poor choice, the place is quite disgusting, bathroom didn't work properly and breakfast was a donut. A donut. And that was it.</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r294895436-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>294895436</t>
+  </si>
+  <si>
+    <t>08/02/2015</t>
+  </si>
+  <si>
+    <t>USA 2015 LA 2</t>
+  </si>
+  <si>
+    <t>POSITIVEposition ( without traffic )NEGATIVEToo dirty and poor Miserable BreackfastSadNo words. It s unbelievable to find location as this . It s no possible to have this kind of standard s of Cleanleness . Few towels ( write With brown and grey strips , j used mine....) , no paper for toilettes!!!!! Rationed soap and shampoo , dust everywhere .No warbrobe !!!!!No milk for Breackfast With a general  poor choice .J wish  to save only the staff.</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r286144172-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>286144172</t>
+  </si>
+  <si>
+    <t>07/06/2015</t>
+  </si>
+  <si>
+    <t>to recommend or test carefree</t>
+  </si>
+  <si>
+    <t>I only stayed one night but excellent quality / price. Reception, room service and room for 2 with bathroom from more correct. Spacious room , king size bed , Pleasant sdb.the comfort of this room in the hostel is equivalent to many other hotels.Televion, spacious room, very comfortable bed, fridge, microwave, bathroom spacious with products and towels available.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r284349989-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>284349989</t>
+  </si>
+  <si>
+    <t>06/30/2015</t>
+  </si>
+  <si>
+    <t>I'll Be Back</t>
+  </si>
+  <si>
+    <t>I went to this hotel upon the recommendation of the travellers aid desk in LAX.  I'm very glad I did.  The price was significantly lower than chain hotels in the airport area, and the service was friendly and even a bit homey.  The room was freshly painted with new carpet and fixtures.  It was topnotch.  As I had a very early start to my day (following my timely wake-up call and the on-time taxi they'd arranged for me), I couldn't stay for the continental breakfast.  But based on my other experiences there, I'd guess it would have been a nice way to begin my day.  I was completely satisfied with my stay, and it's now my destination of choice when I need to overnight in LA to continue my travel from overseas to the US East Coast.  I recommend it without reservation to other travellers through LAX.MoreShow less</t>
+  </si>
+  <si>
+    <t>I went to this hotel upon the recommendation of the travellers aid desk in LAX.  I'm very glad I did.  The price was significantly lower than chain hotels in the airport area, and the service was friendly and even a bit homey.  The room was freshly painted with new carpet and fixtures.  It was topnotch.  As I had a very early start to my day (following my timely wake-up call and the on-time taxi they'd arranged for me), I couldn't stay for the continental breakfast.  But based on my other experiences there, I'd guess it would have been a nice way to begin my day.  I was completely satisfied with my stay, and it's now my destination of choice when I need to overnight in LA to continue my travel from overseas to the US East Coast.  I recommend it without reservation to other travellers through LAX.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r277218129-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>277218129</t>
+  </si>
+  <si>
+    <t>06/02/2015</t>
+  </si>
+  <si>
+    <t>Any port in a storm</t>
+  </si>
+  <si>
+    <t>Stayed as "distressed passenger" after missing connection at LAX. O.K. for that but a bit far from LAX. Clean. Nice staff. "Continental" breakfast was juice, coffee and donuts. It is not in the garden spot of LA.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r268296809-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>268296809</t>
+  </si>
+  <si>
+    <t>04/27/2015</t>
+  </si>
+  <si>
+    <t>I shudder when I think of here</t>
+  </si>
+  <si>
+    <t>I understand this is not a five star place. But it is completely &amp; utterly disgusting. The place was dirty with dirty towels &amp; the sheets were filthy with holes in them. I actually slept on a sheet I had in the car that is how putrid theirs were. I stayed one night&amp; I was out of there. Don't do it, go somewhere else</t>
+  </si>
+  <si>
+    <t>September 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r268284605-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>268284605</t>
+  </si>
+  <si>
+    <t>Reasonable, value for money</t>
+  </si>
+  <si>
+    <t>The hotel needs some renovations but the rooms are spacy and clean. There is a parking that seems to be safe, we felt safe in the area.When picking up the rental car at LAX it took us a little more than five minutes to reach the hotel arriving there well after midnight. We had a quick bite across the road before hopping in. Inglewood is not a posh area but conveniently in the centre and close to shopping centre westfield culver city. Enough restaurants in the neighborhood, try the Mongalian BBQ at less than a quarter mile distance. WIFI was up and ddown in the room.Continental breakfast is free. In short: value for moneyMoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t>The hotel needs some renovations but the rooms are spacy and clean. There is a parking that seems to be safe, we felt safe in the area.When picking up the rental car at LAX it took us a little more than five minutes to reach the hotel arriving there well after midnight. We had a quick bite across the road before hopping in. Inglewood is not a posh area but conveniently in the centre and close to shopping centre westfield culver city. Enough restaurants in the neighborhood, try the Mongalian BBQ at less than a quarter mile distance. WIFI was up and ddown in the room.Continental breakfast is free. In short: value for moneyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r258231838-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>258231838</t>
+  </si>
+  <si>
+    <t>03/07/2015</t>
+  </si>
+  <si>
+    <t>Not poor but not average</t>
+  </si>
+  <si>
+    <t>I like to travel and look for the deals.  I have a CSI rule.  Was it Clean, Safe and Inexpensive. This place just feel short of the grade.
+It looks to have been a motel that was renovated.  Unfortunately the reno's were not of the highest quality.
+When I got to the hotel it was dated but the room was clean and the bed was fresh.  The bathroom had been updated on the cheap.  They have plastered in problems in the bathtub instead of replacing the tub surround.  The exhaust was disconnected and the switch to run it removed.  The metal towel rods were rusty.  They only gave us extra face clothes when we asked for hand towels. I got the impression they did not have hand towels.
+Was it safe.  A block away is a Holiday Inn and a Hampton Inn.  When I arrived I didn't get a safe feeling, but there were no problems.  I saw very few people on the street and the parking lot was well lit making it comfortable at night.  The parking lot was comprised mostly of rental cars.  There is a subway a couple of blocks away, but I would be nervous walking in the nighttime.
+It was very inexpensive,  I had a rate under $70 dollars, however there is no free shuttle.  It costs $15 per trip, per group which would put the rate at $100.  Coffee and juice were good.  The...I like to travel and look for the deals.  I have a CSI rule.  Was it Clean, Safe and Inexpensive. This place just feel short of the grade.It looks to have been a motel that was renovated.  Unfortunately the reno's were not of the highest quality.When I got to the hotel it was dated but the room was clean and the bed was fresh.  The bathroom had been updated on the cheap.  They have plastered in problems in the bathtub instead of replacing the tub surround.  The exhaust was disconnected and the switch to run it removed.  The metal towel rods were rusty.  They only gave us extra face clothes when we asked for hand towels. I got the impression they did not have hand towels.Was it safe.  A block away is a Holiday Inn and a Hampton Inn.  When I arrived I didn't get a safe feeling, but there were no problems.  I saw very few people on the street and the parking lot was well lit making it comfortable at night.  The parking lot was comprised mostly of rental cars.  There is a subway a couple of blocks away, but I would be nervous walking in the nighttime.It was very inexpensive,  I had a rate under $70 dollars, however there is no free shuttle.  It costs $15 per trip, per group which would put the rate at $100.  Coffee and juice were good.  The breakfast was day old "Randy's Donuts".  They were so good even as day olds I had to go and visit  the original .  (I used to bake donuts so I consider myself a Donut Connoisseur).The staff was wonderful and helpful.I would not stay there again unless I was renting a car and even then I would probably stay away from the airport.If this was helpful hit the helpful button.Thanks   RandyMy suggestions to this property would be to try and update the bathrooms and I would give this an average rating. Upgrade the Wifi, it was horrible.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2015</t>
+  </si>
+  <si>
+    <t>I like to travel and look for the deals.  I have a CSI rule.  Was it Clean, Safe and Inexpensive. This place just feel short of the grade.
+It looks to have been a motel that was renovated.  Unfortunately the reno's were not of the highest quality.
+When I got to the hotel it was dated but the room was clean and the bed was fresh.  The bathroom had been updated on the cheap.  They have plastered in problems in the bathtub instead of replacing the tub surround.  The exhaust was disconnected and the switch to run it removed.  The metal towel rods were rusty.  They only gave us extra face clothes when we asked for hand towels. I got the impression they did not have hand towels.
+Was it safe.  A block away is a Holiday Inn and a Hampton Inn.  When I arrived I didn't get a safe feeling, but there were no problems.  I saw very few people on the street and the parking lot was well lit making it comfortable at night.  The parking lot was comprised mostly of rental cars.  There is a subway a couple of blocks away, but I would be nervous walking in the nighttime.
+It was very inexpensive,  I had a rate under $70 dollars, however there is no free shuttle.  It costs $15 per trip, per group which would put the rate at $100.  Coffee and juice were good.  The...I like to travel and look for the deals.  I have a CSI rule.  Was it Clean, Safe and Inexpensive. This place just feel short of the grade.It looks to have been a motel that was renovated.  Unfortunately the reno's were not of the highest quality.When I got to the hotel it was dated but the room was clean and the bed was fresh.  The bathroom had been updated on the cheap.  They have plastered in problems in the bathtub instead of replacing the tub surround.  The exhaust was disconnected and the switch to run it removed.  The metal towel rods were rusty.  They only gave us extra face clothes when we asked for hand towels. I got the impression they did not have hand towels.Was it safe.  A block away is a Holiday Inn and a Hampton Inn.  When I arrived I didn't get a safe feeling, but there were no problems.  I saw very few people on the street and the parking lot was well lit making it comfortable at night.  The parking lot was comprised mostly of rental cars.  There is a subway a couple of blocks away, but I would be nervous walking in the nighttime.It was very inexpensive,  I had a rate under $70 dollars, however there is no free shuttle.  It costs $15 per trip, per group which would put the rate at $100.  Coffee and juice were good.  The breakfast was day old "Randy's Donuts".  They were so good even as day olds I had to go and visit  the original .  (I used to bake donuts so I consider myself a Donut Connoisseur).The staff was wonderful and helpful.I would not stay there again unless I was renting a car and even then I would probably stay away from the airport.If this was helpful hit the helpful button.Thanks   RandyMy suggestions to this property would be to try and update the bathrooms and I would give this an average rating. Upgrade the Wifi, it was horrible.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r254951181-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>254951181</t>
+  </si>
+  <si>
+    <t>02/18/2015</t>
+  </si>
+  <si>
+    <t>Excellent, well run, friendly;helpful staff and very conveniently located</t>
+  </si>
+  <si>
+    <t>You get more than what you pay for! It was very clean, calm, quiet and located near the 105 and 405 freeways, not to mention its less than a 10 minute drive from the airport. It is also a non-smoking hotel, major plus for me. The staff is very nice and made me feel welcomed, I will definitely be back and I would definitely recommend it.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r254544626-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>254544626</t>
+  </si>
+  <si>
+    <t>02/16/2015</t>
+  </si>
+  <si>
+    <t>Don't stay here, had to move rooms twice &amp; staff were rude</t>
+  </si>
+  <si>
+    <t>We are not fussy, we've been traveling and living in a van for months &amp; staying in basic motels every now and again for less a night than this place, so when we paid $75 for a non-smoking room here, we at least expected it to be clean and free of the smell of cigarettes. The room was very musty, there was a dirty rag left in the shower &amp; the sheets made us itchy, so we moved rooms, the next room's bathroom light didn't work &amp; the cable went in and out of static. Staff downstairs told us if we weren't happy to just get a refund and leave! We would have, but nothing nearby was available due to it being a public holiday. Only positive is that the wifi signal was good. Street out the front was very noisy, didn't get much sleep.MoreShow less</t>
+  </si>
+  <si>
+    <t>We are not fussy, we've been traveling and living in a van for months &amp; staying in basic motels every now and again for less a night than this place, so when we paid $75 for a non-smoking room here, we at least expected it to be clean and free of the smell of cigarettes. The room was very musty, there was a dirty rag left in the shower &amp; the sheets made us itchy, so we moved rooms, the next room's bathroom light didn't work &amp; the cable went in and out of static. Staff downstairs told us if we weren't happy to just get a refund and leave! We would have, but nothing nearby was available due to it being a public holiday. Only positive is that the wifi signal was good. Street out the front was very noisy, didn't get much sleep.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r251280555-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>251280555</t>
+  </si>
+  <si>
+    <t>01/27/2015</t>
+  </si>
+  <si>
+    <t>Not fancy, but VERY helpful and well-run!</t>
+  </si>
+  <si>
+    <t>I was stuck overnight because of weather. This hotel is near the airport. They had a reasonable rate, a clean comfortable room, and great customer service. You pay $16 for the dependable shuttle in the morning, which is OK because the room price more than makes up for it. No breakfast - eat at the airport!</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r247423717-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>247423717</t>
+  </si>
+  <si>
+    <t>01/04/2015</t>
+  </si>
+  <si>
+    <t>Good place</t>
+  </si>
+  <si>
+    <t>cheap, good rooms, attentive staff, close to metro and LAX airport.............................................................................................................................................</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r246522060-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>246522060</t>
+  </si>
+  <si>
+    <t>12/30/2014</t>
+  </si>
+  <si>
+    <t>Thank you for the great stay!</t>
+  </si>
+  <si>
+    <t>I received exceptional service during my stay at your hotel! I was especially impressed by the service of the shuttle drivers and the gentleman at the front desk as well. When I arrived late in LA airport on Christmas eve I didn't have a reservation, and your shuttle driver was very polite and helped me to get a room right away. Also, at the front desk I was helped further with directions I needed the next morning. The shuttle driver who took me to the train station was also very helpful! They say Los Angeles means city of angels and I found three of them at your establishment! Thank you for the wonderful service and I will certainly come again. I will also highly recommend you because of your exceptional service!MoreShow less</t>
+  </si>
+  <si>
+    <t>I received exceptional service during my stay at your hotel! I was especially impressed by the service of the shuttle drivers and the gentleman at the front desk as well. When I arrived late in LA airport on Christmas eve I didn't have a reservation, and your shuttle driver was very polite and helped me to get a room right away. Also, at the front desk I was helped further with directions I needed the next morning. The shuttle driver who took me to the train station was also very helpful! They say Los Angeles means city of angels and I found three of them at your establishment! Thank you for the wonderful service and I will certainly come again. I will also highly recommend you because of your exceptional service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r233153805-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>233153805</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Not the best neighborhood but we enjoyed the service and the rooms. Breakfast is just donuts and juice but it served its purpose. The rooms were great. Bed was a little hard but i didnt mind. Price was great.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r232730933-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>232730933</t>
+  </si>
+  <si>
+    <t>10/05/2014</t>
+  </si>
+  <si>
+    <t>Ideal after long flight</t>
+  </si>
+  <si>
+    <t>Clean, comfortable and close to the airport.  No problems arriving late after delayed flight, just what we needed for one night.  Donuts and muffins for breakfast not really my thing but overall good value.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r232622573-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>232622573</t>
+  </si>
+  <si>
+    <t>10/04/2014</t>
+  </si>
+  <si>
+    <t>Airline Flt Layover</t>
+  </si>
+  <si>
+    <t>Nice old hotel. Room was very clean and the bed was comfortable. Looks can be deceptive but worth a stay. Not too far from several events that most people would enjoy. Also not far from the airport...</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r230625829-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>230625829</t>
+  </si>
+  <si>
+    <t>09/23/2014</t>
+  </si>
+  <si>
+    <t>A breath of fresh air!</t>
+  </si>
+  <si>
+    <t>Hotels in Los Angeles are more expensive than your average city. People tend to forget that when leaving reviews. For the price (around $70/night for a King, plus $50 refundable deposit for “potential damages”), this place is AMAZING. I recently moved to LA to begin graduate school, and finding an apartment took longer than I anticipated. I’ve hopped around different hotels in this price range, and none come close to this. It’s clean, it’s bright, it has hot AND cold water, it has A/C that is temperature controlled rather than a simple window unit. Trust me, this place is a winner. The front desk workers are SO kind (and they speak english!). I am so glad I found this place. Don’t waste your time with the independent weird-named motels and hotels in the surrounding area. It’s certainly not modern or decorated with flair, but man.. it’s clean, quiet, and safe. Well, the neighborhood is sketchy, but c’mon, it’s Inglewood. If you want a nicer area then drive north to Culver City.Amenities:- flat screen with tons of DirecTV channels- microwave- refridgerator- coffee pot- hair blowdryer- continental breakfast- desk in room- working WiFiMoreShow less</t>
+  </si>
+  <si>
+    <t>Hotels in Los Angeles are more expensive than your average city. People tend to forget that when leaving reviews. For the price (around $70/night for a King, plus $50 refundable deposit for “potential damages”), this place is AMAZING. I recently moved to LA to begin graduate school, and finding an apartment took longer than I anticipated. I’ve hopped around different hotels in this price range, and none come close to this. It’s clean, it’s bright, it has hot AND cold water, it has A/C that is temperature controlled rather than a simple window unit. Trust me, this place is a winner. The front desk workers are SO kind (and they speak english!). I am so glad I found this place. Don’t waste your time with the independent weird-named motels and hotels in the surrounding area. It’s certainly not modern or decorated with flair, but man.. it’s clean, quiet, and safe. Well, the neighborhood is sketchy, but c’mon, it’s Inglewood. If you want a nicer area then drive north to Culver City.Amenities:- flat screen with tons of DirecTV channels- microwave- refridgerator- coffee pot- hair blowdryer- continental breakfast- desk in room- working WiFiMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r229986588-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>229986588</t>
+  </si>
+  <si>
+    <t>09/20/2014</t>
+  </si>
+  <si>
+    <t>I expected less but it was excellent</t>
+  </si>
+  <si>
+    <t>Good hotel for the money you pay very recommended if you go to LA close to car rentals and the airport nice room although you can hear some noise coming from upstairs in general I recommend this hotek</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r221334867-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>221334867</t>
+  </si>
+  <si>
+    <t>08/12/2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everything went great. The service was perfect, room was clean, and breakfast was delicious. At night we sat in our room and pondered the majestic beauty of the wallpaper. What wonderful mysteries hide inside the artwork? As the sun rose the following day, we wished our vacation didn't have to end. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r218273493-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>218273493</t>
+  </si>
+  <si>
+    <t>07/29/2014</t>
+  </si>
+  <si>
+    <t>Decent hotel</t>
+  </si>
+  <si>
+    <t>Big, clean room. Perfect if you are only passing through LA without visiting much. Close to the airport, but not noisy. Muffin breakfast, not too early, was welcomed. Lots of parking spaces available.</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r213701768-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>213701768</t>
+  </si>
+  <si>
+    <t>07/04/2014</t>
+  </si>
+  <si>
+    <t>Roaches</t>
+  </si>
+  <si>
+    <t>I have reserved a night in this hotel and was a terrible experience. I have discovered a big cockroach on the wall and I couldn't kill it, because was so fast. It was hided behind the bed. What a disgusting experience. I could not sleep during the night, because it was there, behind the head board.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r213395392-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>213395392</t>
+  </si>
+  <si>
+    <t>07/02/2014</t>
+  </si>
+  <si>
+    <t>Not Safe</t>
+  </si>
+  <si>
+    <t>Although the staff seems very friendly, the are actually rather passive aggressive. Not only that, but some of the bathrooms are completely unsafe. They have an open shower room with a hair drier on the wall next to the shower head. The prices are okay, but I would really suggest that you avoid staying here unless you absolutely have to. The only thing that's really positive about this is that the bedrooms are pretty nice. But still, unsafe.</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r209738394-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>209738394</t>
+  </si>
+  <si>
+    <t>06/10/2014</t>
+  </si>
+  <si>
+    <t>Really good for its price</t>
+  </si>
+  <si>
+    <t>My partner and I stayed one night and it worked well. The room was clean and spacious, nice furniture, good size tv with cable and movie channels, and looked like it had been recently renovated. The bed was somewhat uncomfortable, but it was an overall good experience. Would stay here again.</t>
+  </si>
+  <si>
+    <t>April 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r209465167-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>209465167</t>
+  </si>
+  <si>
+    <t>06/08/2014</t>
+  </si>
+  <si>
+    <t>A great $70 value</t>
+  </si>
+  <si>
+    <t>I found more good reviews than negative ones about this hotel. I was worried that it would be in a bad part of town. Although it wasn't a neighborhood I would live in, we didn't experience any problems or feel unsafe, no gunshots. We came to drop off a family member at the airport and only stayed the night. The hotel had great security, people can't go wondering into the hallways with out a key. The room was spacious, clean, flat screen TV with Direct Tv. Small little fridge but great for a few waterbottles. Microwave was clean. Bathroom was standard but clean. Bed was not the comfiest, pillows were flat but sheets were clean. I didnt like the view of our window which was into a neighborhood but then again I wasn't expecting an ocean view. The continental breakfast was ok, coffee and some donuts and muffins but that's not why I chose this hotel. The hotel was a non smoking hotel which was a plus for us. Overall it was a good room for the price and would stay again. MoreShow less</t>
+  </si>
+  <si>
+    <t>I found more good reviews than negative ones about this hotel. I was worried that it would be in a bad part of town. Although it wasn't a neighborhood I would live in, we didn't experience any problems or feel unsafe, no gunshots. We came to drop off a family member at the airport and only stayed the night. The hotel had great security, people can't go wondering into the hallways with out a key. The room was spacious, clean, flat screen TV with Direct Tv. Small little fridge but great for a few waterbottles. Microwave was clean. Bathroom was standard but clean. Bed was not the comfiest, pillows were flat but sheets were clean. I didnt like the view of our window which was into a neighborhood but then again I wasn't expecting an ocean view. The continental breakfast was ok, coffee and some donuts and muffins but that's not why I chose this hotel. The hotel was a non smoking hotel which was a plus for us. Overall it was a good room for the price and would stay again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r209126079-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>209126079</t>
+  </si>
+  <si>
+    <t>06/06/2014</t>
+  </si>
+  <si>
+    <t>Value for money</t>
+  </si>
+  <si>
+    <t>We had a pleasant short 2 day stay here in transit on our way to other US cities. The location is just a short $20 cab ride from the airport and perfect if you are just in LA for a few days. The area looks a bit sketchy but we wandered around and had no dramas and never felt uncomfortable. The hotel itself was clean but somewhat dated but the bed was huge and comfortable and the room was fine. Just round the corner is a metro station and we took the light rail to Redondo Beach Pier and had a great night with lots of bars and restaurants though I would advise getting a cab back. The 3 latino girls we had dealings with on reception were friendly and helpful.In short, if you want 5 star accomodation  then pay for it but if you want good value for money and just a place to lay your head and have a shower then this place is perfect. I recommend it.MoreShow less</t>
+  </si>
+  <si>
+    <t>We had a pleasant short 2 day stay here in transit on our way to other US cities. The location is just a short $20 cab ride from the airport and perfect if you are just in LA for a few days. The area looks a bit sketchy but we wandered around and had no dramas and never felt uncomfortable. The hotel itself was clean but somewhat dated but the bed was huge and comfortable and the room was fine. Just round the corner is a metro station and we took the light rail to Redondo Beach Pier and had a great night with lots of bars and restaurants though I would advise getting a cab back. The 3 latino girls we had dealings with on reception were friendly and helpful.In short, if you want 5 star accomodation  then pay for it but if you want good value for money and just a place to lay your head and have a shower then this place is perfect. I recommend it.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r203322641-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>203322641</t>
+  </si>
+  <si>
+    <t>04/29/2014</t>
+  </si>
+  <si>
+    <t>Terrible, rude staff. . .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fee for everything. Book a 2 bedroom max of 4 peoples. However $10 fee for after 2 person. Third person $10 fee. Hours extension $25 fee. service such, rude, not a recommended place to stay. It's a sound proof room. You can heard car running on the street.  People step outside and floor on top of you. . . </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r203160334-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>203160334</t>
+  </si>
+  <si>
+    <t>04/28/2014</t>
+  </si>
+  <si>
+    <t>Dirty Rooms Rude Staff</t>
+  </si>
+  <si>
+    <t>I was in their for one night booked 1 room 2 queen beds for 3 adults. Front desk person charged $10 more for third person saying room is just for 2 persons where as booking says max occupancy 4. I had an argument but finally they hold $10 from security deposit. Once I enter room bed sheets were burnt and looks like cigarette marks where I was in non smoking room.In breakfast they had only cheap donuts. No milk, no bread  and no cereals and front desk lady said very rudely that they will not provide all those stuff. I was shocked since it was very common to expect break and milk when there is a breakfast facility. Overall I will recommend not to stay in this place. This is good for hourly customers and for pigs...MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in their for one night booked 1 room 2 queen beds for 3 adults. Front desk person charged $10 more for third person saying room is just for 2 persons where as booking says max occupancy 4. I had an argument but finally they hold $10 from security deposit. Once I enter room bed sheets were burnt and looks like cigarette marks where I was in non smoking room.In breakfast they had only cheap donuts. No milk, no bread  and no cereals and front desk lady said very rudely that they will not provide all those stuff. I was shocked since it was very common to expect break and milk when there is a breakfast facility. Overall I will recommend not to stay in this place. This is good for hourly customers and for pigs...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r203121885-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>203121885</t>
+  </si>
+  <si>
+    <t>Stay was good</t>
+  </si>
+  <si>
+    <t>The majority of existing reviews are accurate.  Motel is free of bugs and has decent beds/pillows.  Breakfast is fairly minimal - donuts.  McDonalds down the street (2 block walk) Rooms are quite spacious.  Parking is secure, management keeps an eye out for trespassers (good thing).  I would not necessarily walk around the neighborhood in the evening.Internet was decent.  I got a good nights sleep. If you are a light sleeper just crank the room a/c, fan and you will be fine. Basic, no frills motel for very reasonable fee.  There is a $50 deposit upfront.  I would likely return.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r198695913-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>198695913</t>
+  </si>
+  <si>
+    <t>03/25/2014</t>
+  </si>
+  <si>
+    <t>The price was right</t>
+  </si>
+  <si>
+    <t>We arrived at LAX at 11:45pm and were heading to the desert the next day.  ABVI was $60, close to LAX and had free parking and internet.  Don't count on much for breakfast, coffee and donuts.  The room had some upgrades, like new counters in the bathroom, but the king bed had major sags on both sides with a lump in the middle.  At first I thought it was two twins pushed together but it wasn't.  The room had a coffee maker and refrigerator, which was nice, though we had to go to the office to get some packets of coffee.  In a similar situation I would stay there again.  I'd tried to get a Priceline room for cheap, but it was the middle of spring break, and I couldn't find a decently priced room.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2014</t>
+  </si>
+  <si>
+    <t>We arrived at LAX at 11:45pm and were heading to the desert the next day.  ABVI was $60, close to LAX and had free parking and internet.  Don't count on much for breakfast, coffee and donuts.  The room had some upgrades, like new counters in the bathroom, but the king bed had major sags on both sides with a lump in the middle.  At first I thought it was two twins pushed together but it wasn't.  The room had a coffee maker and refrigerator, which was nice, though we had to go to the office to get some packets of coffee.  In a similar situation I would stay there again.  I'd tried to get a Priceline room for cheap, but it was the middle of spring break, and I couldn't find a decently priced room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r198683312-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>198683312</t>
+  </si>
+  <si>
+    <t>Very good experience</t>
+  </si>
+  <si>
+    <t>Very nice place, very clean, the distric is nice, close to LAX, easy to reach, close to Hawthorne blv with a lot of supermarkets and restorants! Everything you might need is just around the corner!Staff is helpful and nice, they  offer a small breakfast with super tasty doughnuts:)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r198054762-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>198054762</t>
+  </si>
+  <si>
+    <t>03/20/2014</t>
+  </si>
+  <si>
+    <t>beware! Its a non smoking property!!</t>
+  </si>
+  <si>
+    <t>Other than that..the neighborhood is very bad..rooms were okay..the customer service was nice..had a reservation for a week with them..but when i explained that i cannot stay without smoking, they promptly processed my refund after i stayed for only 2 nights and did not impose any penalty!</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r195620368-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>195620368</t>
+  </si>
+  <si>
+    <t>02/27/2014</t>
+  </si>
+  <si>
+    <t>Was worth the cost - not great - but inexpensive</t>
+  </si>
+  <si>
+    <t>Room was clean, sheets were fine, bed was comfortable enough.   It was loud for street noise and I was on the top floor.  But didn't bother me too much.  I like noise - really do.   I used to live in NYC.   Overall was better than other options that cost as much or more.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r191918841-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>191918841</t>
+  </si>
+  <si>
+    <t>01/24/2014</t>
+  </si>
+  <si>
+    <t>Good accomodations at a reasonable price</t>
+  </si>
+  <si>
+    <t>The property is conveniently located to lots of shopping and dining, and has ready access to LAX.  In addition, the room included a microwave and refrigerator, which made for convenience (although I would have liked to have an alarm clock as well).  The staff, especially Gina, was very helpful and friendly.  For the price relative to other nearby hotels, it can't be beat.</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r190503764-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>190503764</t>
+  </si>
+  <si>
+    <t>01/11/2014</t>
+  </si>
+  <si>
+    <t>Great for pre/post flight stays</t>
+  </si>
+  <si>
+    <t>I had an early morning flight out of LAX so I decided stay someplace nearby the night before. Americas Best Value Inn was, by far, the cheapest hotel in the area that had good reviews.
+The good: big room, clean, great wi-fi (free and fast!), comfy bed, fridge and microwave (great for the leftovers I brought back to the room and reheated for an evening snack), safe and free parking, courteous staff, 2.5 miles from the airport, and big bonus: the room did not smell like a room that used to be a smoking room that had been repurposed into a non-smoking room.
+The bad: paper thin walls - I could hear the guy in the next room snoring all night long (if you are a light sleeper, bring earplugs), street noise - it is Imperial Hwy in Hawthorne so there are sirens and traffic most of the time and the rooms face the street. Well, and there was that early evening 'event' of some sort at the carniceria across the street that entailed 8 cop cars, 2 fire trucks and a stretcher!
+Which brings me to the neighborhood: I'm not a fearful person, I've lived in cities my whole life, so I thought the neighborhood was perfectly safe for my purposes. I wouldn't have been out walking at night, but then I'm generally not cavalier about such things anywhere I'm new and unfamiliar with. I never felt unsafe, not...I had an early morning flight out of LAX so I decided stay someplace nearby the night before. Americas Best Value Inn was, by far, the cheapest hotel in the area that had good reviews.The good: big room, clean, great wi-fi (free and fast!), comfy bed, fridge and microwave (great for the leftovers I brought back to the room and reheated for an evening snack), safe and free parking, courteous staff, 2.5 miles from the airport, and big bonus: the room did not smell like a room that used to be a smoking room that had been repurposed into a non-smoking room.The bad: paper thin walls - I could hear the guy in the next room snoring all night long (if you are a light sleeper, bring earplugs), street noise - it is Imperial Hwy in Hawthorne so there are sirens and traffic most of the time and the rooms face the street. Well, and there was that early evening 'event' of some sort at the carniceria across the street that entailed 8 cop cars, 2 fire trucks and a stretcher!Which brings me to the neighborhood: I'm not a fearful person, I've lived in cities my whole life, so I thought the neighborhood was perfectly safe for my purposes. I wouldn't have been out walking at night, but then I'm generally not cavalier about such things anywhere I'm new and unfamiliar with. I never felt unsafe, not even when I lugged my suitcase to my car at 3:30 am.MoreShow less</t>
+  </si>
+  <si>
+    <t>I had an early morning flight out of LAX so I decided stay someplace nearby the night before. Americas Best Value Inn was, by far, the cheapest hotel in the area that had good reviews.
+The good: big room, clean, great wi-fi (free and fast!), comfy bed, fridge and microwave (great for the leftovers I brought back to the room and reheated for an evening snack), safe and free parking, courteous staff, 2.5 miles from the airport, and big bonus: the room did not smell like a room that used to be a smoking room that had been repurposed into a non-smoking room.
+The bad: paper thin walls - I could hear the guy in the next room snoring all night long (if you are a light sleeper, bring earplugs), street noise - it is Imperial Hwy in Hawthorne so there are sirens and traffic most of the time and the rooms face the street. Well, and there was that early evening 'event' of some sort at the carniceria across the street that entailed 8 cop cars, 2 fire trucks and a stretcher!
+Which brings me to the neighborhood: I'm not a fearful person, I've lived in cities my whole life, so I thought the neighborhood was perfectly safe for my purposes. I wouldn't have been out walking at night, but then I'm generally not cavalier about such things anywhere I'm new and unfamiliar with. I never felt unsafe, not...I had an early morning flight out of LAX so I decided stay someplace nearby the night before. Americas Best Value Inn was, by far, the cheapest hotel in the area that had good reviews.The good: big room, clean, great wi-fi (free and fast!), comfy bed, fridge and microwave (great for the leftovers I brought back to the room and reheated for an evening snack), safe and free parking, courteous staff, 2.5 miles from the airport, and big bonus: the room did not smell like a room that used to be a smoking room that had been repurposed into a non-smoking room.The bad: paper thin walls - I could hear the guy in the next room snoring all night long (if you are a light sleeper, bring earplugs), street noise - it is Imperial Hwy in Hawthorne so there are sirens and traffic most of the time and the rooms face the street. Well, and there was that early evening 'event' of some sort at the carniceria across the street that entailed 8 cop cars, 2 fire trucks and a stretcher!Which brings me to the neighborhood: I'm not a fearful person, I've lived in cities my whole life, so I thought the neighborhood was perfectly safe for my purposes. I wouldn't have been out walking at night, but then I'm generally not cavalier about such things anywhere I'm new and unfamiliar with. I never felt unsafe, not even when I lugged my suitcase to my car at 3:30 am.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r184920889-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>184920889</t>
+  </si>
+  <si>
+    <t>11/16/2013</t>
+  </si>
+  <si>
+    <t>LA Trip</t>
+  </si>
+  <si>
+    <t>For what I was looking for it was a good value.  The floor had an iron burn in the carpet but refirgerator worked as did the microwave.  There were no hand towels or kleenex but that wasn't a problem. I wasn't able to try the breakfast which consisted mostly of doughnuts, muffins and such since I left too early to try them.</t>
+  </si>
+  <si>
+    <t>November 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r181837983-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>181837983</t>
+  </si>
+  <si>
+    <t>10/21/2013</t>
+  </si>
+  <si>
+    <t>Expedient and affordable</t>
+  </si>
+  <si>
+    <t>I had to fly out the next morning so wanted to be close to the airport. But I also didn't want to pay for a room with all the bells and whistles like I was staying at a five star resort. So Americas Best Value Inn is just that: the Best Value. I had a good, clean, restful stay and made it to the airport with plenty of time.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r177844879-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>177844879</t>
+  </si>
+  <si>
+    <t>09/19/2013</t>
+  </si>
+  <si>
+    <t>Good stay</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good stay. Large rooms. Good parking. Good location. Average breakfest. Good stay. Large rooms. Good parking. Good location. Average breakfest. Good stay. Large rooms. Good parking. Good location. Average breakfest. Good stay. Large rooms. Good parking. Good location. Average breakfest. Good stay. Large rooms. Good parking. Good location. Average breakfest. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r168121607-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>168121607</t>
+  </si>
+  <si>
+    <t>07/18/2013</t>
+  </si>
+  <si>
+    <t>Room Great..Staff Friendly..Donuts Delicious!</t>
+  </si>
+  <si>
+    <t>No shuttle service..We paid $19 one way from LAX..if the driver thinks you don't know the way, he might charge much more..even with an accurate map and his GPS, he asked me several times if this was the right direction/location..There's some confusion about the address..some maps say El Segundo..some say Inglewood..but it may actually be in Hawthorne..The hotel's naming also adds to this confusion. Having lived in LA for several years, I know this often happens. In LA county, many city boundaries run down the middle of the street and even run through property lines!
+Check-in, behind security glass, does not add to confidence about safety, but having just returned from three months in South America, it didn't bother me. The neigborhood is typical of most of LA. Might not choose to live there but for two or three nights, it's fine! But you do need a car. NO bus/taxi service in evidence. We walked 75 minutes to the rent a car agency, since we thought a bus might come along..and didn't want to bother the front to call a taxi..next time, I will "CALL A TAXI". The hallway is perhaps a bit scary for some, but the room is GREAT.."standard American", superior quality, 2 large double beds, similar to many Hiltons. We really enjoyed the donut/pastry breakfast, which you don't get in other countries, but don't expect eggs and bacon, since you're not paying for them. The staff was...No shuttle service..We paid $19 one way from LAX..if the driver thinks you don't know the way, he might charge much more..even with an accurate map and his GPS, he asked me several times if this was the right direction/location..There's some confusion about the address..some maps say El Segundo..some say Inglewood..but it may actually be in Hawthorne..The hotel's naming also adds to this confusion. Having lived in LA for several years, I know this often happens. In LA county, many city boundaries run down the middle of the street and even run through property lines!Check-in, behind security glass, does not add to confidence about safety, but having just returned from three months in South America, it didn't bother me. The neigborhood is typical of most of LA. Might not choose to live there but for two or three nights, it's fine! But you do need a car. NO bus/taxi service in evidence. We walked 75 minutes to the rent a car agency, since we thought a bus might come along..and didn't want to bother the front to call a taxi..next time, I will "CALL A TAXI". The hallway is perhaps a bit scary for some, but the room is GREAT.."standard American", superior quality, 2 large double beds, similar to many Hiltons. We really enjoyed the donut/pastry breakfast, which you don't get in other countries, but don't expect eggs and bacon, since you're not paying for them. The staff was very friendly and helpful. They charge a ridiculous $5 per hour for the computer, but I just used it for 15 minutes, so they gladly waived the fee. That would NEVER happen at a Hilton! Parking very easy and appears safe! Very easy access to freeway to go to downtown LA/all tourist attractions. Americans might not like the location, but foreigners will appreciate it, if they have a car! I would stay there again! Good VALUE for money!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>No shuttle service..We paid $19 one way from LAX..if the driver thinks you don't know the way, he might charge much more..even with an accurate map and his GPS, he asked me several times if this was the right direction/location..There's some confusion about the address..some maps say El Segundo..some say Inglewood..but it may actually be in Hawthorne..The hotel's naming also adds to this confusion. Having lived in LA for several years, I know this often happens. In LA county, many city boundaries run down the middle of the street and even run through property lines!
+Check-in, behind security glass, does not add to confidence about safety, but having just returned from three months in South America, it didn't bother me. The neigborhood is typical of most of LA. Might not choose to live there but for two or three nights, it's fine! But you do need a car. NO bus/taxi service in evidence. We walked 75 minutes to the rent a car agency, since we thought a bus might come along..and didn't want to bother the front to call a taxi..next time, I will "CALL A TAXI". The hallway is perhaps a bit scary for some, but the room is GREAT.."standard American", superior quality, 2 large double beds, similar to many Hiltons. We really enjoyed the donut/pastry breakfast, which you don't get in other countries, but don't expect eggs and bacon, since you're not paying for them. The staff was...No shuttle service..We paid $19 one way from LAX..if the driver thinks you don't know the way, he might charge much more..even with an accurate map and his GPS, he asked me several times if this was the right direction/location..There's some confusion about the address..some maps say El Segundo..some say Inglewood..but it may actually be in Hawthorne..The hotel's naming also adds to this confusion. Having lived in LA for several years, I know this often happens. In LA county, many city boundaries run down the middle of the street and even run through property lines!Check-in, behind security glass, does not add to confidence about safety, but having just returned from three months in South America, it didn't bother me. The neigborhood is typical of most of LA. Might not choose to live there but for two or three nights, it's fine! But you do need a car. NO bus/taxi service in evidence. We walked 75 minutes to the rent a car agency, since we thought a bus might come along..and didn't want to bother the front to call a taxi..next time, I will "CALL A TAXI". The hallway is perhaps a bit scary for some, but the room is GREAT.."standard American", superior quality, 2 large double beds, similar to many Hiltons. We really enjoyed the donut/pastry breakfast, which you don't get in other countries, but don't expect eggs and bacon, since you're not paying for them. The staff was very friendly and helpful. They charge a ridiculous $5 per hour for the computer, but I just used it for 15 minutes, so they gladly waived the fee. That would NEVER happen at a Hilton! Parking very easy and appears safe! Very easy access to freeway to go to downtown LA/all tourist attractions. Americans might not like the location, but foreigners will appreciate it, if they have a car! I would stay there again! Good VALUE for money!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r167115849-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>167115849</t>
+  </si>
+  <si>
+    <t>07/10/2013</t>
+  </si>
+  <si>
+    <t>Excellent location to the airport</t>
+  </si>
+  <si>
+    <t>Great place to stay after a long flight to LAX. Located really close to the airport, the rooms are extremely spacious, the shower was good and all staff friendly and helpful. Breakfast was a choice of muffins and donuts with juice/coffee/tea.</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r166988957-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>166988957</t>
+  </si>
+  <si>
+    <t>07/09/2013</t>
+  </si>
+  <si>
+    <t>Great value!</t>
+  </si>
+  <si>
+    <t>Great rooms, comfortable bed, not so hot on the breakfast.  Good location near a good Mexican restaurant and almost any store you would need.  Friendly staff.  Close enough to beaches and the airport.  Stayed before our return flight and was very pleased with the room.  They even have a working ice machine and donuts at night :o)</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r164493283-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>164493283</t>
+  </si>
+  <si>
+    <t>06/19/2013</t>
+  </si>
+  <si>
+    <t>good value for money</t>
+  </si>
+  <si>
+    <t>all in all was ist really good. short disctance to the freeway. the are is safety. lots of possibilities to eat are near to the hotel. the room was ok, big and clean. everything was allways good. don't think too much about the breakfast. not so deluxe... but good value for money.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r163886394-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>163886394</t>
+  </si>
+  <si>
+    <t>06/13/2013</t>
+  </si>
+  <si>
+    <t>Thank-You</t>
+  </si>
+  <si>
+    <t>For $59, I wasn't expecting much. But ABVI&amp;S really surprised me. The staff were very helpful. I had just come from NY where I paid $450 a night to live in a room the size of a show box - to my delight the rooms here were huge! I was only in the room for the night (quick stayover between airport and LA), but the The king size bed was heaven and the Digital TV was ample with channel options. Would recommend this in a heartbeat!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r163092735-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>163092735</t>
+  </si>
+  <si>
+    <t>06/05/2013</t>
+  </si>
+  <si>
+    <t>Budget hotel near LAX</t>
+  </si>
+  <si>
+    <t>You should look at staying here only if you're looking for a budget hotel near LAX. I would personally advise spending a few more dollars and stay elsewhere. A few pros and cons:Cons:1) Bed was terrible. We could feel the mattress springs when sleeping and it was not pleasant2) The sofa in the room had a black grease like layer from use. I assume it must be decades old.3) The chair in the room, had a spring that poked you in the bottom4) The wallpaper was peeling and furniture paint was also peeling off from places5) 'Continental breakfast' was a joke really. There were donuts, coffee and juice. Usually, even the cheapest hotels provide cereal and milk.6) Room was noisy as it's next to a road with traffic.Pros:1) Parking was free and easily available inside the compound2) Proximity to LAX3) TV with DirecTV and lots of channels.It's definitely a no-frills hotel, but honestly, I have stayed in better no-frills hotels. As I said, if you're on a budget then you can ignore a lot of things mentioned here but if not, spend 10-15 dollars more per night and look for some other places nearby. I would definitely do that.MoreShow less</t>
+  </si>
+  <si>
+    <t>You should look at staying here only if you're looking for a budget hotel near LAX. I would personally advise spending a few more dollars and stay elsewhere. A few pros and cons:Cons:1) Bed was terrible. We could feel the mattress springs when sleeping and it was not pleasant2) The sofa in the room had a black grease like layer from use. I assume it must be decades old.3) The chair in the room, had a spring that poked you in the bottom4) The wallpaper was peeling and furniture paint was also peeling off from places5) 'Continental breakfast' was a joke really. There were donuts, coffee and juice. Usually, even the cheapest hotels provide cereal and milk.6) Room was noisy as it's next to a road with traffic.Pros:1) Parking was free and easily available inside the compound2) Proximity to LAX3) TV with DirecTV and lots of channels.It's definitely a no-frills hotel, but honestly, I have stayed in better no-frills hotels. As I said, if you're on a budget then you can ignore a lot of things mentioned here but if not, spend 10-15 dollars more per night and look for some other places nearby. I would definitely do that.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r160280724-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>160280724</t>
+  </si>
+  <si>
+    <t>05/10/2013</t>
+  </si>
+  <si>
+    <t>Good Hotel</t>
+  </si>
+  <si>
+    <t>We found the room clean, roomy and comfortable and was equipped with a coffee maker. The staff were friendly. They offered a small selection of sweet breads, coffee and fruit juice for breakfast The rooms are secured and entry to the halls is protected by a passkey. There is an elevator. It was just a few minutes to LAX and car rental return from the hotel and we passed a couple of gas stations on the way making refuelling the car very easy. You can't beat the price!</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r159085629-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>159085629</t>
+  </si>
+  <si>
+    <t>04/28/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay near LAX</t>
+  </si>
+  <si>
+    <t>We found the room clean, roomy and comfortable and was equipped with a coffee maker.   The staff were friendly.  They offered a small selection of sweet breads,  coffee and fruit juice for breakfast The rooms are secured and entry to the halls is protected by a passkey.  There is an elevator.It was just a few minutes to LAX and car rental return from the hotel and we passed a couple of gas stations on the way making refuelling the car very easy.You can't beat the price!</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r158531663-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>158531663</t>
+  </si>
+  <si>
+    <t>04/22/2013</t>
+  </si>
+  <si>
+    <t>Average</t>
+  </si>
+  <si>
+    <t>For the low price, the room is satisfactory. Convenient access to LAX through Metro. 99c store, McDonald, KFC &amp; Tarco Bell, Subway, restaurants are easy to find. Walk less than 10 min to reach Metro Horthorne station to go to LAX or transfer to downtown  LA.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r155027508-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>155027508</t>
+  </si>
+  <si>
+    <t>03/18/2013</t>
+  </si>
+  <si>
+    <t>Happy to have found something so late</t>
+  </si>
+  <si>
+    <t>Missed plane in LA. Good price and was able to stay longer the next day since my plane out was in the evening. The night employee called after I got into my room, which I think was great -  especially since I was alone! (The entrance/exit doors were already locked)</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r153409402-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>153409402</t>
+  </si>
+  <si>
+    <t>02/28/2013</t>
+  </si>
+  <si>
+    <t>Reasonably priced budget Motel</t>
+  </si>
+  <si>
+    <t>The rooms are clean &amp; well maintained.  Great bargain for the price.  Lower rates are available from its web site than walk-in.  Breakfast in included &amp; consists of donuts, muffins, coffee &amp; couple of juices.  One improvement they need is to soundproof the windows because most rooms face a busy road.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r148640915-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>148640915</t>
+  </si>
+  <si>
+    <t>01/02/2013</t>
+  </si>
+  <si>
+    <t>No frills; no fuss</t>
+  </si>
+  <si>
+    <t>We stayed one night after arriving in Los Angeles for an extended stay in Anaheim and Hollywood. 
+The hotel's exterior belies the standard of the room. The welcome wasn't the friendliest and the location, while close to LAX, is not a district we would choose to stay in for more than one night. That said, the room was clean, spacious, and of a good standard even compared to other, higher priced, hotels. The rooms are not well sound proofed, and we heard the guests on the upper floor walking around. The towels were small and thin, but okay for a one-time use. The free wifi was occasional and intermittent at best. We would rather pay to have a more reliable service. We did not try the breakfast, as the room had a fridge, microwave, and coffee maker (although no cutlery or plates). 
+We had a room on the roadside; however, we didn't find it particularly noisy.
+There are a couple of fast food restaurants located within 100 yards. We would recommend the El Pollo Loco - the food was fresh and tasty and excellent value for money, compared to the MacDonald's across the road.
+Other TripAdvisor comments about the $50 deposit for 'incidentals' seems appropriate for this type of hotel, and is the same process used by larger hotels that place a 'bond' on a credit card. The check-in time of 2pm is rigidly enforced, so be prepared to wait...We stayed one night after arriving in Los Angeles for an extended stay in Anaheim and Hollywood. The hotel's exterior belies the standard of the room. The welcome wasn't the friendliest and the location, while close to LAX, is not a district we would choose to stay in for more than one night. That said, the room was clean, spacious, and of a good standard even compared to other, higher priced, hotels. The rooms are not well sound proofed, and we heard the guests on the upper floor walking around. The towels were small and thin, but okay for a one-time use. The free wifi was occasional and intermittent at best. We would rather pay to have a more reliable service. We did not try the breakfast, as the room had a fridge, microwave, and coffee maker (although no cutlery or plates). We had a room on the roadside; however, we didn't find it particularly noisy.There are a couple of fast food restaurants located within 100 yards. We would recommend the El Pollo Loco - the food was fresh and tasty and excellent value for money, compared to the MacDonald's across the road.Other TripAdvisor comments about the $50 deposit for 'incidentals' seems appropriate for this type of hotel, and is the same process used by larger hotels that place a 'bond' on a credit card. The check-in time of 2pm is rigidly enforced, so be prepared to wait if you arrive early. Although check-out is 11am, we were called at 10.40am to confirm if we were checking out or wanted to book another night, so timing seems important to the hotel's management. All in all, for the price we paid ($50 per night, booked directly via the chain's website), we found the hotel good value for a one night stay, because of the spacious and clean room.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2013</t>
+  </si>
+  <si>
+    <t>We stayed one night after arriving in Los Angeles for an extended stay in Anaheim and Hollywood. 
+The hotel's exterior belies the standard of the room. The welcome wasn't the friendliest and the location, while close to LAX, is not a district we would choose to stay in for more than one night. That said, the room was clean, spacious, and of a good standard even compared to other, higher priced, hotels. The rooms are not well sound proofed, and we heard the guests on the upper floor walking around. The towels were small and thin, but okay for a one-time use. The free wifi was occasional and intermittent at best. We would rather pay to have a more reliable service. We did not try the breakfast, as the room had a fridge, microwave, and coffee maker (although no cutlery or plates). 
+We had a room on the roadside; however, we didn't find it particularly noisy.
+There are a couple of fast food restaurants located within 100 yards. We would recommend the El Pollo Loco - the food was fresh and tasty and excellent value for money, compared to the MacDonald's across the road.
+Other TripAdvisor comments about the $50 deposit for 'incidentals' seems appropriate for this type of hotel, and is the same process used by larger hotels that place a 'bond' on a credit card. The check-in time of 2pm is rigidly enforced, so be prepared to wait...We stayed one night after arriving in Los Angeles for an extended stay in Anaheim and Hollywood. The hotel's exterior belies the standard of the room. The welcome wasn't the friendliest and the location, while close to LAX, is not a district we would choose to stay in for more than one night. That said, the room was clean, spacious, and of a good standard even compared to other, higher priced, hotels. The rooms are not well sound proofed, and we heard the guests on the upper floor walking around. The towels were small and thin, but okay for a one-time use. The free wifi was occasional and intermittent at best. We would rather pay to have a more reliable service. We did not try the breakfast, as the room had a fridge, microwave, and coffee maker (although no cutlery or plates). We had a room on the roadside; however, we didn't find it particularly noisy.There are a couple of fast food restaurants located within 100 yards. We would recommend the El Pollo Loco - the food was fresh and tasty and excellent value for money, compared to the MacDonald's across the road.Other TripAdvisor comments about the $50 deposit for 'incidentals' seems appropriate for this type of hotel, and is the same process used by larger hotels that place a 'bond' on a credit card. The check-in time of 2pm is rigidly enforced, so be prepared to wait if you arrive early. Although check-out is 11am, we were called at 10.40am to confirm if we were checking out or wanted to book another night, so timing seems important to the hotel's management. All in all, for the price we paid ($50 per night, booked directly via the chain's website), we found the hotel good value for a one night stay, because of the spacious and clean room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r144562621-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>144562621</t>
+  </si>
+  <si>
+    <t>11/05/2012</t>
+  </si>
+  <si>
+    <t>Interesting</t>
+  </si>
+  <si>
+    <t>Was delayed at LAX and all the better hotels at the airport were booked. We got the last room at this place. Large room with a very large bed and a huge TV and a jacuzzi tub in the room. Small table with two chairs and one other chair next to the bed. Obviously not set up to host a Super Bowl party. NOT cheap at $125 for the two of us but they had us over a barrel and the airline will be paying. "Continental" breakfast was donuts from the famous Randy's Donuts, coffee and OJ from a machine. The bed was comfy if you like a very firm mattress and very spacious. The towels, soap and shampoo were pathetic. The air conditioner worked well.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>Was delayed at LAX and all the better hotels at the airport were booked. We got the last room at this place. Large room with a very large bed and a huge TV and a jacuzzi tub in the room. Small table with two chairs and one other chair next to the bed. Obviously not set up to host a Super Bowl party. NOT cheap at $125 for the two of us but they had us over a barrel and the airline will be paying. "Continental" breakfast was donuts from the famous Randy's Donuts, coffee and OJ from a machine. The bed was comfy if you like a very firm mattress and very spacious. The towels, soap and shampoo were pathetic. The air conditioner worked well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r143483884-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>143483884</t>
+  </si>
+  <si>
+    <t>10/22/2012</t>
+  </si>
+  <si>
+    <t>Poor service</t>
+  </si>
+  <si>
+    <t>Front desk staff not nice. $50 for incidentals.They offer a shuttle service for $15 dollars, well there is none at midnight nor at 6 am. So finally paid $25 + $30 return. No point in paying for a cheap hotel if you have to add $55 for getting there from the airport. No breakfast at 6am either, maybe it is too early for them?</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r139178234-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>139178234</t>
+  </si>
+  <si>
+    <t>09/02/2012</t>
+  </si>
+  <si>
+    <t>So worth it</t>
+  </si>
+  <si>
+    <t>This hotel is very conveniently located near the airport, which was a bonus since my mom and I had an early morning flight to catch. The service was excellent and the staff were warm and welcoming. The room was fully equipped with a microwave and fridge. The sleep quality was the best we had on our trip and made us feel right at home. The beds were "super-size-me" big and comfortable enough to put me to sleep as soon as my head hit the pillow. Even my mother, who has trouble falling asleep so far from home surprisingly fell asleep rather easily. The breakfast was yummy! They had freshly baked donuts, muffins, pastries, and of course coffee and juice. It was the perfect start to our morning. Although it was sometimes a pain to be buzzed in each time you wanted to get up to the room, it was a safety precaution and we were very grateful for that. My mom and I are really glad we chose this hotel to stay at and will definitely be staying here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>This hotel is very conveniently located near the airport, which was a bonus since my mom and I had an early morning flight to catch. The service was excellent and the staff were warm and welcoming. The room was fully equipped with a microwave and fridge. The sleep quality was the best we had on our trip and made us feel right at home. The beds were "super-size-me" big and comfortable enough to put me to sleep as soon as my head hit the pillow. Even my mother, who has trouble falling asleep so far from home surprisingly fell asleep rather easily. The breakfast was yummy! They had freshly baked donuts, muffins, pastries, and of course coffee and juice. It was the perfect start to our morning. Although it was sometimes a pain to be buzzed in each time you wanted to get up to the room, it was a safety precaution and we were very grateful for that. My mom and I are really glad we chose this hotel to stay at and will definitely be staying here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r128192616-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>128192616</t>
+  </si>
+  <si>
+    <t>04/19/2012</t>
+  </si>
+  <si>
+    <t>Not as nice as the one in Vista, CA</t>
+  </si>
+  <si>
+    <t>This America's Best Value Inn does not have the same quality of free breakfast as the one in Vista, CA does at all. The breakfast is a pastry in a package. (One of those Costco kind you buyin bulk) Coffee is lousy! (That's the breakfast period) We had to run to Carl's Junior to geta breakfast sandwich and good coffee! Microwave plugged in but did not work so could notmicrowave our popcorn I brought 2 packets of as a snack the night  before. Windows do not openand are shut..........maybe someone tried to jump out the window? Also you have to be buzzedin and out of the building each time you come &amp; go which gets annoying! Room was musty andthe furniture OLD looking. NOT fresh &amp; modern like the one in Vista at all and not a suite!(Just one room) Would not go there again............I am not hard to please.............went to the onein Vista twice now and will be going to the one in Vista again. Oh and the gal at the front deskwas kind of rude to my husband &amp; told him he could not carry his cup of coffee up to our roomand although two of us were registered he was only allowed one free cup of coffee!MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>This America's Best Value Inn does not have the same quality of free breakfast as the one in Vista, CA does at all. The breakfast is a pastry in a package. (One of those Costco kind you buyin bulk) Coffee is lousy! (That's the breakfast period) We had to run to Carl's Junior to geta breakfast sandwich and good coffee! Microwave plugged in but did not work so could notmicrowave our popcorn I brought 2 packets of as a snack the night  before. Windows do not openand are shut..........maybe someone tried to jump out the window? Also you have to be buzzedin and out of the building each time you come &amp; go which gets annoying! Room was musty andthe furniture OLD looking. NOT fresh &amp; modern like the one in Vista at all and not a suite!(Just one room) Would not go there again............I am not hard to please.............went to the onein Vista twice now and will be going to the one in Vista again. Oh and the gal at the front deskwas kind of rude to my husband &amp; told him he could not carry his cup of coffee up to our roomand although two of us were registered he was only allowed one free cup of coffee!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r121441530-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>121441530</t>
+  </si>
+  <si>
+    <t>12/05/2011</t>
+  </si>
+  <si>
+    <t>Actually very good</t>
+  </si>
+  <si>
+    <t>Do not get scared because on the outside it looks like a jail! The rooms are clean, housekeeping service every day, staff is very responsive, kind and polite. The king bed is huge and so comfortable. I stayed 7 nights for 312 dollars!On the negative things: internet does not quite work. But the front desk can help you set up your computer to get online. Do not try to wake up early to catch breakfast because you will be dissapointed.  But if you are already up, and wanna have something basic to start off your day, they do offer that. Coffee or tea, juice and something to eat with that.Decent place, for people on a budget. Definitely going back.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Do not get scared because on the outside it looks like a jail! The rooms are clean, housekeeping service every day, staff is very responsive, kind and polite. The king bed is huge and so comfortable. I stayed 7 nights for 312 dollars!On the negative things: internet does not quite work. But the front desk can help you set up your computer to get online. Do not try to wake up early to catch breakfast because you will be dissapointed.  But if you are already up, and wanna have something basic to start off your day, they do offer that. Coffee or tea, juice and something to eat with that.Decent place, for people on a budget. Definitely going back.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r121258531-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>121258531</t>
+  </si>
+  <si>
+    <t>11/30/2011</t>
+  </si>
+  <si>
+    <t>Close to LAX</t>
+  </si>
+  <si>
+    <t>Stayed after our flight from the UK and prior to our flight back to the UK, it's about 3 miles from the airport and is a great place to chill after a flight or a long drive, don't be fooled by the looks on the outside the rooms are very good, the beds are comfy and there is free WiFi and a complementary breakfast is included, it's only a danish and coffee, tea or juice buts thats fine for me, staff are very friendly and next time I go to LA, I will stay in this hotel again, the only downside there is a bit of road noise, it is a bit and didn't cause us to lose any sleepMoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed after our flight from the UK and prior to our flight back to the UK, it's about 3 miles from the airport and is a great place to chill after a flight or a long drive, don't be fooled by the looks on the outside the rooms are very good, the beds are comfy and there is free WiFi and a complementary breakfast is included, it's only a danish and coffee, tea or juice buts thats fine for me, staff are very friendly and next time I go to LA, I will stay in this hotel again, the only downside there is a bit of road noise, it is a bit and didn't cause us to lose any sleepMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r116181270-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>116181270</t>
+  </si>
+  <si>
+    <t>08/02/2011</t>
+  </si>
+  <si>
+    <t>Convenient and good value</t>
+  </si>
+  <si>
+    <t>Stayed here for one night after flight from UK. Close to airport so very useful. They send a taxi to the airport but you have to ring and it costs 10 dollars ( this wasn't clear from website information) It isn't pretty on the outside, the immediate area isn't particulary pretty either and I wouldn't wanted to have stayed any longer- but at less than £50 for a double room it was useful as we didn't fancy the journey on to Hollywood after such a long flight. The room was vert clean and confrtable. Breakfast is just a small packaged danish pastry and juice/coffee from the machine- but at the price it is certainly better than UK where you wouldn't get breakfast at all.Receptionist was very helpful.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>Stayed here for one night after flight from UK. Close to airport so very useful. They send a taxi to the airport but you have to ring and it costs 10 dollars ( this wasn't clear from website information) It isn't pretty on the outside, the immediate area isn't particulary pretty either and I wouldn't wanted to have stayed any longer- but at less than £50 for a double room it was useful as we didn't fancy the journey on to Hollywood after such a long flight. The room was vert clean and confrtable. Breakfast is just a small packaged danish pastry and juice/coffee from the machine- but at the price it is certainly better than UK where you wouldn't get breakfast at all.Receptionist was very helpful.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r116001096-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>116001096</t>
+  </si>
+  <si>
+    <t>07/29/2011</t>
+  </si>
+  <si>
+    <t>Nice Hotel for the money</t>
+  </si>
+  <si>
+    <t>Nice Hotel for the money, rooms were clean and comfortable customer service was ok.the hallways seemed kind of weird though. Neighborhood seemed ok although we really didn't  go anywhere other than straight on and off the freeway to and from the beach overall nice hotel  clean comfortable place to sleep</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r115363265-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>115363265</t>
+  </si>
+  <si>
+    <t>07/14/2011</t>
+  </si>
+  <si>
+    <t>WiFi is extra super slow. Breakfast Sucks!</t>
+  </si>
+  <si>
+    <t>The hotel is not at all as advertized. The so called free WiFi is extra super slow. Any site other than Google takes at least 5 minutes to open. The continental breakfast only had a backed thin crust doughnut packed in plastic which does not look at all healthy to eat. Carpet was not clean, however the beds were comfortable. One of my friend stayed in "Royal Century Hotel" in the same locality which was much better for the same price that I paid for "Americas Best Value Inn and Suites - LAX/El Segundo". Bottom line, do not opt for this hotel as there are lot better hotels in same neighborhood for the same or lesser price.MoreShow less</t>
+  </si>
+  <si>
+    <t>The hotel is not at all as advertized. The so called free WiFi is extra super slow. Any site other than Google takes at least 5 minutes to open. The continental breakfast only had a backed thin crust doughnut packed in plastic which does not look at all healthy to eat. Carpet was not clean, however the beds were comfortable. One of my friend stayed in "Royal Century Hotel" in the same locality which was much better for the same price that I paid for "Americas Best Value Inn and Suites - LAX/El Segundo". Bottom line, do not opt for this hotel as there are lot better hotels in same neighborhood for the same or lesser price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r73317311-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>73317311</t>
+  </si>
+  <si>
+    <t>08/01/2010</t>
+  </si>
+  <si>
+    <t>Avid Business Traveller</t>
+  </si>
+  <si>
+    <t>My job involves a lot of traveling.  I have stayed at many hotels but this is one of a few that is well maintained, has CLEAN spacious rooms and above all great water pressure. Americas Best Value Inn LAX has wireless internet and super comfortable beds. Without a doubt, this is where I’ll be staying when I’m in the LAX area!!!</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r73233612-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>73233612</t>
+  </si>
+  <si>
+    <t>Great Value, Extremely Helpful Staff</t>
+  </si>
+  <si>
+    <t>We missed a connection at LAX and found ourselves stranded in LA. American Airlines tried to find us a "distressed traveller" rate but everyone was full. We ended up here. It ain't the Hilton, but the room was clean and newly redecorated. Everything in the room worked, the staff couldn't have been more helpful and friendly. Room was spacious and clean. Minutes from LAX. Free wifi too!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r64439285-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>64439285</t>
+  </si>
+  <si>
+    <t>05/17/2010</t>
+  </si>
+  <si>
+    <t>Great location!!!</t>
+  </si>
+  <si>
+    <t>I was extremely excited when I discovered that the hotel my boyfriend had booked for our weekend on the town was in such a great location. Minutes from shopping, dining, and the airport. Not to mention the price we paid cant be beat. I would certainly recommend this hotel to anyone who is out and about and wants to stay in a hotel close to everything.</t>
+  </si>
+  <si>
+    <t>April 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r17482214-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>17482214</t>
+  </si>
+  <si>
+    <t>07/03/2008</t>
+  </si>
+  <si>
+    <t>Yes New Owners who are trying hard but still flawed</t>
+  </si>
+  <si>
+    <t>As the previous reviewer stated this place does have new owners and they appear to understand that improvements are needed and they have started, but they still have a LONG way to go and there customer focus was just not where it should be.
+First and foremost this place no longer has a free shuttle to LAX. Therefore considering the $20 one way charge for a cab - consider a better place with a free shuttle. 
+The hot water boiler was broken when we checked in, and when we also found that there was no free shuttle (despite clear reference to one on Expedia when we booked) we asked for a discount to compensate for the fact that we would have to pay $38 for round trip cab fare. The owner said it was tough and would not accept that it was his responsibility to get the facts corrected. Eventually he "compromised" by giving us our money back (at 10.30 pm in Inglewood when we had no transport!) but to be fair he did book us into Microtel down the road and give us a ride there (Microtel was OK but only has a limited free shuttle at set times)
+Therefore we cannot comment on the rooms and cleanliness etc -but service is seriously flawed
+Overall the guys are trying hrad but not yet hard enough. If you can stretch your budget go to a $110-120 place with a free...As the previous reviewer stated this place does have new owners and they appear to understand that improvements are needed and they have started, but they still have a LONG way to go and there customer focus was just not where it should be.First and foremost this place no longer has a free shuttle to LAX. Therefore considering the $20 one way charge for a cab - consider a better place with a free shuttle. The hot water boiler was broken when we checked in, and when we also found that there was no free shuttle (despite clear reference to one on Expedia when we booked) we asked for a discount to compensate for the fact that we would have to pay $38 for round trip cab fare. The owner said it was tough and would not accept that it was his responsibility to get the facts corrected. Eventually he "compromised" by giving us our money back (at 10.30 pm in Inglewood when we had no transport!) but to be fair he did book us into Microtel down the road and give us a ride there (Microtel was OK but only has a limited free shuttle at set times)Therefore we cannot comment on the rooms and cleanliness etc -but service is seriously flawedOverall the guys are trying hrad but not yet hard enough. If you can stretch your budget go to a $110-120 place with a free shuttle.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2008</t>
+  </si>
+  <si>
+    <t>As the previous reviewer stated this place does have new owners and they appear to understand that improvements are needed and they have started, but they still have a LONG way to go and there customer focus was just not where it should be.
+First and foremost this place no longer has a free shuttle to LAX. Therefore considering the $20 one way charge for a cab - consider a better place with a free shuttle. 
+The hot water boiler was broken when we checked in, and when we also found that there was no free shuttle (despite clear reference to one on Expedia when we booked) we asked for a discount to compensate for the fact that we would have to pay $38 for round trip cab fare. The owner said it was tough and would not accept that it was his responsibility to get the facts corrected. Eventually he "compromised" by giving us our money back (at 10.30 pm in Inglewood when we had no transport!) but to be fair he did book us into Microtel down the road and give us a ride there (Microtel was OK but only has a limited free shuttle at set times)
+Therefore we cannot comment on the rooms and cleanliness etc -but service is seriously flawed
+Overall the guys are trying hrad but not yet hard enough. If you can stretch your budget go to a $110-120 place with a free...As the previous reviewer stated this place does have new owners and they appear to understand that improvements are needed and they have started, but they still have a LONG way to go and there customer focus was just not where it should be.First and foremost this place no longer has a free shuttle to LAX. Therefore considering the $20 one way charge for a cab - consider a better place with a free shuttle. The hot water boiler was broken when we checked in, and when we also found that there was no free shuttle (despite clear reference to one on Expedia when we booked) we asked for a discount to compensate for the fact that we would have to pay $38 for round trip cab fare. The owner said it was tough and would not accept that it was his responsibility to get the facts corrected. Eventually he "compromised" by giving us our money back (at 10.30 pm in Inglewood when we had no transport!) but to be fair he did book us into Microtel down the road and give us a ride there (Microtel was OK but only has a limited free shuttle at set times)Therefore we cannot comment on the rooms and cleanliness etc -but service is seriously flawedOverall the guys are trying hrad but not yet hard enough. If you can stretch your budget go to a $110-120 place with a free shuttle.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r14894057-LAX_Stadium_Inn-Inglewood_California.html</t>
+  </si>
+  <si>
+    <t>14894057</t>
+  </si>
+  <si>
+    <t>04/08/2008</t>
+  </si>
+  <si>
+    <t>Great Price and New Owners</t>
+  </si>
+  <si>
+    <t>I was worried about staying at this property after reading the past reviews but have had great stays at other Americas Best Value Inns, so thought I would give it a try.  Property has new owners who are very helpful and the place has been fully renovated.  It was a great stay for the price and very close to the airport.  Microwave, Refrigerator and HI – Speed Internet was everything I needed.</t>
+  </si>
+  <si>
+    <t>February 2008</t>
   </si>
 </sst>
 </file>
@@ -648,6 +2556,6405 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="n">
+        <v>1</v>
+      </c>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>2</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>2</v>
+      </c>
+      <c r="N3" t="s">
+        <v>62</v>
+      </c>
+      <c r="O3" t="s">
+        <v>63</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>64</v>
+      </c>
+      <c r="X3" t="s">
+        <v>65</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K4" t="s">
+        <v>70</v>
+      </c>
+      <c r="L4" t="s">
+        <v>71</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>62</v>
+      </c>
+      <c r="O4" t="s">
+        <v>72</v>
+      </c>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="n">
+        <v>4</v>
+      </c>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>4</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s">
+        <v>73</v>
+      </c>
+      <c r="X4" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>76</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>72</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="n">
+        <v>3</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>82</v>
+      </c>
+      <c r="X5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>85</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>86</v>
+      </c>
+      <c r="J6" t="s">
+        <v>87</v>
+      </c>
+      <c r="K6" t="s">
+        <v>88</v>
+      </c>
+      <c r="L6" t="s">
+        <v>89</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>72</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>90</v>
+      </c>
+      <c r="X6" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>94</v>
+      </c>
+      <c r="J7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>98</v>
+      </c>
+      <c r="O7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" t="s">
+        <v>102</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>104</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
+        <v>105</v>
+      </c>
+      <c r="O8" t="s">
+        <v>106</v>
+      </c>
+      <c r="P8" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1</v>
+      </c>
+      <c r="R8" t="n">
+        <v>1</v>
+      </c>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>2</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>107</v>
+      </c>
+      <c r="X8" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>110</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>111</v>
+      </c>
+      <c r="J9" t="s">
+        <v>112</v>
+      </c>
+      <c r="K9" t="s">
+        <v>113</v>
+      </c>
+      <c r="L9" t="s">
+        <v>114</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>105</v>
+      </c>
+      <c r="O9" t="s">
+        <v>63</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>107</v>
+      </c>
+      <c r="X9" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>116</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+      <c r="J10" t="s">
+        <v>118</v>
+      </c>
+      <c r="K10" t="s">
+        <v>119</v>
+      </c>
+      <c r="L10" t="s">
+        <v>120</v>
+      </c>
+      <c r="M10" t="n">
+        <v>3</v>
+      </c>
+      <c r="N10" t="s">
+        <v>105</v>
+      </c>
+      <c r="O10" t="s">
+        <v>72</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>3</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>3</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s">
+        <v>121</v>
+      </c>
+      <c r="X10" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y10" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>124</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>125</v>
+      </c>
+      <c r="J11" t="s">
+        <v>126</v>
+      </c>
+      <c r="K11" t="s">
+        <v>127</v>
+      </c>
+      <c r="L11" t="s">
+        <v>128</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>105</v>
+      </c>
+      <c r="O11" t="s">
+        <v>72</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>4</v>
+      </c>
+      <c r="S11" t="n">
+        <v>1</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>129</v>
+      </c>
+      <c r="X11" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>133</v>
+      </c>
+      <c r="J12" t="s">
+        <v>134</v>
+      </c>
+      <c r="K12" t="s">
+        <v>135</v>
+      </c>
+      <c r="L12" t="s">
+        <v>136</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>137</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>3</v>
+      </c>
+      <c r="R12" t="n">
+        <v>3</v>
+      </c>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>3</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>138</v>
+      </c>
+      <c r="X12" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>141</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>142</v>
+      </c>
+      <c r="J13" t="s">
+        <v>143</v>
+      </c>
+      <c r="K13" t="s">
+        <v>144</v>
+      </c>
+      <c r="L13" t="s">
+        <v>145</v>
+      </c>
+      <c r="M13" t="n">
+        <v>1</v>
+      </c>
+      <c r="N13" t="s">
+        <v>146</v>
+      </c>
+      <c r="O13" t="s">
+        <v>72</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>147</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>148</v>
+      </c>
+      <c r="J14" t="s">
+        <v>149</v>
+      </c>
+      <c r="K14" t="s">
+        <v>150</v>
+      </c>
+      <c r="L14" t="s">
+        <v>151</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>152</v>
+      </c>
+      <c r="O14" t="s">
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>2</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>2</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>154</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>155</v>
+      </c>
+      <c r="J15" t="s">
+        <v>156</v>
+      </c>
+      <c r="K15" t="s">
+        <v>157</v>
+      </c>
+      <c r="L15" t="s">
+        <v>158</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>159</v>
+      </c>
+      <c r="O15" t="s">
+        <v>63</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>160</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>161</v>
+      </c>
+      <c r="J16" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" t="s">
+        <v>163</v>
+      </c>
+      <c r="L16" t="s">
+        <v>164</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>159</v>
+      </c>
+      <c r="O16" t="s">
+        <v>63</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>165</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" t="s">
+        <v>167</v>
+      </c>
+      <c r="K17" t="s">
+        <v>168</v>
+      </c>
+      <c r="L17" t="s">
+        <v>169</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3</v>
+      </c>
+      <c r="N17" t="s">
+        <v>170</v>
+      </c>
+      <c r="O17" t="s">
+        <v>171</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>3</v>
+      </c>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>172</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>173</v>
+      </c>
+      <c r="J18" t="s">
+        <v>174</v>
+      </c>
+      <c r="K18" t="s">
+        <v>175</v>
+      </c>
+      <c r="L18" t="s">
+        <v>176</v>
+      </c>
+      <c r="M18" t="n">
+        <v>2</v>
+      </c>
+      <c r="N18" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" t="s">
+        <v>63</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>177</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>178</v>
+      </c>
+      <c r="J19" t="s">
+        <v>179</v>
+      </c>
+      <c r="K19" t="s">
+        <v>180</v>
+      </c>
+      <c r="L19" t="s">
+        <v>181</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>182</v>
+      </c>
+      <c r="O19" t="s">
+        <v>106</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>183</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>184</v>
+      </c>
+      <c r="J20" t="s">
+        <v>185</v>
+      </c>
+      <c r="K20" t="s">
+        <v>186</v>
+      </c>
+      <c r="L20" t="s">
+        <v>187</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>188</v>
+      </c>
+      <c r="O20" t="s">
+        <v>171</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="n">
+        <v>3</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>4</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>190</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>191</v>
+      </c>
+      <c r="J21" t="s">
+        <v>192</v>
+      </c>
+      <c r="K21" t="s">
+        <v>193</v>
+      </c>
+      <c r="L21" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" t="n">
+        <v>1</v>
+      </c>
+      <c r="N21" t="s">
+        <v>182</v>
+      </c>
+      <c r="O21" t="s">
+        <v>106</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>1</v>
+      </c>
+      <c r="N22" t="s">
+        <v>201</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="s"/>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>203</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>204</v>
+      </c>
+      <c r="J23" t="s">
+        <v>205</v>
+      </c>
+      <c r="K23" t="s">
+        <v>206</v>
+      </c>
+      <c r="L23" t="s">
+        <v>207</v>
+      </c>
+      <c r="M23" t="n">
+        <v>1</v>
+      </c>
+      <c r="N23" t="s">
+        <v>208</v>
+      </c>
+      <c r="O23" t="s">
+        <v>106</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="s"/>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>210</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>211</v>
+      </c>
+      <c r="J24" t="s">
+        <v>212</v>
+      </c>
+      <c r="K24" t="s">
+        <v>213</v>
+      </c>
+      <c r="L24" t="s">
+        <v>214</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>152</v>
+      </c>
+      <c r="O24" t="s">
+        <v>106</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>216</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>217</v>
+      </c>
+      <c r="J25" t="s">
+        <v>218</v>
+      </c>
+      <c r="K25" t="s">
+        <v>219</v>
+      </c>
+      <c r="L25" t="s">
+        <v>220</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>221</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>222</v>
+      </c>
+      <c r="J26" t="s">
+        <v>223</v>
+      </c>
+      <c r="K26" t="s">
+        <v>224</v>
+      </c>
+      <c r="L26" t="s">
+        <v>225</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>226</v>
+      </c>
+      <c r="O26" t="s">
+        <v>106</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>227</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>228</v>
+      </c>
+      <c r="J27" t="s">
+        <v>229</v>
+      </c>
+      <c r="K27" t="s">
+        <v>230</v>
+      </c>
+      <c r="L27" t="s">
+        <v>231</v>
+      </c>
+      <c r="M27" t="n">
+        <v>4</v>
+      </c>
+      <c r="N27" t="s">
+        <v>226</v>
+      </c>
+      <c r="O27" t="s">
+        <v>63</v>
+      </c>
+      <c r="P27" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>232</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>233</v>
+      </c>
+      <c r="J28" t="s">
+        <v>234</v>
+      </c>
+      <c r="K28" t="s">
+        <v>235</v>
+      </c>
+      <c r="L28" t="s">
+        <v>236</v>
+      </c>
+      <c r="M28" t="n">
+        <v>5</v>
+      </c>
+      <c r="N28" t="s">
+        <v>208</v>
+      </c>
+      <c r="O28" t="s">
+        <v>63</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>5</v>
+      </c>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>237</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>238</v>
+      </c>
+      <c r="J29" t="s">
+        <v>239</v>
+      </c>
+      <c r="K29" t="s">
+        <v>240</v>
+      </c>
+      <c r="L29" t="s">
+        <v>241</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>242</v>
+      </c>
+      <c r="O29" t="s">
+        <v>63</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="n">
+        <v>4</v>
+      </c>
+      <c r="S29" t="n">
+        <v>3</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>3</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>243</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>244</v>
+      </c>
+      <c r="J30" t="s">
+        <v>245</v>
+      </c>
+      <c r="K30" t="s">
+        <v>246</v>
+      </c>
+      <c r="L30" t="s">
+        <v>247</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>242</v>
+      </c>
+      <c r="O30" t="s">
+        <v>63</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>249</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>250</v>
+      </c>
+      <c r="J31" t="s">
+        <v>251</v>
+      </c>
+      <c r="K31" t="s">
+        <v>252</v>
+      </c>
+      <c r="L31" t="s">
+        <v>253</v>
+      </c>
+      <c r="M31" t="n">
+        <v>3</v>
+      </c>
+      <c r="N31" t="s">
+        <v>254</v>
+      </c>
+      <c r="O31" t="s">
+        <v>63</v>
+      </c>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>255</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>256</v>
+      </c>
+      <c r="J32" t="s">
+        <v>257</v>
+      </c>
+      <c r="K32" t="s">
+        <v>258</v>
+      </c>
+      <c r="L32" t="s">
+        <v>259</v>
+      </c>
+      <c r="M32" t="n">
+        <v>3</v>
+      </c>
+      <c r="N32" t="s">
+        <v>254</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="s"/>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>261</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>262</v>
+      </c>
+      <c r="J33" t="s">
+        <v>263</v>
+      </c>
+      <c r="K33" t="s">
+        <v>264</v>
+      </c>
+      <c r="L33" t="s">
+        <v>265</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>254</v>
+      </c>
+      <c r="O33" t="s">
+        <v>171</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="n">
+        <v>3</v>
+      </c>
+      <c r="S33" t="s"/>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>3</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>266</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>267</v>
+      </c>
+      <c r="J34" t="s">
+        <v>268</v>
+      </c>
+      <c r="K34" t="s">
+        <v>269</v>
+      </c>
+      <c r="L34" t="s">
+        <v>270</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>254</v>
+      </c>
+      <c r="O34" t="s">
+        <v>72</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="n">
+        <v>4</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>4</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>273</v>
+      </c>
+      <c r="J35" t="s">
+        <v>274</v>
+      </c>
+      <c r="K35" t="s">
+        <v>275</v>
+      </c>
+      <c r="L35" t="s">
+        <v>276</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>277</v>
+      </c>
+      <c r="O35" t="s">
+        <v>72</v>
+      </c>
+      <c r="P35" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>1</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>279</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>280</v>
+      </c>
+      <c r="J36" t="s">
+        <v>281</v>
+      </c>
+      <c r="K36" t="s">
+        <v>282</v>
+      </c>
+      <c r="L36" t="s">
+        <v>283</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>284</v>
+      </c>
+      <c r="O36" t="s">
+        <v>72</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="s"/>
+      <c r="T36" t="s"/>
+      <c r="U36" t="s"/>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>285</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>286</v>
+      </c>
+      <c r="J37" t="s">
+        <v>287</v>
+      </c>
+      <c r="K37" t="s">
+        <v>288</v>
+      </c>
+      <c r="L37" t="s">
+        <v>289</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>284</v>
+      </c>
+      <c r="O37" t="s">
+        <v>171</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>290</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>291</v>
+      </c>
+      <c r="J38" t="s">
+        <v>292</v>
+      </c>
+      <c r="K38" t="s">
+        <v>293</v>
+      </c>
+      <c r="L38" t="s">
+        <v>294</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s">
+        <v>188</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
+      <c r="T38" t="s"/>
+      <c r="U38" t="s"/>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>295</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>296</v>
+      </c>
+      <c r="J39" t="s">
+        <v>297</v>
+      </c>
+      <c r="K39" t="s">
+        <v>298</v>
+      </c>
+      <c r="L39" t="s">
+        <v>299</v>
+      </c>
+      <c r="M39" t="n">
+        <v>5</v>
+      </c>
+      <c r="N39" t="s">
+        <v>188</v>
+      </c>
+      <c r="O39" t="s">
+        <v>72</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>300</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>301</v>
+      </c>
+      <c r="J40" t="s">
+        <v>302</v>
+      </c>
+      <c r="K40" t="s">
+        <v>303</v>
+      </c>
+      <c r="L40" t="s">
+        <v>304</v>
+      </c>
+      <c r="M40" t="n">
+        <v>1</v>
+      </c>
+      <c r="N40" t="s">
+        <v>305</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>306</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>307</v>
+      </c>
+      <c r="J41" t="s">
+        <v>308</v>
+      </c>
+      <c r="K41" t="s">
+        <v>309</v>
+      </c>
+      <c r="L41" t="s">
+        <v>310</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>311</v>
+      </c>
+      <c r="O41" t="s">
+        <v>171</v>
+      </c>
+      <c r="P41" t="s"/>
+      <c r="Q41" t="s"/>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
+      <c r="T41" t="s"/>
+      <c r="U41" t="s"/>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>312</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>313</v>
+      </c>
+      <c r="J42" t="s">
+        <v>314</v>
+      </c>
+      <c r="K42" t="s">
+        <v>315</v>
+      </c>
+      <c r="L42" t="s">
+        <v>316</v>
+      </c>
+      <c r="M42" t="n">
+        <v>4</v>
+      </c>
+      <c r="N42" t="s">
+        <v>317</v>
+      </c>
+      <c r="O42" t="s">
+        <v>53</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>5</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>318</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>319</v>
+      </c>
+      <c r="J43" t="s">
+        <v>320</v>
+      </c>
+      <c r="K43" t="s">
+        <v>321</v>
+      </c>
+      <c r="L43" t="s">
+        <v>322</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>317</v>
+      </c>
+      <c r="O43" t="s">
+        <v>171</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>5</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>324</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>325</v>
+      </c>
+      <c r="J44" t="s">
+        <v>326</v>
+      </c>
+      <c r="K44" t="s">
+        <v>327</v>
+      </c>
+      <c r="L44" t="s">
+        <v>328</v>
+      </c>
+      <c r="M44" t="n">
+        <v>3</v>
+      </c>
+      <c r="N44" t="s">
+        <v>317</v>
+      </c>
+      <c r="O44" t="s">
+        <v>72</v>
+      </c>
+      <c r="P44" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="s"/>
+      <c r="S44" t="s"/>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>329</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>330</v>
+      </c>
+      <c r="J45" t="s">
+        <v>331</v>
+      </c>
+      <c r="K45" t="s">
+        <v>332</v>
+      </c>
+      <c r="L45" t="s">
+        <v>333</v>
+      </c>
+      <c r="M45" t="n">
+        <v>1</v>
+      </c>
+      <c r="N45" t="s">
+        <v>334</v>
+      </c>
+      <c r="O45" t="s">
+        <v>53</v>
+      </c>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
+      <c r="T45" t="s"/>
+      <c r="U45" t="s"/>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>335</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>336</v>
+      </c>
+      <c r="J46" t="s">
+        <v>331</v>
+      </c>
+      <c r="K46" t="s">
+        <v>337</v>
+      </c>
+      <c r="L46" t="s">
+        <v>338</v>
+      </c>
+      <c r="M46" t="n">
+        <v>3</v>
+      </c>
+      <c r="N46" t="s">
+        <v>339</v>
+      </c>
+      <c r="O46" t="s">
+        <v>63</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>2</v>
+      </c>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>4</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>341</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>342</v>
+      </c>
+      <c r="J47" t="s">
+        <v>343</v>
+      </c>
+      <c r="K47" t="s">
+        <v>344</v>
+      </c>
+      <c r="L47" t="s">
+        <v>345</v>
+      </c>
+      <c r="M47" t="n">
+        <v>3</v>
+      </c>
+      <c r="N47" t="s">
+        <v>346</v>
+      </c>
+      <c r="O47" t="s">
+        <v>63</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="s"/>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>3</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>348</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>349</v>
+      </c>
+      <c r="J48" t="s">
+        <v>350</v>
+      </c>
+      <c r="K48" t="s">
+        <v>351</v>
+      </c>
+      <c r="L48" t="s">
+        <v>352</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>353</v>
+      </c>
+      <c r="O48" t="s">
+        <v>171</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
+      <c r="Y48" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>354</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>355</v>
+      </c>
+      <c r="J49" t="s">
+        <v>356</v>
+      </c>
+      <c r="K49" t="s">
+        <v>357</v>
+      </c>
+      <c r="L49" t="s">
+        <v>358</v>
+      </c>
+      <c r="M49" t="n">
+        <v>1</v>
+      </c>
+      <c r="N49" t="s"/>
+      <c r="O49" t="s"/>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="n">
+        <v>1</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="s"/>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>360</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>361</v>
+      </c>
+      <c r="J50" t="s">
+        <v>362</v>
+      </c>
+      <c r="K50" t="s">
+        <v>363</v>
+      </c>
+      <c r="L50" t="s">
+        <v>364</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>365</v>
+      </c>
+      <c r="O50" t="s">
+        <v>171</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>366</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>367</v>
+      </c>
+      <c r="J51" t="s">
+        <v>368</v>
+      </c>
+      <c r="K51" t="s">
+        <v>369</v>
+      </c>
+      <c r="L51" t="s">
+        <v>370</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>371</v>
+      </c>
+      <c r="O51" t="s">
+        <v>63</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="s"/>
+      <c r="R51" t="s"/>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>372</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>373</v>
+      </c>
+      <c r="J52" t="s">
+        <v>374</v>
+      </c>
+      <c r="K52" t="s">
+        <v>375</v>
+      </c>
+      <c r="L52" t="s">
+        <v>376</v>
+      </c>
+      <c r="M52" t="n">
+        <v>5</v>
+      </c>
+      <c r="N52" t="s"/>
+      <c r="O52" t="s"/>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>5</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>5</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>378</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>379</v>
+      </c>
+      <c r="J53" t="s">
+        <v>380</v>
+      </c>
+      <c r="K53" t="s">
+        <v>381</v>
+      </c>
+      <c r="L53" t="s">
+        <v>382</v>
+      </c>
+      <c r="M53" t="n">
+        <v>4</v>
+      </c>
+      <c r="N53" t="s"/>
+      <c r="O53" t="s"/>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>3</v>
+      </c>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>383</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>384</v>
+      </c>
+      <c r="J54" t="s">
+        <v>385</v>
+      </c>
+      <c r="K54" t="s">
+        <v>386</v>
+      </c>
+      <c r="L54" t="s">
+        <v>387</v>
+      </c>
+      <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s">
+        <v>334</v>
+      </c>
+      <c r="O54" t="s">
+        <v>63</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
+      <c r="R54" t="n">
+        <v>3</v>
+      </c>
+      <c r="S54" t="s"/>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>388</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>389</v>
+      </c>
+      <c r="J55" t="s">
+        <v>390</v>
+      </c>
+      <c r="K55" t="s">
+        <v>391</v>
+      </c>
+      <c r="L55" t="s">
+        <v>392</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>393</v>
+      </c>
+      <c r="O55" t="s">
+        <v>171</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="n">
+        <v>3</v>
+      </c>
+      <c r="S55" t="s"/>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>394</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>395</v>
+      </c>
+      <c r="J56" t="s">
+        <v>396</v>
+      </c>
+      <c r="K56" t="s">
+        <v>397</v>
+      </c>
+      <c r="L56" t="s">
+        <v>398</v>
+      </c>
+      <c r="M56" t="n">
+        <v>5</v>
+      </c>
+      <c r="N56" t="s">
+        <v>334</v>
+      </c>
+      <c r="O56" t="s">
+        <v>63</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>5</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>400</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>401</v>
+      </c>
+      <c r="J57" t="s">
+        <v>402</v>
+      </c>
+      <c r="K57" t="s">
+        <v>403</v>
+      </c>
+      <c r="L57" t="s">
+        <v>404</v>
+      </c>
+      <c r="M57" t="n">
+        <v>4</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>4</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>405</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>406</v>
+      </c>
+      <c r="J58" t="s">
+        <v>407</v>
+      </c>
+      <c r="K58" t="s">
+        <v>381</v>
+      </c>
+      <c r="L58" t="s">
+        <v>408</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>409</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>410</v>
+      </c>
+      <c r="J59" t="s">
+        <v>411</v>
+      </c>
+      <c r="K59" t="s">
+        <v>412</v>
+      </c>
+      <c r="L59" t="s">
+        <v>413</v>
+      </c>
+      <c r="M59" t="n">
+        <v>4</v>
+      </c>
+      <c r="N59" t="s">
+        <v>414</v>
+      </c>
+      <c r="O59" t="s">
+        <v>63</v>
+      </c>
+      <c r="P59" t="s"/>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="s"/>
+      <c r="S59" t="s"/>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>3</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>415</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>416</v>
+      </c>
+      <c r="J60" t="s">
+        <v>417</v>
+      </c>
+      <c r="K60" t="s">
+        <v>418</v>
+      </c>
+      <c r="L60" t="s">
+        <v>419</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="s">
+        <v>414</v>
+      </c>
+      <c r="O60" t="s">
+        <v>106</v>
+      </c>
+      <c r="P60" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2</v>
+      </c>
+      <c r="S60" t="n">
+        <v>1</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>420</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>421</v>
+      </c>
+      <c r="J61" t="s">
+        <v>422</v>
+      </c>
+      <c r="K61" t="s">
+        <v>423</v>
+      </c>
+      <c r="L61" t="s">
+        <v>424</v>
+      </c>
+      <c r="M61" t="n">
+        <v>2</v>
+      </c>
+      <c r="N61" t="s">
+        <v>425</v>
+      </c>
+      <c r="O61" t="s">
+        <v>53</v>
+      </c>
+      <c r="P61" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>2</v>
+      </c>
+      <c r="R61" t="n">
+        <v>3</v>
+      </c>
+      <c r="S61" t="n">
+        <v>3</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>3</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>426</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>427</v>
+      </c>
+      <c r="J62" t="s">
+        <v>428</v>
+      </c>
+      <c r="K62" t="s">
+        <v>429</v>
+      </c>
+      <c r="L62" t="s">
+        <v>430</v>
+      </c>
+      <c r="M62" t="n">
+        <v>4</v>
+      </c>
+      <c r="N62" t="s">
+        <v>431</v>
+      </c>
+      <c r="O62" t="s">
+        <v>63</v>
+      </c>
+      <c r="P62" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>3</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s"/>
+      <c r="X62" t="s"/>
+      <c r="Y62" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>432</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>433</v>
+      </c>
+      <c r="J63" t="s">
+        <v>434</v>
+      </c>
+      <c r="K63" t="s">
+        <v>435</v>
+      </c>
+      <c r="L63" t="s">
+        <v>436</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>414</v>
+      </c>
+      <c r="O63" t="s">
+        <v>63</v>
+      </c>
+      <c r="P63" t="s"/>
+      <c r="Q63" t="s"/>
+      <c r="R63" t="s"/>
+      <c r="S63" t="s"/>
+      <c r="T63" t="s"/>
+      <c r="U63" t="s"/>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s"/>
+      <c r="X63" t="s"/>
+      <c r="Y63" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>438</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>439</v>
+      </c>
+      <c r="J64" t="s">
+        <v>440</v>
+      </c>
+      <c r="K64" t="s">
+        <v>441</v>
+      </c>
+      <c r="L64" t="s">
+        <v>442</v>
+      </c>
+      <c r="M64" t="n">
+        <v>4</v>
+      </c>
+      <c r="N64" t="s">
+        <v>414</v>
+      </c>
+      <c r="O64" t="s">
+        <v>63</v>
+      </c>
+      <c r="P64" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>3</v>
+      </c>
+      <c r="R64" t="n">
+        <v>3</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>4</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s"/>
+      <c r="X64" t="s"/>
+      <c r="Y64" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>444</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>445</v>
+      </c>
+      <c r="J65" t="s">
+        <v>446</v>
+      </c>
+      <c r="K65" t="s">
+        <v>447</v>
+      </c>
+      <c r="L65" t="s">
+        <v>448</v>
+      </c>
+      <c r="M65" t="n">
+        <v>1</v>
+      </c>
+      <c r="N65" t="s"/>
+      <c r="O65" t="s"/>
+      <c r="P65" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2</v>
+      </c>
+      <c r="T65" t="s"/>
+      <c r="U65" t="n">
+        <v>5</v>
+      </c>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s"/>
+      <c r="X65" t="s"/>
+      <c r="Y65" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>449</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>450</v>
+      </c>
+      <c r="J66" t="s">
+        <v>451</v>
+      </c>
+      <c r="K66" t="s">
+        <v>452</v>
+      </c>
+      <c r="L66" t="s">
+        <v>453</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="s">
+        <v>431</v>
+      </c>
+      <c r="O66" t="s">
+        <v>171</v>
+      </c>
+      <c r="P66" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>1</v>
+      </c>
+      <c r="R66" t="n">
+        <v>1</v>
+      </c>
+      <c r="S66" t="n">
+        <v>1</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>1</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s"/>
+      <c r="X66" t="s"/>
+      <c r="Y66" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>455</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>456</v>
+      </c>
+      <c r="J67" t="s">
+        <v>451</v>
+      </c>
+      <c r="K67" t="s">
+        <v>457</v>
+      </c>
+      <c r="L67" t="s">
+        <v>458</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>431</v>
+      </c>
+      <c r="O67" t="s">
+        <v>72</v>
+      </c>
+      <c r="P67" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>4</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>3</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s"/>
+      <c r="X67" t="s"/>
+      <c r="Y67" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>459</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>460</v>
+      </c>
+      <c r="J68" t="s">
+        <v>461</v>
+      </c>
+      <c r="K68" t="s">
+        <v>462</v>
+      </c>
+      <c r="L68" t="s">
+        <v>463</v>
+      </c>
+      <c r="M68" t="n">
+        <v>3</v>
+      </c>
+      <c r="N68" t="s">
+        <v>464</v>
+      </c>
+      <c r="O68" t="s">
+        <v>63</v>
+      </c>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>4</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s"/>
+      <c r="X68" t="s"/>
+      <c r="Y68" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>466</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>467</v>
+      </c>
+      <c r="J69" t="s">
+        <v>461</v>
+      </c>
+      <c r="K69" t="s">
+        <v>468</v>
+      </c>
+      <c r="L69" t="s">
+        <v>469</v>
+      </c>
+      <c r="M69" t="n">
+        <v>5</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>5</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>5</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s"/>
+      <c r="X69" t="s"/>
+      <c r="Y69" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>470</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>471</v>
+      </c>
+      <c r="J70" t="s">
+        <v>472</v>
+      </c>
+      <c r="K70" t="s">
+        <v>473</v>
+      </c>
+      <c r="L70" t="s">
+        <v>474</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>475</v>
+      </c>
+      <c r="O70" t="s">
+        <v>72</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>4</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>5</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s"/>
+      <c r="X70" t="s"/>
+      <c r="Y70" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>476</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>477</v>
+      </c>
+      <c r="J71" t="s">
+        <v>478</v>
+      </c>
+      <c r="K71" t="s">
+        <v>479</v>
+      </c>
+      <c r="L71" t="s">
+        <v>480</v>
+      </c>
+      <c r="M71" t="n">
+        <v>3</v>
+      </c>
+      <c r="N71" t="s">
+        <v>475</v>
+      </c>
+      <c r="O71" t="s">
+        <v>72</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>3</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>3</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>481</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>482</v>
+      </c>
+      <c r="J72" t="s">
+        <v>483</v>
+      </c>
+      <c r="K72" t="s">
+        <v>484</v>
+      </c>
+      <c r="L72" t="s">
+        <v>485</v>
+      </c>
+      <c r="M72" t="n">
+        <v>4</v>
+      </c>
+      <c r="N72" t="s">
+        <v>486</v>
+      </c>
+      <c r="O72" t="s">
+        <v>72</v>
+      </c>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>487</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>488</v>
+      </c>
+      <c r="J73" t="s">
+        <v>489</v>
+      </c>
+      <c r="K73" t="s">
+        <v>490</v>
+      </c>
+      <c r="L73" t="s">
+        <v>491</v>
+      </c>
+      <c r="M73" t="n">
+        <v>4</v>
+      </c>
+      <c r="N73" t="s">
+        <v>486</v>
+      </c>
+      <c r="O73" t="s">
+        <v>106</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>493</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>494</v>
+      </c>
+      <c r="J74" t="s">
+        <v>495</v>
+      </c>
+      <c r="K74" t="s">
+        <v>496</v>
+      </c>
+      <c r="L74" t="s">
+        <v>497</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="s">
+        <v>498</v>
+      </c>
+      <c r="O74" t="s">
+        <v>72</v>
+      </c>
+      <c r="P74" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>3</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>499</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>500</v>
+      </c>
+      <c r="J75" t="s">
+        <v>501</v>
+      </c>
+      <c r="K75" t="s">
+        <v>502</v>
+      </c>
+      <c r="L75" t="s">
+        <v>503</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s"/>
+      <c r="O75" t="s"/>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>3</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>504</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>505</v>
+      </c>
+      <c r="J76" t="s">
+        <v>506</v>
+      </c>
+      <c r="K76" t="s">
+        <v>507</v>
+      </c>
+      <c r="L76" t="s">
+        <v>508</v>
+      </c>
+      <c r="M76" t="n">
+        <v>3</v>
+      </c>
+      <c r="N76" t="s"/>
+      <c r="O76" t="s"/>
+      <c r="P76" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>3</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>509</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>510</v>
+      </c>
+      <c r="J77" t="s">
+        <v>511</v>
+      </c>
+      <c r="K77" t="s">
+        <v>512</v>
+      </c>
+      <c r="L77" t="s">
+        <v>513</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>514</v>
+      </c>
+      <c r="O77" t="s">
+        <v>63</v>
+      </c>
+      <c r="P77" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>3</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s"/>
+      <c r="X77" t="s"/>
+      <c r="Y77" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>516</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>517</v>
+      </c>
+      <c r="J78" t="s">
+        <v>518</v>
+      </c>
+      <c r="K78" t="s">
+        <v>519</v>
+      </c>
+      <c r="L78" t="s">
+        <v>520</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>521</v>
+      </c>
+      <c r="O78" t="s">
+        <v>63</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>522</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>523</v>
+      </c>
+      <c r="J79" t="s">
+        <v>524</v>
+      </c>
+      <c r="K79" t="s">
+        <v>525</v>
+      </c>
+      <c r="L79" t="s">
+        <v>526</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>521</v>
+      </c>
+      <c r="O79" t="s">
+        <v>171</v>
+      </c>
+      <c r="P79" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>5</v>
+      </c>
+      <c r="S79" t="n">
+        <v>4</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>527</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>528</v>
+      </c>
+      <c r="J80" t="s">
+        <v>529</v>
+      </c>
+      <c r="K80" t="s">
+        <v>530</v>
+      </c>
+      <c r="L80" t="s">
+        <v>531</v>
+      </c>
+      <c r="M80" t="n">
+        <v>4</v>
+      </c>
+      <c r="N80" t="s">
+        <v>532</v>
+      </c>
+      <c r="O80" t="s">
+        <v>63</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>3</v>
+      </c>
+      <c r="S80" t="n">
+        <v>4</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>3</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>533</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>534</v>
+      </c>
+      <c r="J81" t="s">
+        <v>535</v>
+      </c>
+      <c r="K81" t="s">
+        <v>536</v>
+      </c>
+      <c r="L81" t="s">
+        <v>537</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>514</v>
+      </c>
+      <c r="O81" t="s">
+        <v>106</v>
+      </c>
+      <c r="P81" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>5</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>538</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>539</v>
+      </c>
+      <c r="J82" t="s">
+        <v>540</v>
+      </c>
+      <c r="K82" t="s">
+        <v>541</v>
+      </c>
+      <c r="L82" t="s">
+        <v>542</v>
+      </c>
+      <c r="M82" t="n">
+        <v>2</v>
+      </c>
+      <c r="N82" t="s">
+        <v>514</v>
+      </c>
+      <c r="O82" t="s">
+        <v>63</v>
+      </c>
+      <c r="P82" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>2</v>
+      </c>
+      <c r="R82" t="n">
+        <v>4</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>2</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>544</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>545</v>
+      </c>
+      <c r="J83" t="s">
+        <v>546</v>
+      </c>
+      <c r="K83" t="s">
+        <v>547</v>
+      </c>
+      <c r="L83" t="s">
+        <v>548</v>
+      </c>
+      <c r="M83" t="n">
+        <v>3</v>
+      </c>
+      <c r="N83" t="s">
+        <v>549</v>
+      </c>
+      <c r="O83" t="s">
+        <v>63</v>
+      </c>
+      <c r="P83" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>3</v>
+      </c>
+      <c r="R83" t="n">
+        <v>3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>4</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>3</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>550</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>551</v>
+      </c>
+      <c r="J84" t="s">
+        <v>552</v>
+      </c>
+      <c r="K84" t="s">
+        <v>553</v>
+      </c>
+      <c r="L84" t="s">
+        <v>554</v>
+      </c>
+      <c r="M84" t="n">
+        <v>4</v>
+      </c>
+      <c r="N84" t="s">
+        <v>555</v>
+      </c>
+      <c r="O84" t="s">
+        <v>63</v>
+      </c>
+      <c r="P84" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>3</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>4</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>556</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>557</v>
+      </c>
+      <c r="J85" t="s">
+        <v>558</v>
+      </c>
+      <c r="K85" t="s">
+        <v>559</v>
+      </c>
+      <c r="L85" t="s">
+        <v>560</v>
+      </c>
+      <c r="M85" t="n">
+        <v>4</v>
+      </c>
+      <c r="N85" t="s">
+        <v>555</v>
+      </c>
+      <c r="O85" t="s">
+        <v>106</v>
+      </c>
+      <c r="P85" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>4</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>3</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>561</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>562</v>
+      </c>
+      <c r="J86" t="s">
+        <v>563</v>
+      </c>
+      <c r="K86" t="s">
+        <v>564</v>
+      </c>
+      <c r="L86" t="s">
+        <v>565</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>566</v>
+      </c>
+      <c r="O86" t="s">
+        <v>106</v>
+      </c>
+      <c r="P86" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>3</v>
+      </c>
+      <c r="R86" t="s"/>
+      <c r="S86" t="n">
+        <v>3</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>567</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>568</v>
+      </c>
+      <c r="J87" t="s">
+        <v>569</v>
+      </c>
+      <c r="K87" t="s">
+        <v>570</v>
+      </c>
+      <c r="L87" t="s">
+        <v>571</v>
+      </c>
+      <c r="M87" t="n">
+        <v>5</v>
+      </c>
+      <c r="N87" t="s">
+        <v>566</v>
+      </c>
+      <c r="O87" t="s">
+        <v>106</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>5</v>
+      </c>
+      <c r="R87" t="n">
+        <v>5</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s"/>
+      <c r="X87" t="s"/>
+      <c r="Y87" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>572</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>573</v>
+      </c>
+      <c r="J88" t="s">
+        <v>574</v>
+      </c>
+      <c r="K88" t="s">
+        <v>575</v>
+      </c>
+      <c r="L88" t="s">
+        <v>576</v>
+      </c>
+      <c r="M88" t="n">
+        <v>3</v>
+      </c>
+      <c r="N88" t="s">
+        <v>577</v>
+      </c>
+      <c r="O88" t="s">
+        <v>63</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>4</v>
+      </c>
+      <c r="R88" t="s"/>
+      <c r="S88" t="n">
+        <v>4</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>2</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s"/>
+      <c r="X88" t="s"/>
+      <c r="Y88" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>579</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>580</v>
+      </c>
+      <c r="J89" t="s">
+        <v>581</v>
+      </c>
+      <c r="K89" t="s">
+        <v>582</v>
+      </c>
+      <c r="L89" t="s">
+        <v>583</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="s">
+        <v>584</v>
+      </c>
+      <c r="O89" t="s">
+        <v>63</v>
+      </c>
+      <c r="P89" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>2</v>
+      </c>
+      <c r="R89" t="n">
+        <v>1</v>
+      </c>
+      <c r="S89" t="n">
+        <v>3</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>3</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s"/>
+      <c r="X89" t="s"/>
+      <c r="Y89" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>586</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>587</v>
+      </c>
+      <c r="J90" t="s">
+        <v>588</v>
+      </c>
+      <c r="K90" t="s">
+        <v>589</v>
+      </c>
+      <c r="L90" t="s">
+        <v>590</v>
+      </c>
+      <c r="M90" t="n">
+        <v>2</v>
+      </c>
+      <c r="N90" t="s">
+        <v>591</v>
+      </c>
+      <c r="O90" t="s">
+        <v>106</v>
+      </c>
+      <c r="P90" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>2</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>2</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>1</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s"/>
+      <c r="X90" t="s"/>
+      <c r="Y90" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>592</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>593</v>
+      </c>
+      <c r="J91" t="s">
+        <v>594</v>
+      </c>
+      <c r="K91" t="s">
+        <v>595</v>
+      </c>
+      <c r="L91" t="s">
+        <v>596</v>
+      </c>
+      <c r="M91" t="n">
+        <v>4</v>
+      </c>
+      <c r="N91" t="s">
+        <v>597</v>
+      </c>
+      <c r="O91" t="s">
+        <v>171</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="n">
+        <v>5</v>
+      </c>
+      <c r="R91" t="n">
+        <v>4</v>
+      </c>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s"/>
+      <c r="X91" t="s"/>
+      <c r="Y91" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>599</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>600</v>
+      </c>
+      <c r="J92" t="s">
+        <v>601</v>
+      </c>
+      <c r="K92" t="s">
+        <v>602</v>
+      </c>
+      <c r="L92" t="s">
+        <v>603</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="s">
+        <v>604</v>
+      </c>
+      <c r="O92" t="s">
+        <v>72</v>
+      </c>
+      <c r="P92" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q92" t="n">
+        <v>1</v>
+      </c>
+      <c r="R92" t="n">
+        <v>1</v>
+      </c>
+      <c r="S92" t="n">
+        <v>1</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>1</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s"/>
+      <c r="X92" t="s"/>
+      <c r="Y92" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>606</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>607</v>
+      </c>
+      <c r="J93" t="s">
+        <v>608</v>
+      </c>
+      <c r="K93" t="s">
+        <v>609</v>
+      </c>
+      <c r="L93" t="s">
+        <v>610</v>
+      </c>
+      <c r="M93" t="n">
+        <v>4</v>
+      </c>
+      <c r="N93" t="s">
+        <v>611</v>
+      </c>
+      <c r="O93" t="s">
+        <v>171</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>4</v>
+      </c>
+      <c r="R93" t="n">
+        <v>3</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>4</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s"/>
+      <c r="X93" t="s"/>
+      <c r="Y93" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>613</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>614</v>
+      </c>
+      <c r="J94" t="s">
+        <v>615</v>
+      </c>
+      <c r="K94" t="s">
+        <v>616</v>
+      </c>
+      <c r="L94" t="s">
+        <v>617</v>
+      </c>
+      <c r="M94" t="n">
+        <v>4</v>
+      </c>
+      <c r="N94" t="s">
+        <v>604</v>
+      </c>
+      <c r="O94" t="s">
+        <v>171</v>
+      </c>
+      <c r="P94" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>4</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>4</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>4</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s"/>
+      <c r="X94" t="s"/>
+      <c r="Y94" t="s">
+        <v>618</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>619</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>620</v>
+      </c>
+      <c r="J95" t="s">
+        <v>621</v>
+      </c>
+      <c r="K95" t="s">
+        <v>622</v>
+      </c>
+      <c r="L95" t="s">
+        <v>623</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="s">
+        <v>624</v>
+      </c>
+      <c r="O95" t="s">
+        <v>171</v>
+      </c>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="s"/>
+      <c r="R95" t="s"/>
+      <c r="S95" t="n">
+        <v>5</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>626</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>627</v>
+      </c>
+      <c r="J96" t="s">
+        <v>628</v>
+      </c>
+      <c r="K96" t="s">
+        <v>629</v>
+      </c>
+      <c r="L96" t="s">
+        <v>630</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>624</v>
+      </c>
+      <c r="O96" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q96" t="s"/>
+      <c r="R96" t="s"/>
+      <c r="S96" t="n">
+        <v>4</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>631</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>632</v>
+      </c>
+      <c r="J97" t="s">
+        <v>633</v>
+      </c>
+      <c r="K97" t="s">
+        <v>634</v>
+      </c>
+      <c r="L97" t="s">
+        <v>635</v>
+      </c>
+      <c r="M97" t="n">
+        <v>1</v>
+      </c>
+      <c r="N97" t="s">
+        <v>624</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q97" t="s"/>
+      <c r="R97" t="s"/>
+      <c r="S97" t="n">
+        <v>2</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>1</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>636</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>637</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>638</v>
+      </c>
+      <c r="J98" t="s">
+        <v>639</v>
+      </c>
+      <c r="K98" t="s">
+        <v>640</v>
+      </c>
+      <c r="L98" t="s">
+        <v>641</v>
+      </c>
+      <c r="M98" t="n">
+        <v>5</v>
+      </c>
+      <c r="N98" t="s">
+        <v>642</v>
+      </c>
+      <c r="O98" t="s">
+        <v>72</v>
+      </c>
+      <c r="P98" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q98" t="n">
+        <v>5</v>
+      </c>
+      <c r="R98" t="n">
+        <v>4</v>
+      </c>
+      <c r="S98" t="n">
+        <v>5</v>
+      </c>
+      <c r="T98" t="s"/>
+      <c r="U98" t="n">
+        <v>4</v>
+      </c>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>643</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>644</v>
+      </c>
+      <c r="J99" t="s">
+        <v>639</v>
+      </c>
+      <c r="K99" t="s">
+        <v>645</v>
+      </c>
+      <c r="L99" t="s">
+        <v>646</v>
+      </c>
+      <c r="M99" t="n">
+        <v>5</v>
+      </c>
+      <c r="N99" t="s">
+        <v>642</v>
+      </c>
+      <c r="O99" t="s">
+        <v>171</v>
+      </c>
+      <c r="P99" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q99" t="n">
+        <v>5</v>
+      </c>
+      <c r="R99" t="n">
+        <v>5</v>
+      </c>
+      <c r="S99" t="n">
+        <v>5</v>
+      </c>
+      <c r="T99" t="s"/>
+      <c r="U99" t="n">
+        <v>5</v>
+      </c>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>647</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>648</v>
+      </c>
+      <c r="J100" t="s">
+        <v>649</v>
+      </c>
+      <c r="K100" t="s">
+        <v>650</v>
+      </c>
+      <c r="L100" t="s">
+        <v>651</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>652</v>
+      </c>
+      <c r="O100" t="s">
+        <v>63</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>5</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>653</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>654</v>
+      </c>
+      <c r="J101" t="s">
+        <v>655</v>
+      </c>
+      <c r="K101" t="s">
+        <v>656</v>
+      </c>
+      <c r="L101" t="s">
+        <v>657</v>
+      </c>
+      <c r="M101" t="n">
+        <v>1</v>
+      </c>
+      <c r="N101" t="s">
+        <v>658</v>
+      </c>
+      <c r="O101" t="s">
+        <v>171</v>
+      </c>
+      <c r="P101" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q101" t="s"/>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="s"/>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>1</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>42464</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>660</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>661</v>
+      </c>
+      <c r="J102" t="s">
+        <v>662</v>
+      </c>
+      <c r="K102" t="s">
+        <v>663</v>
+      </c>
+      <c r="L102" t="s">
+        <v>664</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>665</v>
+      </c>
+      <c r="O102" t="s">
+        <v>72</v>
+      </c>
+      <c r="P102" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>5</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>5</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>664</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_8.xlsx
+++ b/data/hotels_by_city/Los_Angeles/Los_Angeles_shard_8.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="767">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Jeff T</t>
+  </si>
+  <si>
     <t>06/27/2018</t>
   </si>
   <si>
@@ -189,6 +192,9 @@
     <t>The place is very old run-down and does not in any way resemble the photos which must of been taken decades ago. It is located in a dodgy unsightly neighbourhood and when you go to check in, the staff are hidden behind bulletproof screens. This would indicate how much crime is in the area and its hardly a welcoming or comforting feeling.The lifts and corridors stink of cigarette smoke and people are hiding in walkways smoking and engaging in other activities including illicit drugs. Once you get into your room you walk into a very old dated room which is old run down and of very low quality where you would think it would be used for other less savoury activities.The rooms were basic and the feeling was quite unsafe. You definitely wouldn't want to bring children here and made sure all doors and windows were locked including putting the chain on your door.This hotel is terribly overpriced for what it offers and I would not stay here again under any circumstances.It's definitely not worth the money and it is overpriced and fails in so many areas. do yourself a favour and look elsewhere as others have stated in their reviews this is an unsafe area and its unsightly.More</t>
   </si>
   <si>
+    <t>Anichols39</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r568652480-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -219,6 +225,9 @@
     <t>My husband and I stayed here for one night . its very close to the airport. We arrived around 10 p.m. the hotel is older and needs renovations. Our room had mold in the window . the window to our room was open when we arrived. The mattress on our bed  was hard .  I did not get a good night's rest .  Someone on the streets below our room  was cussing  loudly  . This happened multiple times . We heard what sounded like gunshots around 4 a.m. the area just kind of looks like a slummy bad part of town . I definitely will not be staying here again.More</t>
   </si>
   <si>
+    <t>aranyakb</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r567341190-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -246,6 +255,9 @@
     <t>We needed a room close to the airport with free parking. Did not expect much but was pleasantly surprised after we checked in. Yes, the hotel area looked deserted after dark (when we arrived), but it did not look unsafe to us. We grabbed something to eat from a nearby store (it was 10-30 pm, so really late). Nothing suspicious was going on. The beds were nice and comfortable, the wifi was fast, the bathroom was clean. The front desk was helpful during checking out as well. It is very close to the airport and to the rental car return center, which was nice. All in all very satisfied with our stay. Will visit again if I am in the area.More</t>
   </si>
   <si>
+    <t>shonzi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r555698822-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -273,6 +285,9 @@
     <t>Hotel is older, looking tired in many places. But the room was clean.  Crisp clean sheets and a clean bathroom with updated tub, toilet and basin.  Rooms face the road - so if you cant sleep with noise, try some earplugs.More</t>
   </si>
   <si>
+    <t>wdj0hns</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r553840571-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -297,6 +312,9 @@
     <t>The room was clean and fairly modern. The staff was friendly and accommodating. The only concern we had was the neighborhood. When we came back from dinner we were approached by a woman who wanted us to rent her a room. Also at the liquor store down the street there was people hanging out front arguing. I highly recommend getting what you need for the evening before checking in. Other than that, the room was nice and clean, bed was super comfortable.  You needed a key card to enter the hallway to the rooms and elevator,  put my mind a bit at ease, plus the rooms had double locks. If you don't mind a seedy neighborhood it is a decent place to stay for the value.More</t>
   </si>
   <si>
+    <t>K4428TXjason</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r548764151-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -318,6 +336,9 @@
     <t>This hotel is dishonest beyond belief and illegally charged my credit card for smoking in the room (I don't and never have smoked in my life) and the did it TWO DAY AFTER I stayed there!  Management was rude and deceitful and refuse to try to rectify the situation! Never stay here!More</t>
   </si>
   <si>
+    <t>williamsS9384EW</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r537395080-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -348,6 +369,9 @@
     <t>This was definitely the worst motel I have ever stayed in, although it’s right near the airport, this place Leaves a whole lot to be desired and I think corporate needs to take a long and hard look at this particular location as it needs a lot of work on the outside as well as the inside everything from the facility itself all the way down to the employees More</t>
   </si>
   <si>
+    <t>Paige D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r537297828-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -366,6 +390,9 @@
     <t>This hotel was in a good location. Safe to park. The elevator was a little murdery but other than that, all good. (We did not get murdered so that's good.) good location as well. Only thing is our TV didn't work, but not a big deal. More</t>
   </si>
   <si>
+    <t>CRavi_Seyyone</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r536398824-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -390,6 +417,9 @@
     <t>Its an average hotel, smelling bad.not  worth trying if you are a business traveller.only advantage is that it is close to LA airport, LAX.poor breakfast. you are offered only bagels and donuts and oats. nothing else. unfriendly staff.More</t>
   </si>
   <si>
+    <t>Bennett T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r530347814-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -414,6 +444,9 @@
     <t>Needs a make over, place is tired looking and dull, dark, old.Service though is great and people are warmth and helpful. location is easily accessible they can have add on service i.e. shuttle for extra. At least its a personal service.They should right and then advise clients via email once online booking has been confirmed.More</t>
   </si>
   <si>
+    <t>Kelly A</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r528186442-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -441,6 +474,9 @@
     <t>Look, this isn't a 5 star hotel BUT for a night, it's not bad. The place is pretty clean and comfortable and offers a basic, but free, breakfast. For one night and to be close to the airport, this place is alright, and cheap!More</t>
   </si>
   <si>
+    <t>AlainDonato</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r509060158-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -459,6 +495,9 @@
     <t>August 2017</t>
   </si>
   <si>
+    <t>Jeffsreview</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r490222474-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -480,6 +519,9 @@
     <t>This place is set in a dodgy part of town and its a very old run down hotel and its terrible.Reception are locked in behind what looks like a bullet proof screen and have to allow you access to check in, which give you an idea of the dodgy area.  The lifts and walkways leading to the rooms were filthy and stunk of cigarette smoke and there were butts lying all over.The rooms were very old,dated and poorly fitted out with a poor quality bed and pillows. The rooms smelt musty and unsafe and the locks on the door were tampered with and didn't work properly.we couldn't wait to check out the next morning.There is nothing like Best value as the name suggests, its a dodgy poor quality grossly overpriced hotel and I would avoid it at all costsMore</t>
   </si>
   <si>
+    <t>Sonyahackett</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r489970492-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -498,6 +540,9 @@
     <t>May 2017</t>
   </si>
   <si>
+    <t>delacruz920</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r488854161-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -513,6 +558,9 @@
     <t>The 24 hr service is good. The rooms are nice, a lot of parking spaces, perfect location and nice price. I found this hotel on an awsome deal, it really came out as it was offer in expidia.com. Thank You!</t>
   </si>
   <si>
+    <t>Alliecow</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r428582914-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -534,6 +582,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r425741786-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -549,6 +600,9 @@
     <t>Greate rooms with big TV, fridge,micro++, but its a lot of noise from the street outside. Absolutly no isolation in the windows made IT really noisy. Location is pretty good. Near the airport lax.....</t>
   </si>
   <si>
+    <t>DallasSetser</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r424867437-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -567,6 +621,9 @@
     <t>September 2016</t>
   </si>
   <si>
+    <t>susannorby</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r420390201-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -586,6 +643,9 @@
   </si>
   <si>
     <t>We my family and I stayed 2 times at this hotel. First when we arrived in Los Angeles and again 3 weeks later after a roadtrip.The hotelstaff was really friendly and the receptionist who checked us in the second time remembered us form 3 weeks ago. So nice.The rooms were ok roomy and the bed were nice, but there was a lot of noise from the street also at night.The breakfast was no good, they served doghnuts, but there were also coffee, tea and juice. The hotel is located in a mexican area, which at first seemed scary, but after walking around in the area, we found it to be ok.For the value, it is a nice hotel.More</t>
+  </si>
+  <si>
+    <t>Lashalle W</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r416077306-LAX_Stadium_Inn-Inglewood_California.html</t>
@@ -608,6 +668,9 @@
 I was VERY dissatisfied with my stay at this hotel. Where do I begin with the Numerous things that went wrong with my stay. First the Elevator was out of order my whole stay so I had to drag my luggage up two flights of stairs. I was put in a room that was next to the stair so ALL NIGHT I heard the door/gate slam close with every customer. The bathroom had a very bad odor coming from it so I had to keep that door close at all times. Next my sheet was dirty and when I ask Saturday Morning for house Keeping to CHANGE my Sheets (fresh sheets and did ask)  and to give me fresh towels. (Don't think that's asking to much). I get back to my room I did have fresh towels &amp; my bed was made BUT with the same sheets. I called the front desk to address this matter. The front desk personal tells me that, the house Keeper took the key and can't get me a clean sheet till later and even then no one will be able to make my bed back up because they Don't Know How, which was very disappointing. So the sheet sat On my desk is my room because I was too tired...I stayed at the Best Value Inn Hotel during Labor Day weekend ( Sept 2-4, 2016) for Cali Jam 2016, a Line Dance Conference. I was VERY dissatisfied with my stay at this hotel. Where do I begin with the Numerous things that went wrong with my stay. First the Elevator was out of order my whole stay so I had to drag my luggage up two flights of stairs. I was put in a room that was next to the stair so ALL NIGHT I heard the door/gate slam close with every customer. The bathroom had a very bad odor coming from it so I had to keep that door close at all times. Next my sheet was dirty and when I ask Saturday Morning for house Keeping to CHANGE my Sheets (fresh sheets and did ask)  and to give me fresh towels. (Don't think that's asking to much). I get back to my room I did have fresh towels &amp; my bed was made BUT with the same sheets. I called the front desk to address this matter. The front desk personal tells me that, the house Keeper took the key and can't get me a clean sheet till later and even then no one will be able to make my bed back up because they Don't Know How, which was very disappointing. So the sheet sat On my desk is my room because I was too tired coming from a dance conference &amp; walking up stair twice a day to change the sheet. There were many flaws with hotel from the no parking  down to the 3 Item Continental breakfast that I couldn't take to my room. So NO I would NOT stay here again. LaShalle WileyMore</t>
   </si>
   <si>
+    <t>Martin G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r410380402-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -629,6 +692,9 @@
     <t>This hotel was awful. First it looks like a prison. I should have guessed the problems when we found the lift our pf order meaning we had to lug all our cases up 4 flights of stairs and found half way up the stairs there was an extremely heavy gauge metal door protecting from non-guests. However the door was never locked so anyone has unrestricted access. We woke at 2.30 to the sound of noises on the corridor outside the room and didn't get much sleep after that. I'm unfamiliar with LA but the area where the hotel located didn't look very niceThe room was ok but not much better. It smelled of disinfectant or heavy cleaner. The furniture is old and some pieces are dirty. The bathroom is ok but the shower was low and only fit for someone less than 4 foot tall (it could not be altered) The breakfast was awful with  stewed coffee and stale croissants. The only positive were the really pleasant staff. More</t>
   </si>
   <si>
+    <t>Cooqei J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r399838175-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -650,6 +716,9 @@
     <t>I missed my final flight out to my destination due to some renovation going on and a forever immigration thing. I was keeping myself cool off to my situation that I have to stay a night and catch the early flight  the following day. I finally decide to check in just at least I would have a break and take a beauty rest, I chose this because it's somehow closest to the airport, budget wise and so far my room was very comfy not until I tried to go out to buy something to eat around 10 in the evening. Head back to the main door and my card key wasn't working (same at the first place upon my entry to the establishment ) I ask for the receptionist assistance and she told me that she's going to operate it by their main system. I just wonder why isn't working even in my room. Turn out to feel creepy around and I felt really scared and anxious. I know this is old but at least make everyone feel at home and safe. Overall experience was totally even more distressing.More</t>
   </si>
   <si>
+    <t>Timothy M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r396880715-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -668,6 +737,9 @@
     <t>This is a hotel which is part of the "travellers in distress" scheme - where a flight has been delayed etc. etc. and in this case I was on a flight from Chicago to Auckland via LAX.  My 1st flight was 3 hours late arriving so I had to be rebooked onto the next flight to Auckland - 24 hours later.With a heavy heart, and at 1am, I arrived at the hotel, after a somewhat difficult taxi ride - recommendation - DO use Uber for this.The receptionist was absolutely brilliant, friendly, and even though I was completely knackered, took care of me.My room was basic but very functional and with a good working shower.  The AC unit was  a bit noisy, but within the context of an emergency hotel - was OK.Location is very close to Lax - 10 min Uber ride, and there are 2 good very Mexican local cafes/bistro within 30 seconds walk for a great authentic Spanish breakfast!I wouldn't want to stay there for a holiday, but in transit, it's affordable and close by.More</t>
   </si>
   <si>
+    <t>digdeep0169</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r395139919-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -683,6 +755,9 @@
     <t>this was our staycay last year near Manhattan Beach, CA.  it's average, but staff aren't very friendly.  I can't speak too highly of this place other than, it's inexpensive and close to Sepulveda Blvd. (LAX)</t>
   </si>
   <si>
+    <t>Yanik R</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r384668128-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -701,6 +776,9 @@
     <t>June 2016</t>
   </si>
   <si>
+    <t>Chris e</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r383443736-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -716,6 +794,9 @@
     <t>Good location and very close if your flying out of LAX or in between flights just to rest and relax or just too tired to drive. The staff on night shift was very professional and friendly. Made sure that we were comfortable and checked on us if we needed anything during our stay.</t>
   </si>
   <si>
+    <t>ky331</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r381584776-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -731,6 +812,9 @@
     <t>The hotel is very comfortable and I am very satisfied, the bed is large and comfortable, although the hotel near the road, but the inside of the rooms in the hotel, quiet and rest is very good, the bathroom dry wet depart, easy to use. Convenient parking lot, hotel staff friendly, varieties rich breakfast, eat well. Tourism as the first time to come to the United States, I have a question to ask staff, they are very patient to help me, especially my English is not very good, I feel very happy. This brand of hotel leave deep impression to me, I will check in after opportunity.</t>
   </si>
   <si>
+    <t>rdwlcw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r369114681-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -749,6 +833,9 @@
     <t>April 2016</t>
   </si>
   <si>
+    <t>Alan K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r368822327-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -767,6 +854,9 @@
     <t>You get what you pay for here, if your looking for frills and "Sheraton" style operation, this won't be for you. Booked into it for 4 nights and found the Staff very helpful, and polite. Ideal for short journey to the Airport, but the area isn't a place where you would take a holiday, so if you're looking for a place with a nightlife and decent restaurants, it's not going to work, although you can drive south to Long Beach and your about a 40 minute drive to Hollywood. I think the Hotel needs a bit of an upgrade as it's a little bit "tired" but the room was clean and tidy. If I was being a bit picky, I would say it's noisy with traffic but then again, it is Los Angeles!!More</t>
   </si>
   <si>
+    <t>Suzie1319</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r368204458-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -783,6 +873,9 @@
   </si>
   <si>
     <t>February 2016</t>
+  </si>
+  <si>
+    <t>Samantha  R</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r349117916-LAX_Stadium_Inn-Inglewood_California.html</t>
@@ -811,6 +904,9 @@
 	My last note was that our keycard...We stayed one night here, mostly because of the convenient location and price – we were spending the day in LA and when daylight started to get away from us. This place wasn’t too far and the price was extremely appealing. The front desk agent was very sweet, friendly even though she seemed a bit frazzled. Unfortunately unprofessional though – she announced our room number aloud (a pet peeve of mine as a hospitality student), but the lobby was empty.	The room itself was fine, a little worn, needed a few updates, but it was clean. The bed was a very welcome sight, and I had no complaints about the cleanliness of it. (Though the pillows could’ve been better - that’s what I get for not traveling with mine.)	The bathroom wasn’t spectacular, that’s where the need for updates was most obvious. When I attempted to take a shower, I could not get any hot water. Though my partner was when it was their turn. So maybe it takes a while to warm up, or maybe I was just too sleepy to properly operate a shower. Which is a distinct possibility, since the sink faucet was able to get hot water just fine. 	Noise level was what you’d expect, thinner walls means you can hear every conversation in the hallway, but the traffic noise wasn’t too bad for being close to the airport. 	My last note was that our keycard seemed a little faulty. Sometimes it worked, other times the door wouldn’t even register it. Since there was two of us it was a little inconvenient but doable to work around, especially for just one night. One person would just have to stay in the room while the other stepped out. 	Overall I was pretty happy with it for the price. Under 100 in a very convenient part of town. There were obviously a couple of complaints, but for what I needed – a clean bed to recover from hours and hours of jet lag – it was just what I was looking for.More</t>
   </si>
   <si>
+    <t>Hélvio Roberto N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r348969751-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -826,6 +922,9 @@
     <t>Good bed, free parking, good wifi. Nothing fancy. You get what You pay for. I really appreciate. The breakfasts wasn't good, only coffee, juice and junk food, no eggs, no brads, no fruits, no milk.. only donuts.</t>
   </si>
   <si>
+    <t>imspgl</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r347265075-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -844,6 +943,9 @@
     <t>It was on a Thursday that I had to catch a 6am flight from the Los Angeles International Airport, after returning the rental car at an off-airport lot and allowing for time to ride the shuttle. Working backwards I figured I'd better check out no later than 4am. The ABVI El Segundo met my needs, being 10 minutes away from LAX. The neighborhood was not bad and the room was quiet and spotlessly clean. There are ample covered parking slots in the well-lit courtyard. In-room amenities included free WiFi, flat-screen TV, fridge and microwave - which all worked well. Nice reception staff. The only disadvantage was the scarcity of restaurants in the vicinity.More</t>
   </si>
   <si>
+    <t>Lisa M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r341261044-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -865,6 +967,9 @@
     <t>We had been waiting for our plane to take off since 3pm...it was now 9pm and the flight was cancelled due to weather.  No luggage, no cab fare and no complimentary hotel.  ABVI is part of a program with AA that provides discounted rates for those stranded at the airport.  We got a room right away, the gentleman at the hotel was super nice and professional on the phone, greeted us most cordially when we arrived, arranged for a pickup the next morning, called us in our room to confirm this pick up, and even told us where we could easily walk to get a bite to eat.  He was great and made up for everything!More</t>
   </si>
   <si>
+    <t>bdpatel1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r333059411-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -883,6 +988,9 @@
     <t>December 2015</t>
   </si>
   <si>
+    <t>N P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r332131090-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -898,6 +1006,9 @@
     <t>My family and I stayed here about a week ago for the weekend.  Overall had a great experience.  The staff at the front desk were very pleasant and helpful.  The rooms are HUGE and super clean.  We had the maids clean the rooms everyday which was nice because it was done before we got back to the rooms.  The breakfast every morning was delicious.  The donuts were fabulous!  I would recommend this hotel to anyone in the area!  We flew out of LAX and I arrived at the airport in less than 15 minutes!  Overall it was a fabulous stay :)</t>
   </si>
   <si>
+    <t>ryanmck_06</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r321642656-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -913,6 +1024,9 @@
     <t>The hotel was amazing, everything about it was top class! The people that ran it where so friendly and helpful and went out of there way for us! I would definetly go back! And i plan too! The rooms were amazing and the best was a cloud! The shower was great! I have no complaints at all! Great car parking! Great location! Great big rooms!</t>
   </si>
   <si>
+    <t>ConorShivers</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r321124852-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -928,6 +1042,9 @@
     <t xml:space="preserve">Fantastic and friendly staff. 5 minutes from LAX. Lovely big rooms and the restrooms where fantastic. I will be staying here again on my next visit to LA. The area is nice and it is a 2 minute walk to down town towards the stores and other locations. I have recommend this hotel to all my friends </t>
   </si>
   <si>
+    <t>Sfericwaves</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r309045525-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -946,6 +1063,9 @@
     <t>May 2015</t>
   </si>
   <si>
+    <t>mario p</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r294895436-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -964,6 +1084,9 @@
     <t>July 2015</t>
   </si>
   <si>
+    <t>Karine C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r286144172-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -982,6 +1105,9 @@
     <t>June 2015</t>
   </si>
   <si>
+    <t>anchordiva</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r284349989-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1000,6 +1126,9 @@
     <t>I went to this hotel upon the recommendation of the travellers aid desk in LAX.  I'm very glad I did.  The price was significantly lower than chain hotels in the airport area, and the service was friendly and even a bit homey.  The room was freshly painted with new carpet and fixtures.  It was topnotch.  As I had a very early start to my day (following my timely wake-up call and the on-time taxi they'd arranged for me), I couldn't stay for the continental breakfast.  But based on my other experiences there, I'd guess it would have been a nice way to begin my day.  I was completely satisfied with my stay, and it's now my destination of choice when I need to overnight in LA to continue my travel from overseas to the US East Coast.  I recommend it without reservation to other travellers through LAX.More</t>
   </si>
   <si>
+    <t>Joe G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r277218129-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1015,6 +1144,9 @@
     <t>Stayed as "distressed passenger" after missing connection at LAX. O.K. for that but a bit far from LAX. Clean. Nice staff. "Continental" breakfast was juice, coffee and donuts. It is not in the garden spot of LA.</t>
   </si>
   <si>
+    <t>Frequentflyer122</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r268296809-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1033,6 +1165,9 @@
     <t>September 2014</t>
   </si>
   <si>
+    <t>398Jan</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r268284605-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1049,6 +1184,9 @@
   </si>
   <si>
     <t>The hotel needs some renovations but the rooms are spacy and clean. There is a parking that seems to be safe, we felt safe in the area.When picking up the rental car at LAX it took us a little more than five minutes to reach the hotel arriving there well after midnight. We had a quick bite across the road before hopping in. Inglewood is not a posh area but conveniently in the centre and close to shopping centre westfield culver city. Enough restaurants in the neighborhood, try the Mongalian BBQ at less than a quarter mile distance. WIFI was up and ddown in the room.Continental breakfast is free. In short: value for moneyMore</t>
+  </si>
+  <si>
+    <t>Randy S</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r258231838-LAX_Stadium_Inn-Inglewood_California.html</t>
@@ -1080,6 +1218,9 @@
 It was very inexpensive,  I had a rate under $70 dollars, however there is no free shuttle.  It costs $15 per trip, per group which would put the rate at $100.  Coffee and juice were good.  The...I like to travel and look for the deals.  I have a CSI rule.  Was it Clean, Safe and Inexpensive. This place just feel short of the grade.It looks to have been a motel that was renovated.  Unfortunately the reno's were not of the highest quality.When I got to the hotel it was dated but the room was clean and the bed was fresh.  The bathroom had been updated on the cheap.  They have plastered in problems in the bathtub instead of replacing the tub surround.  The exhaust was disconnected and the switch to run it removed.  The metal towel rods were rusty.  They only gave us extra face clothes when we asked for hand towels. I got the impression they did not have hand towels.Was it safe.  A block away is a Holiday Inn and a Hampton Inn.  When I arrived I didn't get a safe feeling, but there were no problems.  I saw very few people on the street and the parking lot was well lit making it comfortable at night.  The parking lot was comprised mostly of rental cars.  There is a subway a couple of blocks away, but I would be nervous walking in the nighttime.It was very inexpensive,  I had a rate under $70 dollars, however there is no free shuttle.  It costs $15 per trip, per group which would put the rate at $100.  Coffee and juice were good.  The breakfast was day old "Randy's Donuts".  They were so good even as day olds I had to go and visit  the original .  (I used to bake donuts so I consider myself a Donut Connoisseur).The staff was wonderful and helpful.I would not stay there again unless I was renting a car and even then I would probably stay away from the airport.If this was helpful hit the helpful button.Thanks   RandyMy suggestions to this property would be to try and update the bathrooms and I would give this an average rating. Upgrade the Wifi, it was horrible.More</t>
   </si>
   <si>
+    <t>Ggtz1105</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r254951181-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1098,6 +1239,9 @@
     <t>February 2015</t>
   </si>
   <si>
+    <t>JeanBean88</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r254544626-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1116,6 +1260,9 @@
     <t>We are not fussy, we've been traveling and living in a van for months &amp; staying in basic motels every now and again for less a night than this place, so when we paid $75 for a non-smoking room here, we at least expected it to be clean and free of the smell of cigarettes. The room was very musty, there was a dirty rag left in the shower &amp; the sheets made us itchy, so we moved rooms, the next room's bathroom light didn't work &amp; the cable went in and out of static. Staff downstairs told us if we weren't happy to just get a refund and leave! We would have, but nothing nearby was available due to it being a public holiday. Only positive is that the wifi signal was good. Street out the front was very noisy, didn't get much sleep.More</t>
   </si>
   <si>
+    <t>Nickster551</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r251280555-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1134,6 +1281,9 @@
     <t>January 2015</t>
   </si>
   <si>
+    <t>AlejandroAGB</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r247423717-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1152,6 +1302,9 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>Elizalesz</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r246522060-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1170,6 +1323,9 @@
     <t>I received exceptional service during my stay at your hotel! I was especially impressed by the service of the shuttle drivers and the gentleman at the front desk as well. When I arrived late in LA airport on Christmas eve I didn't have a reservation, and your shuttle driver was very polite and helped me to get a room right away. Also, at the front desk I was helped further with directions I needed the next morning. The shuttle driver who took me to the train station was also very helpful! They say Los Angeles means city of angels and I found three of them at your establishment! Thank you for the wonderful service and I will certainly come again. I will also highly recommend you because of your exceptional service!More</t>
   </si>
   <si>
+    <t>anzianocaple</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r233153805-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1185,6 +1341,9 @@
     <t>Not the best neighborhood but we enjoyed the service and the rooms. Breakfast is just donuts and juice but it served its purpose. The rooms were great. Bed was a little hard but i didnt mind. Price was great.</t>
   </si>
   <si>
+    <t>mamafalau</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r232730933-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1200,6 +1359,9 @@
     <t>Clean, comfortable and close to the airport.  No problems arriving late after delayed flight, just what we needed for one night.  Donuts and muffins for breakfast not really my thing but overall good value.</t>
   </si>
   <si>
+    <t>790Vee</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r232622573-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1218,6 +1380,9 @@
     <t>October 2014</t>
   </si>
   <si>
+    <t>tpastar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r230625829-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1236,6 +1401,9 @@
     <t>Hotels in Los Angeles are more expensive than your average city. People tend to forget that when leaving reviews. For the price (around $70/night for a King, plus $50 refundable deposit for “potential damages”), this place is AMAZING. I recently moved to LA to begin graduate school, and finding an apartment took longer than I anticipated. I’ve hopped around different hotels in this price range, and none come close to this. It’s clean, it’s bright, it has hot AND cold water, it has A/C that is temperature controlled rather than a simple window unit. Trust me, this place is a winner. The front desk workers are SO kind (and they speak english!). I am so glad I found this place. Don’t waste your time with the independent weird-named motels and hotels in the surrounding area. It’s certainly not modern or decorated with flair, but man.. it’s clean, quiet, and safe. Well, the neighborhood is sketchy, but c’mon, it’s Inglewood. If you want a nicer area then drive north to Culver City.Amenities:- flat screen with tons of DirecTV channels- microwave- refridgerator- coffee pot- hair blowdryer- continental breakfast- desk in room- working WiFiMore</t>
   </si>
   <si>
+    <t>Timur_Rusia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r229986588-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1251,6 +1419,9 @@
     <t>Good hotel for the money you pay very recommended if you go to LA close to car rentals and the airport nice room although you can hear some noise coming from upstairs in general I recommend this hotek</t>
   </si>
   <si>
+    <t>Phillip H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r221334867-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1263,6 +1434,9 @@
     <t xml:space="preserve">Everything went great. The service was perfect, room was clean, and breakfast was delicious. At night we sat in our room and pondered the majestic beauty of the wallpaper. What wonderful mysteries hide inside the artwork? As the sun rose the following day, we wished our vacation didn't have to end. </t>
   </si>
   <si>
+    <t>Dave C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r218273493-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1281,6 +1455,9 @@
     <t>June 2014</t>
   </si>
   <si>
+    <t>Dan C</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r213701768-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1296,6 +1473,9 @@
     <t>I have reserved a night in this hotel and was a terrible experience. I have discovered a big cockroach on the wall and I couldn't kill it, because was so fast. It was hided behind the bed. What a disgusting experience. I could not sleep during the night, because it was there, behind the head board.</t>
   </si>
   <si>
+    <t>Mary T</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r213395392-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1314,6 +1494,9 @@
     <t>July 2014</t>
   </si>
   <si>
+    <t>Tracy Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r209738394-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1332,6 +1515,9 @@
     <t>April 2014</t>
   </si>
   <si>
+    <t>MrsRoro</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r209465167-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1350,6 +1536,9 @@
     <t>I found more good reviews than negative ones about this hotel. I was worried that it would be in a bad part of town. Although it wasn't a neighborhood I would live in, we didn't experience any problems or feel unsafe, no gunshots. We came to drop off a family member at the airport and only stayed the night. The hotel had great security, people can't go wondering into the hallways with out a key. The room was spacious, clean, flat screen TV with Direct Tv. Small little fridge but great for a few waterbottles. Microwave was clean. Bathroom was standard but clean. Bed was not the comfiest, pillows were flat but sheets were clean. I didnt like the view of our window which was into a neighborhood but then again I wasn't expecting an ocean view. The continental breakfast was ok, coffee and some donuts and muffins but that's not why I chose this hotel. The hotel was a non smoking hotel which was a plus for us. Overall it was a good room for the price and would stay again. More</t>
   </si>
   <si>
+    <t>Andy982</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r209126079-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1368,6 +1557,9 @@
     <t>We had a pleasant short 2 day stay here in transit on our way to other US cities. The location is just a short $20 cab ride from the airport and perfect if you are just in LA for a few days. The area looks a bit sketchy but we wandered around and had no dramas and never felt uncomfortable. The hotel itself was clean but somewhat dated but the bed was huge and comfortable and the room was fine. Just round the corner is a metro station and we took the light rail to Redondo Beach Pier and had a great night with lots of bars and restaurants though I would advise getting a cab back. The 3 latino girls we had dealings with on reception were friendly and helpful.In short, if you want 5 star accomodation  then pay for it but if you want good value for money and just a place to lay your head and have a shower then this place is perfect. I recommend it.More</t>
   </si>
   <si>
+    <t>Nha B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r203322641-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1383,6 +1575,9 @@
     <t xml:space="preserve">Fee for everything. Book a 2 bedroom max of 4 peoples. However $10 fee for after 2 person. Third person $10 fee. Hours extension $25 fee. service such, rude, not a recommended place to stay. It's a sound proof room. You can heard car running on the street.  People step outside and floor on top of you. . . </t>
   </si>
   <si>
+    <t>Upen S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r203160334-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1401,6 +1596,9 @@
     <t>I was in their for one night booked 1 room 2 queen beds for 3 adults. Front desk person charged $10 more for third person saying room is just for 2 persons where as booking says max occupancy 4. I had an argument but finally they hold $10 from security deposit. Once I enter room bed sheets were burnt and looks like cigarette marks where I was in non smoking room.In breakfast they had only cheap donuts. No milk, no bread  and no cereals and front desk lady said very rudely that they will not provide all those stuff. I was shocked since it was very common to expect break and milk when there is a breakfast facility. Overall I will recommend not to stay in this place. This is good for hourly customers and for pigs...More</t>
   </si>
   <si>
+    <t>Cameron P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r203121885-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1413,6 +1611,9 @@
     <t>The majority of existing reviews are accurate.  Motel is free of bugs and has decent beds/pillows.  Breakfast is fairly minimal - donuts.  McDonalds down the street (2 block walk) Rooms are quite spacious.  Parking is secure, management keeps an eye out for trespassers (good thing).  I would not necessarily walk around the neighborhood in the evening.Internet was decent.  I got a good nights sleep. If you are a light sleeper just crank the room a/c, fan and you will be fine. Basic, no frills motel for very reasonable fee.  There is a $50 deposit upfront.  I would likely return.</t>
   </si>
   <si>
+    <t>MarciaAK</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r198695913-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1434,6 +1635,9 @@
     <t>We arrived at LAX at 11:45pm and were heading to the desert the next day.  ABVI was $60, close to LAX and had free parking and internet.  Don't count on much for breakfast, coffee and donuts.  The room had some upgrades, like new counters in the bathroom, but the king bed had major sags on both sides with a lump in the middle.  At first I thought it was two twins pushed together but it wasn't.  The room had a coffee maker and refrigerator, which was nice, though we had to go to the office to get some packets of coffee.  In a similar situation I would stay there again.  I'd tried to get a Priceline room for cheap, but it was the middle of spring break, and I couldn't find a decently priced room.More</t>
   </si>
   <si>
+    <t>nataliachar</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r198683312-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1446,6 +1650,9 @@
     <t>Very nice place, very clean, the distric is nice, close to LAX, easy to reach, close to Hawthorne blv with a lot of supermarkets and restorants! Everything you might need is just around the corner!Staff is helpful and nice, they  offer a small breakfast with super tasty doughnuts:)</t>
   </si>
   <si>
+    <t>Assadullah K</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r198054762-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1464,6 +1671,9 @@
     <t>February 2014</t>
   </si>
   <si>
+    <t>Payton D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r195620368-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1479,6 +1689,9 @@
     <t>Room was clean, sheets were fine, bed was comfortable enough.   It was loud for street noise and I was on the top floor.  But didn't bother me too much.  I like noise - really do.   I used to live in NYC.   Overall was better than other options that cost as much or more.</t>
   </si>
   <si>
+    <t>mindela62</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r191918841-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1495,6 +1708,9 @@
   </si>
   <si>
     <t>January 2014</t>
+  </si>
+  <si>
+    <t>CityGirlLovesTravel</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r190503764-LAX_Stadium_Inn-Inglewood_California.html</t>
@@ -1521,6 +1737,9 @@
 Which brings me to the neighborhood: I'm not a fearful person, I've lived in cities my whole life, so I thought the neighborhood was perfectly safe for my purposes. I wouldn't have been out walking at night, but then I'm generally not cavalier about such things anywhere I'm new and unfamiliar with. I never felt unsafe, not...I had an early morning flight out of LAX so I decided stay someplace nearby the night before. Americas Best Value Inn was, by far, the cheapest hotel in the area that had good reviews.The good: big room, clean, great wi-fi (free and fast!), comfy bed, fridge and microwave (great for the leftovers I brought back to the room and reheated for an evening snack), safe and free parking, courteous staff, 2.5 miles from the airport, and big bonus: the room did not smell like a room that used to be a smoking room that had been repurposed into a non-smoking room.The bad: paper thin walls - I could hear the guy in the next room snoring all night long (if you are a light sleeper, bring earplugs), street noise - it is Imperial Hwy in Hawthorne so there are sirens and traffic most of the time and the rooms face the street. Well, and there was that early evening 'event' of some sort at the carniceria across the street that entailed 8 cop cars, 2 fire trucks and a stretcher!Which brings me to the neighborhood: I'm not a fearful person, I've lived in cities my whole life, so I thought the neighborhood was perfectly safe for my purposes. I wouldn't have been out walking at night, but then I'm generally not cavalier about such things anywhere I'm new and unfamiliar with. I never felt unsafe, not even when I lugged my suitcase to my car at 3:30 am.More</t>
   </si>
   <si>
+    <t>kimo55bhv</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r184920889-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1539,6 +1758,9 @@
     <t>November 2013</t>
   </si>
   <si>
+    <t>Rhyano</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r181837983-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1554,6 +1776,9 @@
     <t>I had to fly out the next morning so wanted to be close to the airport. But I also didn't want to pay for a room with all the bells and whistles like I was staying at a five star resort. So Americas Best Value Inn is just that: the Best Value. I had a good, clean, restful stay and made it to the airport with plenty of time.</t>
   </si>
   <si>
+    <t>Deborah M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r177844879-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1567,6 +1792,9 @@
   </si>
   <si>
     <t xml:space="preserve">Good stay. Large rooms. Good parking. Good location. Average breakfest. Good stay. Large rooms. Good parking. Good location. Average breakfest. Good stay. Large rooms. Good parking. Good location. Average breakfest. Good stay. Large rooms. Good parking. Good location. Average breakfest. Good stay. Large rooms. Good parking. Good location. Average breakfest. </t>
+  </si>
+  <si>
+    <t>jinbay932</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r168121607-LAX_Stadium_Inn-Inglewood_California.html</t>
@@ -1592,6 +1820,9 @@
 Check-in, behind security glass, does not add to confidence about safety, but having just returned from three months in South America, it didn't bother me. The neigborhood is typical of most of LA. Might not choose to live there but for two or three nights, it's fine! But you do need a car. NO bus/taxi service in evidence. We walked 75 minutes to the rent a car agency, since we thought a bus might come along..and didn't want to bother the front to call a taxi..next time, I will "CALL A TAXI". The hallway is perhaps a bit scary for some, but the room is GREAT.."standard American", superior quality, 2 large double beds, similar to many Hiltons. We really enjoyed the donut/pastry breakfast, which you don't get in other countries, but don't expect eggs and bacon, since you're not paying for them. The staff was...No shuttle service..We paid $19 one way from LAX..if the driver thinks you don't know the way, he might charge much more..even with an accurate map and his GPS, he asked me several times if this was the right direction/location..There's some confusion about the address..some maps say El Segundo..some say Inglewood..but it may actually be in Hawthorne..The hotel's naming also adds to this confusion. Having lived in LA for several years, I know this often happens. In LA county, many city boundaries run down the middle of the street and even run through property lines!Check-in, behind security glass, does not add to confidence about safety, but having just returned from three months in South America, it didn't bother me. The neigborhood is typical of most of LA. Might not choose to live there but for two or three nights, it's fine! But you do need a car. NO bus/taxi service in evidence. We walked 75 minutes to the rent a car agency, since we thought a bus might come along..and didn't want to bother the front to call a taxi..next time, I will "CALL A TAXI". The hallway is perhaps a bit scary for some, but the room is GREAT.."standard American", superior quality, 2 large double beds, similar to many Hiltons. We really enjoyed the donut/pastry breakfast, which you don't get in other countries, but don't expect eggs and bacon, since you're not paying for them. The staff was very friendly and helpful. They charge a ridiculous $5 per hour for the computer, but I just used it for 15 minutes, so they gladly waived the fee. That would NEVER happen at a Hilton! Parking very easy and appears safe! Very easy access to freeway to go to downtown LA/all tourist attractions. Americans might not like the location, but foreigners will appreciate it, if they have a car! I would stay there again! Good VALUE for money!More</t>
   </si>
   <si>
+    <t>paul_ryan_9</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r167115849-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1610,6 +1841,9 @@
     <t>July 2013</t>
   </si>
   <si>
+    <t>Cheryl N</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r166988957-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1625,6 +1859,9 @@
     <t>Great rooms, comfortable bed, not so hot on the breakfast.  Good location near a good Mexican restaurant and almost any store you would need.  Friendly staff.  Close enough to beaches and the airport.  Stayed before our return flight and was very pleased with the room.  They even have a working ice machine and donuts at night :o)</t>
   </si>
   <si>
+    <t>Sandro O</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r164493283-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1643,6 +1880,9 @@
     <t>May 2013</t>
   </si>
   <si>
+    <t>Immy D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r163886394-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1658,6 +1898,9 @@
     <t>For $59, I wasn't expecting much. But ABVI&amp;S really surprised me. The staff were very helpful. I had just come from NY where I paid $450 a night to live in a room the size of a show box - to my delight the rooms here were huge! I was only in the room for the night (quick stayover between airport and LA), but the The king size bed was heaven and the Digital TV was ample with channel options. Would recommend this in a heartbeat!</t>
   </si>
   <si>
+    <t>Kapil S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r163092735-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1676,6 +1919,9 @@
     <t>You should look at staying here only if you're looking for a budget hotel near LAX. I would personally advise spending a few more dollars and stay elsewhere. A few pros and cons:Cons:1) Bed was terrible. We could feel the mattress springs when sleeping and it was not pleasant2) The sofa in the room had a black grease like layer from use. I assume it must be decades old.3) The chair in the room, had a spring that poked you in the bottom4) The wallpaper was peeling and furniture paint was also peeling off from places5) 'Continental breakfast' was a joke really. There were donuts, coffee and juice. Usually, even the cheapest hotels provide cereal and milk.6) Room was noisy as it's next to a road with traffic.Pros:1) Parking was free and easily available inside the compound2) Proximity to LAX3) TV with DirecTV and lots of channels.It's definitely a no-frills hotel, but honestly, I have stayed in better no-frills hotels. As I said, if you're on a budget then you can ignore a lot of things mentioned here but if not, spend 10-15 dollars more per night and look for some other places nearby. I would definitely do that.More</t>
   </si>
   <si>
+    <t>Gerson F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r160280724-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1694,6 +1940,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>Larry and Jan M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r159085629-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1712,6 +1961,9 @@
     <t>April 2013</t>
   </si>
   <si>
+    <t>Xiang Z</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r158531663-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1727,6 +1979,9 @@
     <t>For the low price, the room is satisfactory. Convenient access to LAX through Metro. 99c store, McDonald, KFC &amp; Tarco Bell, Subway, restaurants are easy to find. Walk less than 10 min to reach Metro Horthorne station to go to LAX or transfer to downtown  LA.</t>
   </si>
   <si>
+    <t>shar h</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r155027508-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1745,6 +2000,9 @@
     <t>February 2013</t>
   </si>
   <si>
+    <t>O P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r153409402-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1758,6 +2016,9 @@
   </si>
   <si>
     <t>The rooms are clean &amp; well maintained.  Great bargain for the price.  Lower rates are available from its web site than walk-in.  Breakfast in included &amp; consists of donuts, muffins, coffee &amp; couple of juices.  One improvement they need is to soundproof the windows because most rooms face a busy road.</t>
+  </si>
+  <si>
+    <t>KiwisInTransit</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r148640915-LAX_Stadium_Inn-Inglewood_California.html</t>
@@ -1789,6 +2050,9 @@
 Other TripAdvisor comments about the $50 deposit for 'incidentals' seems appropriate for this type of hotel, and is the same process used by larger hotels that place a 'bond' on a credit card. The check-in time of 2pm is rigidly enforced, so be prepared to wait...We stayed one night after arriving in Los Angeles for an extended stay in Anaheim and Hollywood. The hotel's exterior belies the standard of the room. The welcome wasn't the friendliest and the location, while close to LAX, is not a district we would choose to stay in for more than one night. That said, the room was clean, spacious, and of a good standard even compared to other, higher priced, hotels. The rooms are not well sound proofed, and we heard the guests on the upper floor walking around. The towels were small and thin, but okay for a one-time use. The free wifi was occasional and intermittent at best. We would rather pay to have a more reliable service. We did not try the breakfast, as the room had a fridge, microwave, and coffee maker (although no cutlery or plates). We had a room on the roadside; however, we didn't find it particularly noisy.There are a couple of fast food restaurants located within 100 yards. We would recommend the El Pollo Loco - the food was fresh and tasty and excellent value for money, compared to the MacDonald's across the road.Other TripAdvisor comments about the $50 deposit for 'incidentals' seems appropriate for this type of hotel, and is the same process used by larger hotels that place a 'bond' on a credit card. The check-in time of 2pm is rigidly enforced, so be prepared to wait if you arrive early. Although check-out is 11am, we were called at 10.40am to confirm if we were checking out or wanted to book another night, so timing seems important to the hotel's management. All in all, for the price we paid ($50 per night, booked directly via the chain's website), we found the hotel good value for a one night stay, because of the spacious and clean room.More</t>
   </si>
   <si>
+    <t>DrStuo</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r144562621-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1810,6 +2074,9 @@
     <t>Was delayed at LAX and all the better hotels at the airport were booked. We got the last room at this place. Large room with a very large bed and a huge TV and a jacuzzi tub in the room. Small table with two chairs and one other chair next to the bed. Obviously not set up to host a Super Bowl party. NOT cheap at $125 for the two of us but they had us over a barrel and the airline will be paying. "Continental" breakfast was donuts from the famous Randy's Donuts, coffee and OJ from a machine. The bed was comfy if you like a very firm mattress and very spacious. The towels, soap and shampoo were pathetic. The air conditioner worked well.More</t>
   </si>
   <si>
+    <t>birch_abedul</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r143483884-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1828,6 +2095,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>PajamaParty</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r139178234-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1849,6 +2119,9 @@
     <t>This hotel is very conveniently located near the airport, which was a bonus since my mom and I had an early morning flight to catch. The service was excellent and the staff were warm and welcoming. The room was fully equipped with a microwave and fridge. The sleep quality was the best we had on our trip and made us feel right at home. The beds were "super-size-me" big and comfortable enough to put me to sleep as soon as my head hit the pillow. Even my mother, who has trouble falling asleep so far from home surprisingly fell asleep rather easily. The breakfast was yummy! They had freshly baked donuts, muffins, pastries, and of course coffee and juice. It was the perfect start to our morning. Although it was sometimes a pain to be buzzed in each time you wanted to get up to the room, it was a safety precaution and we were very grateful for that. My mom and I are really glad we chose this hotel to stay at and will definitely be staying here again.More</t>
   </si>
   <si>
+    <t>Toni W</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r128192616-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1870,6 +2143,9 @@
     <t>This America's Best Value Inn does not have the same quality of free breakfast as the one in Vista, CA does at all. The breakfast is a pastry in a package. (One of those Costco kind you buyin bulk) Coffee is lousy! (That's the breakfast period) We had to run to Carl's Junior to geta breakfast sandwich and good coffee! Microwave plugged in but did not work so could notmicrowave our popcorn I brought 2 packets of as a snack the night  before. Windows do not openand are shut..........maybe someone tried to jump out the window? Also you have to be buzzedin and out of the building each time you come &amp; go which gets annoying! Room was musty andthe furniture OLD looking. NOT fresh &amp; modern like the one in Vista at all and not a suite!(Just one room) Would not go there again............I am not hard to please.............went to the onein Vista twice now and will be going to the one in Vista again. Oh and the gal at the front deskwas kind of rude to my husband &amp; told him he could not carry his cup of coffee up to our roomand although two of us were registered he was only allowed one free cup of coffee!More</t>
   </si>
   <si>
+    <t>laurenpq</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r121441530-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1891,6 +2167,9 @@
     <t>Do not get scared because on the outside it looks like a jail! The rooms are clean, housekeeping service every day, staff is very responsive, kind and polite. The king bed is huge and so comfortable. I stayed 7 nights for 312 dollars!On the negative things: internet does not quite work. But the front desk can help you set up your computer to get online. Do not try to wake up early to catch breakfast because you will be dissapointed.  But if you are already up, and wanna have something basic to start off your day, they do offer that. Coffee or tea, juice and something to eat with that.Decent place, for people on a budget. Definitely going back.More</t>
   </si>
   <si>
+    <t>The_Froggy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r121258531-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1909,6 +2188,9 @@
     <t>Stayed after our flight from the UK and prior to our flight back to the UK, it's about 3 miles from the airport and is a great place to chill after a flight or a long drive, don't be fooled by the looks on the outside the rooms are very good, the beds are comfy and there is free WiFi and a complementary breakfast is included, it's only a danish and coffee, tea or juice buts thats fine for me, staff are very friendly and next time I go to LA, I will stay in this hotel again, the only downside there is a bit of road noise, it is a bit and didn't cause us to lose any sleepMore</t>
   </si>
   <si>
+    <t>josie93Newcastle</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r116181270-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1930,6 +2212,9 @@
     <t>Stayed here for one night after flight from UK. Close to airport so very useful. They send a taxi to the airport but you have to ring and it costs 10 dollars ( this wasn't clear from website information) It isn't pretty on the outside, the immediate area isn't particulary pretty either and I wouldn't wanted to have stayed any longer- but at less than £50 for a double room it was useful as we didn't fancy the journey on to Hollywood after such a long flight. The room was vert clean and confrtable. Breakfast is just a small packaged danish pastry and juice/coffee from the machine- but at the price it is certainly better than UK where you wouldn't get breakfast at all.Receptionist was very helpful.More</t>
   </si>
   <si>
+    <t>slsonya</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r116001096-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1945,6 +2230,9 @@
     <t>Nice Hotel for the money, rooms were clean and comfortable customer service was ok.the hallways seemed kind of weird though. Neighborhood seemed ok although we really didn't  go anywhere other than straight on and off the freeway to and from the beach overall nice hotel  clean comfortable place to sleep</t>
   </si>
   <si>
+    <t>IndianTripper</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r115363265-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1963,6 +2251,9 @@
     <t>The hotel is not at all as advertized. The so called free WiFi is extra super slow. Any site other than Google takes at least 5 minutes to open. The continental breakfast only had a backed thin crust doughnut packed in plastic which does not look at all healthy to eat. Carpet was not clean, however the beds were comfortable. One of my friend stayed in "Royal Century Hotel" in the same locality which was much better for the same price that I paid for "Americas Best Value Inn and Suites - LAX/El Segundo". Bottom line, do not opt for this hotel as there are lot better hotels in same neighborhood for the same or lesser price.More</t>
   </si>
   <si>
+    <t>Kat1086</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r73317311-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1981,6 +2272,9 @@
     <t>July 2010</t>
   </si>
   <si>
+    <t>kthompson56</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r73233612-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -1993,6 +2287,9 @@
     <t>We missed a connection at LAX and found ourselves stranded in LA. American Airlines tried to find us a "distressed traveller" rate but everyone was full. We ended up here. It ain't the Hilton, but the room was clean and newly redecorated. Everything in the room worked, the staff couldn't have been more helpful and friendly. Room was spacious and clean. Minutes from LAX. Free wifi too!</t>
   </si>
   <si>
+    <t>Squeeeeeed</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r64439285-LAX_Stadium_Inn-Inglewood_California.html</t>
   </si>
   <si>
@@ -2009,6 +2306,9 @@
   </si>
   <si>
     <t>April 2010</t>
+  </si>
+  <si>
+    <t>KL_Sue</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r17482214-LAX_Stadium_Inn-Inglewood_California.html</t>
@@ -2038,6 +2338,9 @@
 The hot water boiler was broken when we checked in, and when we also found that there was no free shuttle (despite clear reference to one on Expedia when we booked) we asked for a discount to compensate for the fact that we would have to pay $38 for round trip cab fare. The owner said it was tough and would not accept that it was his responsibility to get the facts corrected. Eventually he "compromised" by giving us our money back (at 10.30 pm in Inglewood when we had no transport!) but to be fair he did book us into Microtel down the road and give us a ride there (Microtel was OK but only has a limited free shuttle at set times)
 Therefore we cannot comment on the rooms and cleanliness etc -but service is seriously flawed
 Overall the guys are trying hrad but not yet hard enough. If you can stretch your budget go to a $110-120 place with a free...As the previous reviewer stated this place does have new owners and they appear to understand that improvements are needed and they have started, but they still have a LONG way to go and there customer focus was just not where it should be.First and foremost this place no longer has a free shuttle to LAX. Therefore considering the $20 one way charge for a cab - consider a better place with a free shuttle. The hot water boiler was broken when we checked in, and when we also found that there was no free shuttle (despite clear reference to one on Expedia when we booked) we asked for a discount to compensate for the fact that we would have to pay $38 for round trip cab fare. The owner said it was tough and would not accept that it was his responsibility to get the facts corrected. Eventually he "compromised" by giving us our money back (at 10.30 pm in Inglewood when we had no transport!) but to be fair he did book us into Microtel down the road and give us a ride there (Microtel was OK but only has a limited free shuttle at set times)Therefore we cannot comment on the rooms and cleanliness etc -but service is seriously flawedOverall the guys are trying hrad but not yet hard enough. If you can stretch your budget go to a $110-120 place with a free shuttle.More</t>
+  </si>
+  <si>
+    <t>Valynstorm</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g32525-d225799-r14894057-LAX_Stadium_Inn-Inglewood_California.html</t>
@@ -2560,43 +2863,47 @@
       <c r="A2" t="n">
         <v>42464</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>50028</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>1</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2612,56 +2919,60 @@
         <v>0</v>
       </c>
       <c r="W2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="X2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="Y2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>42464</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>149963</v>
+      </c>
+      <c r="C3" t="s">
+        <v>58</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="M3" t="n">
         <v>2</v>
       </c>
       <c r="N3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2673,56 +2984,60 @@
         <v>0</v>
       </c>
       <c r="W3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="X3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="Y3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>42464</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>108004</v>
+      </c>
+      <c r="C4" t="s">
+        <v>69</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K4" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M4" t="n">
         <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="O4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P4" t="n">
         <v>5</v>
@@ -2740,56 +3055,60 @@
         <v>0</v>
       </c>
       <c r="W4" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="Y4" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>42464</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>149964</v>
+      </c>
+      <c r="C5" t="s">
+        <v>79</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="K5" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="L5" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="O5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P5" t="n">
         <v>3</v>
@@ -2805,56 +3124,60 @@
         <v>0</v>
       </c>
       <c r="W5" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="X5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Y5" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>42464</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>149965</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" t="s">
+        <v>91</v>
+      </c>
+      <c r="J6" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
         <v>85</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>86</v>
-      </c>
-      <c r="J6" t="s">
-        <v>87</v>
-      </c>
-      <c r="K6" t="s">
-        <v>88</v>
-      </c>
-      <c r="L6" t="s">
-        <v>89</v>
-      </c>
-      <c r="M6" t="n">
-        <v>4</v>
-      </c>
-      <c r="N6" t="s">
-        <v>81</v>
-      </c>
       <c r="O6" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P6" t="n">
         <v>5</v>
@@ -2876,56 +3199,60 @@
         <v>0</v>
       </c>
       <c r="W6" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X6" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y6" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>42464</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>149966</v>
+      </c>
+      <c r="C7" t="s">
+        <v>98</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="J7" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="K7" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="L7" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M7" t="n">
         <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="O7" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2937,56 +3264,60 @@
         <v>0</v>
       </c>
       <c r="W7" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X7" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="Y7" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>42464</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>149967</v>
+      </c>
+      <c r="C8" t="s">
+        <v>106</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>101</v>
+        <v>108</v>
       </c>
       <c r="J8" t="s">
-        <v>102</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>104</v>
+        <v>111</v>
       </c>
       <c r="M8" t="n">
         <v>1</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O8" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P8" t="n">
         <v>1</v>
@@ -3008,56 +3339,60 @@
         <v>0</v>
       </c>
       <c r="W8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X8" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y8" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>42464</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>149968</v>
+      </c>
+      <c r="C9" t="s">
+        <v>117</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>110</v>
+        <v>118</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="J9" t="s">
+        <v>120</v>
+      </c>
+      <c r="K9" t="s">
+        <v>121</v>
+      </c>
+      <c r="L9" t="s">
+        <v>122</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
         <v>112</v>
       </c>
-      <c r="K9" t="s">
-        <v>113</v>
-      </c>
-      <c r="L9" t="s">
-        <v>114</v>
-      </c>
-      <c r="M9" t="n">
-        <v>4</v>
-      </c>
-      <c r="N9" t="s">
-        <v>105</v>
-      </c>
       <c r="O9" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3069,56 +3404,60 @@
         <v>0</v>
       </c>
       <c r="W9" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="X9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="Y9" t="s">
-        <v>115</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>42464</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>149969</v>
+      </c>
+      <c r="C10" t="s">
+        <v>124</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="J10" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="K10" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="L10" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
       <c r="M10" t="n">
         <v>3</v>
       </c>
       <c r="N10" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
@@ -3134,56 +3473,60 @@
         <v>0</v>
       </c>
       <c r="W10" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="X10" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="Y10" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>42464</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>149970</v>
+      </c>
+      <c r="C11" t="s">
+        <v>133</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="J11" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="K11" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="L11" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>112</v>
       </c>
       <c r="O11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -3205,56 +3548,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="X11" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="Y11" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>42464</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>15166</v>
+      </c>
+      <c r="C12" t="s">
+        <v>142</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>143</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>133</v>
+        <v>144</v>
       </c>
       <c r="J12" t="s">
-        <v>134</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s">
-        <v>135</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s">
-        <v>136</v>
+        <v>147</v>
       </c>
       <c r="M12" t="n">
         <v>3</v>
       </c>
       <c r="N12" t="s">
-        <v>137</v>
+        <v>148</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -3272,56 +3619,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>138</v>
+        <v>149</v>
       </c>
       <c r="X12" t="s">
-        <v>139</v>
+        <v>150</v>
       </c>
       <c r="Y12" t="s">
-        <v>140</v>
+        <v>151</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>42464</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>149971</v>
+      </c>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="J13" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="K13" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="L13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="M13" t="n">
         <v>1</v>
       </c>
       <c r="N13" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="O13" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
@@ -3335,50 +3686,54 @@
       <c r="W13" t="s"/>
       <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>42464</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>149972</v>
+      </c>
+      <c r="C14" t="s">
+        <v>159</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>148</v>
+        <v>161</v>
       </c>
       <c r="J14" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="K14" t="s">
-        <v>150</v>
+        <v>163</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="M14" t="n">
         <v>1</v>
       </c>
       <c r="N14" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="O14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3396,50 +3751,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>153</v>
+        <v>166</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>42464</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>149973</v>
+      </c>
+      <c r="C15" t="s">
+        <v>167</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>154</v>
+        <v>168</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>155</v>
+        <v>169</v>
       </c>
       <c r="J15" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="K15" t="s">
-        <v>157</v>
+        <v>171</v>
       </c>
       <c r="L15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="O15" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3453,50 +3812,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>158</v>
+        <v>172</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>42464</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>149974</v>
+      </c>
+      <c r="C16" t="s">
+        <v>174</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>160</v>
+        <v>175</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>161</v>
+        <v>176</v>
       </c>
       <c r="J16" t="s">
-        <v>162</v>
+        <v>177</v>
       </c>
       <c r="K16" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="L16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>159</v>
+        <v>173</v>
       </c>
       <c r="O16" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3510,50 +3873,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>164</v>
+        <v>179</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>42464</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>149975</v>
+      </c>
+      <c r="C17" t="s">
+        <v>180</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>165</v>
+        <v>181</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>167</v>
+        <v>183</v>
       </c>
       <c r="K17" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="L17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="M17" t="n">
         <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O17" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="n">
@@ -3573,50 +3940,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>42464</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>7</v>
+      </c>
+      <c r="C18" t="s">
+        <v>188</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="J18" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="K18" t="s">
-        <v>175</v>
+        <v>192</v>
       </c>
       <c r="L18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="M18" t="n">
         <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>170</v>
+        <v>186</v>
       </c>
       <c r="O18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3630,50 +4001,54 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>42464</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>17125</v>
+      </c>
+      <c r="C19" t="s">
+        <v>194</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="J19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
       <c r="L19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="O19" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="s"/>
@@ -3691,50 +4066,54 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>42464</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>149976</v>
+      </c>
+      <c r="C20" t="s">
+        <v>201</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="J20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="K20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="L20" t="s">
+        <v>206</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>207</v>
+      </c>
+      <c r="O20" t="s">
         <v>187</v>
-      </c>
-      <c r="M20" t="n">
-        <v>3</v>
-      </c>
-      <c r="N20" t="s">
-        <v>188</v>
-      </c>
-      <c r="O20" t="s">
-        <v>171</v>
       </c>
       <c r="P20" t="s"/>
       <c r="Q20" t="n">
@@ -3754,50 +4133,54 @@
       <c r="W20" t="s"/>
       <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>42464</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>149977</v>
+      </c>
+      <c r="C21" t="s">
+        <v>209</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="M21" t="n">
         <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="O21" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3811,50 +4194,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>42464</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>37413</v>
+      </c>
+      <c r="C22" t="s">
+        <v>216</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>196</v>
+        <v>217</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>197</v>
+        <v>218</v>
       </c>
       <c r="J22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="K22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="L22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="M22" t="n">
         <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
@@ -3868,50 +4255,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>42464</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>149978</v>
+      </c>
+      <c r="C23" t="s">
+        <v>224</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>203</v>
+        <v>225</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>204</v>
+        <v>226</v>
       </c>
       <c r="J23" t="s">
-        <v>205</v>
+        <v>227</v>
       </c>
       <c r="K23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="L23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="O23" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
@@ -3925,50 +4316,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>42464</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>41264</v>
+      </c>
+      <c r="C24" t="s">
+        <v>232</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>210</v>
+        <v>233</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>211</v>
+        <v>234</v>
       </c>
       <c r="J24" t="s">
-        <v>212</v>
+        <v>235</v>
       </c>
       <c r="K24" t="s">
-        <v>213</v>
+        <v>236</v>
       </c>
       <c r="L24" t="s">
-        <v>214</v>
+        <v>237</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>152</v>
+        <v>165</v>
       </c>
       <c r="O24" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
@@ -3986,41 +4381,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>215</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>42464</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>149979</v>
+      </c>
+      <c r="C25" t="s">
+        <v>239</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>216</v>
+        <v>240</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>217</v>
+        <v>241</v>
       </c>
       <c r="J25" t="s">
-        <v>218</v>
+        <v>242</v>
       </c>
       <c r="K25" t="s">
-        <v>219</v>
+        <v>243</v>
       </c>
       <c r="L25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
@@ -4039,50 +4438,54 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>220</v>
+        <v>244</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>42464</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>149980</v>
+      </c>
+      <c r="C26" t="s">
+        <v>245</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F26" t="s">
-        <v>221</v>
+        <v>246</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I26" t="s">
-        <v>222</v>
+        <v>247</v>
       </c>
       <c r="J26" t="s">
-        <v>223</v>
+        <v>248</v>
       </c>
       <c r="K26" t="s">
-        <v>224</v>
+        <v>249</v>
       </c>
       <c r="L26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="O26" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="s"/>
@@ -4096,50 +4499,54 @@
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>225</v>
+        <v>250</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>42464</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>149981</v>
+      </c>
+      <c r="C27" t="s">
+        <v>252</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F27" t="s">
-        <v>227</v>
+        <v>253</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I27" t="s">
-        <v>228</v>
+        <v>254</v>
       </c>
       <c r="J27" t="s">
-        <v>229</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s">
-        <v>230</v>
+        <v>256</v>
       </c>
       <c r="L27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>226</v>
+        <v>251</v>
       </c>
       <c r="O27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P27" t="n">
         <v>4</v>
@@ -4159,50 +4566,54 @@
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>231</v>
+        <v>257</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>42464</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>149982</v>
+      </c>
+      <c r="C28" t="s">
+        <v>258</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F28" t="s">
-        <v>232</v>
+        <v>259</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I28" t="s">
-        <v>233</v>
+        <v>260</v>
       </c>
       <c r="J28" t="s">
-        <v>234</v>
+        <v>261</v>
       </c>
       <c r="K28" t="s">
-        <v>235</v>
+        <v>262</v>
       </c>
       <c r="L28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
       <c r="M28" t="n">
         <v>5</v>
       </c>
       <c r="N28" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="O28" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P28" t="n">
         <v>5</v>
@@ -4222,50 +4633,54 @@
       <c r="W28" t="s"/>
       <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>236</v>
+        <v>263</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>42464</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>149983</v>
+      </c>
+      <c r="C29" t="s">
+        <v>264</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F29" t="s">
-        <v>237</v>
+        <v>265</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I29" t="s">
-        <v>238</v>
+        <v>266</v>
       </c>
       <c r="J29" t="s">
-        <v>239</v>
+        <v>267</v>
       </c>
       <c r="K29" t="s">
-        <v>240</v>
+        <v>268</v>
       </c>
       <c r="L29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="O29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4285,50 +4700,54 @@
       <c r="W29" t="s"/>
       <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>241</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>42464</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>41174</v>
+      </c>
+      <c r="C30" t="s">
+        <v>271</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F30" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I30" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="J30" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="K30" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="L30" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="M30" t="n">
         <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>242</v>
+        <v>270</v>
       </c>
       <c r="O30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4342,50 +4761,54 @@
       <c r="W30" t="s"/>
       <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>42464</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>149984</v>
+      </c>
+      <c r="C31" t="s">
+        <v>278</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F31" t="s">
-        <v>249</v>
+        <v>279</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I31" t="s">
-        <v>250</v>
+        <v>280</v>
       </c>
       <c r="J31" t="s">
-        <v>251</v>
+        <v>281</v>
       </c>
       <c r="K31" t="s">
-        <v>252</v>
+        <v>282</v>
       </c>
       <c r="L31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
       <c r="M31" t="n">
         <v>3</v>
       </c>
       <c r="N31" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="O31" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -4403,50 +4826,54 @@
       <c r="W31" t="s"/>
       <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>253</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>42464</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>149985</v>
+      </c>
+      <c r="C32" t="s">
+        <v>285</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F32" t="s">
-        <v>255</v>
+        <v>286</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I32" t="s">
-        <v>256</v>
+        <v>287</v>
       </c>
       <c r="J32" t="s">
-        <v>257</v>
+        <v>288</v>
       </c>
       <c r="K32" t="s">
-        <v>258</v>
+        <v>289</v>
       </c>
       <c r="L32" t="s">
-        <v>259</v>
+        <v>290</v>
       </c>
       <c r="M32" t="n">
         <v>3</v>
       </c>
       <c r="N32" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="O32" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P32" t="n">
         <v>5</v>
@@ -4464,50 +4891,54 @@
       <c r="W32" t="s"/>
       <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>260</v>
+        <v>291</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>42464</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>149986</v>
+      </c>
+      <c r="C33" t="s">
+        <v>292</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F33" t="s">
-        <v>261</v>
+        <v>293</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I33" t="s">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="J33" t="s">
-        <v>263</v>
+        <v>295</v>
       </c>
       <c r="K33" t="s">
-        <v>264</v>
+        <v>296</v>
       </c>
       <c r="L33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="O33" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4525,50 +4956,54 @@
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>265</v>
+        <v>297</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>42464</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>149987</v>
+      </c>
+      <c r="C34" t="s">
+        <v>298</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F34" t="s">
-        <v>266</v>
+        <v>299</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I34" t="s">
-        <v>267</v>
+        <v>300</v>
       </c>
       <c r="J34" t="s">
-        <v>268</v>
+        <v>301</v>
       </c>
       <c r="K34" t="s">
-        <v>269</v>
+        <v>302</v>
       </c>
       <c r="L34" t="s">
-        <v>270</v>
+        <v>303</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>254</v>
+        <v>284</v>
       </c>
       <c r="O34" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
@@ -4588,50 +5023,54 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>271</v>
+        <v>304</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>42464</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>1912</v>
+      </c>
+      <c r="C35" t="s">
+        <v>305</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F35" t="s">
-        <v>272</v>
+        <v>306</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I35" t="s">
-        <v>273</v>
+        <v>307</v>
       </c>
       <c r="J35" t="s">
-        <v>274</v>
+        <v>308</v>
       </c>
       <c r="K35" t="s">
-        <v>275</v>
+        <v>309</v>
       </c>
       <c r="L35" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>277</v>
+        <v>311</v>
       </c>
       <c r="O35" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P35" t="n">
         <v>4</v>
@@ -4651,50 +5090,54 @@
       <c r="W35" t="s"/>
       <c r="X35" t="s"/>
       <c r="Y35" t="s">
-        <v>278</v>
+        <v>312</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>42464</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>149988</v>
+      </c>
+      <c r="C36" t="s">
+        <v>313</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F36" t="s">
-        <v>279</v>
+        <v>314</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I36" t="s">
-        <v>280</v>
+        <v>315</v>
       </c>
       <c r="J36" t="s">
-        <v>281</v>
+        <v>316</v>
       </c>
       <c r="K36" t="s">
-        <v>282</v>
+        <v>317</v>
       </c>
       <c r="L36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
       <c r="M36" t="n">
         <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="O36" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4708,50 +5151,54 @@
       <c r="W36" t="s"/>
       <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>283</v>
+        <v>318</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>42464</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>41297</v>
+      </c>
+      <c r="C37" t="s">
+        <v>320</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F37" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I37" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="J37" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="K37" t="s">
-        <v>288</v>
+        <v>324</v>
       </c>
       <c r="L37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
       <c r="M37" t="n">
         <v>5</v>
       </c>
       <c r="N37" t="s">
-        <v>284</v>
+        <v>319</v>
       </c>
       <c r="O37" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P37" t="n">
         <v>5</v>
@@ -4771,50 +5218,54 @@
       <c r="W37" t="s"/>
       <c r="X37" t="s"/>
       <c r="Y37" t="s">
-        <v>289</v>
+        <v>325</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>42464</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>149989</v>
+      </c>
+      <c r="C38" t="s">
+        <v>326</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F38" t="s">
-        <v>290</v>
+        <v>327</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I38" t="s">
-        <v>291</v>
+        <v>328</v>
       </c>
       <c r="J38" t="s">
-        <v>292</v>
+        <v>329</v>
       </c>
       <c r="K38" t="s">
-        <v>293</v>
+        <v>330</v>
       </c>
       <c r="L38" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
       <c r="M38" t="n">
         <v>5</v>
       </c>
       <c r="N38" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="O38" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P38" t="s"/>
       <c r="Q38" t="s"/>
@@ -4828,50 +5279,54 @@
       <c r="W38" t="s"/>
       <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>294</v>
+        <v>331</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>42464</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>149990</v>
+      </c>
+      <c r="C39" t="s">
+        <v>332</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F39" t="s">
-        <v>295</v>
+        <v>333</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I39" t="s">
-        <v>296</v>
+        <v>334</v>
       </c>
       <c r="J39" t="s">
-        <v>297</v>
+        <v>335</v>
       </c>
       <c r="K39" t="s">
-        <v>298</v>
+        <v>336</v>
       </c>
       <c r="L39" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
       <c r="M39" t="n">
         <v>5</v>
       </c>
       <c r="N39" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="O39" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P39" t="s"/>
       <c r="Q39" t="s"/>
@@ -4885,50 +5340,54 @@
       <c r="W39" t="s"/>
       <c r="X39" t="s"/>
       <c r="Y39" t="s">
-        <v>299</v>
+        <v>337</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>42464</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>149991</v>
+      </c>
+      <c r="C40" t="s">
+        <v>338</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F40" t="s">
-        <v>300</v>
+        <v>339</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I40" t="s">
-        <v>301</v>
+        <v>340</v>
       </c>
       <c r="J40" t="s">
-        <v>302</v>
+        <v>341</v>
       </c>
       <c r="K40" t="s">
-        <v>303</v>
+        <v>342</v>
       </c>
       <c r="L40" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
       <c r="M40" t="n">
         <v>1</v>
       </c>
       <c r="N40" t="s">
-        <v>305</v>
+        <v>344</v>
       </c>
       <c r="O40" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P40" t="n">
         <v>2</v>
@@ -4948,50 +5407,54 @@
       <c r="W40" t="s"/>
       <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>304</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>42464</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>149992</v>
+      </c>
+      <c r="C41" t="s">
+        <v>345</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s">
-        <v>306</v>
+        <v>346</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I41" t="s">
-        <v>307</v>
+        <v>347</v>
       </c>
       <c r="J41" t="s">
-        <v>308</v>
+        <v>348</v>
       </c>
       <c r="K41" t="s">
-        <v>309</v>
+        <v>349</v>
       </c>
       <c r="L41" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>311</v>
+        <v>351</v>
       </c>
       <c r="O41" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="s"/>
@@ -5005,50 +5468,54 @@
       <c r="W41" t="s"/>
       <c r="X41" t="s"/>
       <c r="Y41" t="s">
-        <v>310</v>
+        <v>350</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>42464</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>149993</v>
+      </c>
+      <c r="C42" t="s">
+        <v>352</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F42" t="s">
-        <v>312</v>
+        <v>353</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I42" t="s">
-        <v>313</v>
+        <v>354</v>
       </c>
       <c r="J42" t="s">
-        <v>314</v>
+        <v>355</v>
       </c>
       <c r="K42" t="s">
-        <v>315</v>
+        <v>356</v>
       </c>
       <c r="L42" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="O42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P42" t="s"/>
       <c r="Q42" t="s"/>
@@ -5066,50 +5533,54 @@
       <c r="W42" t="s"/>
       <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>316</v>
+        <v>357</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>42464</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>149994</v>
+      </c>
+      <c r="C43" t="s">
+        <v>359</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F43" t="s">
-        <v>318</v>
+        <v>360</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I43" t="s">
-        <v>319</v>
+        <v>361</v>
       </c>
       <c r="J43" t="s">
-        <v>320</v>
+        <v>362</v>
       </c>
       <c r="K43" t="s">
-        <v>321</v>
+        <v>363</v>
       </c>
       <c r="L43" t="s">
-        <v>322</v>
+        <v>364</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="O43" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P43" t="s"/>
       <c r="Q43" t="s"/>
@@ -5129,50 +5600,54 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>323</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>42464</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>6736</v>
+      </c>
+      <c r="C44" t="s">
+        <v>366</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F44" t="s">
-        <v>324</v>
+        <v>367</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I44" t="s">
-        <v>325</v>
+        <v>368</v>
       </c>
       <c r="J44" t="s">
-        <v>326</v>
+        <v>369</v>
       </c>
       <c r="K44" t="s">
-        <v>327</v>
+        <v>370</v>
       </c>
       <c r="L44" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
       <c r="M44" t="n">
         <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>317</v>
+        <v>358</v>
       </c>
       <c r="O44" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P44" t="n">
         <v>4</v>
@@ -5192,50 +5667,54 @@
       <c r="W44" t="s"/>
       <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>328</v>
+        <v>371</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>42464</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>149995</v>
+      </c>
+      <c r="C45" t="s">
+        <v>372</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F45" t="s">
-        <v>329</v>
+        <v>373</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I45" t="s">
-        <v>330</v>
+        <v>374</v>
       </c>
       <c r="J45" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="K45" t="s">
-        <v>332</v>
+        <v>376</v>
       </c>
       <c r="L45" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
       <c r="M45" t="n">
         <v>1</v>
       </c>
       <c r="N45" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="O45" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P45" t="s"/>
       <c r="Q45" t="s"/>
@@ -5249,50 +5728,54 @@
       <c r="W45" t="s"/>
       <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>333</v>
+        <v>377</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>42464</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>149996</v>
+      </c>
+      <c r="C46" t="s">
+        <v>379</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F46" t="s">
-        <v>335</v>
+        <v>380</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I46" t="s">
-        <v>336</v>
+        <v>381</v>
       </c>
       <c r="J46" t="s">
-        <v>331</v>
+        <v>375</v>
       </c>
       <c r="K46" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="L46" t="s">
-        <v>338</v>
+        <v>383</v>
       </c>
       <c r="M46" t="n">
         <v>3</v>
       </c>
       <c r="N46" t="s">
-        <v>339</v>
+        <v>384</v>
       </c>
       <c r="O46" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5312,50 +5795,54 @@
       <c r="W46" t="s"/>
       <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>340</v>
+        <v>385</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>42464</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>8024</v>
+      </c>
+      <c r="C47" t="s">
+        <v>386</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F47" t="s">
-        <v>341</v>
+        <v>387</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I47" t="s">
-        <v>342</v>
+        <v>388</v>
       </c>
       <c r="J47" t="s">
-        <v>343</v>
+        <v>389</v>
       </c>
       <c r="K47" t="s">
-        <v>344</v>
+        <v>390</v>
       </c>
       <c r="L47" t="s">
-        <v>345</v>
+        <v>391</v>
       </c>
       <c r="M47" t="n">
         <v>3</v>
       </c>
       <c r="N47" t="s">
-        <v>346</v>
+        <v>392</v>
       </c>
       <c r="O47" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P47" t="n">
         <v>3</v>
@@ -5375,50 +5862,54 @@
       <c r="W47" t="s"/>
       <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>347</v>
+        <v>393</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>42464</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>149997</v>
+      </c>
+      <c r="C48" t="s">
+        <v>394</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F48" t="s">
-        <v>348</v>
+        <v>395</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I48" t="s">
-        <v>349</v>
+        <v>396</v>
       </c>
       <c r="J48" t="s">
-        <v>350</v>
+        <v>397</v>
       </c>
       <c r="K48" t="s">
-        <v>351</v>
+        <v>398</v>
       </c>
       <c r="L48" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>353</v>
+        <v>400</v>
       </c>
       <c r="O48" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P48" t="s"/>
       <c r="Q48" t="n">
@@ -5436,41 +5927,45 @@
       <c r="W48" t="s"/>
       <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>352</v>
+        <v>399</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>42464</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>103498</v>
+      </c>
+      <c r="C49" t="s">
+        <v>401</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" t="s">
-        <v>354</v>
+        <v>402</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I49" t="s">
-        <v>355</v>
+        <v>403</v>
       </c>
       <c r="J49" t="s">
-        <v>356</v>
+        <v>404</v>
       </c>
       <c r="K49" t="s">
-        <v>357</v>
+        <v>405</v>
       </c>
       <c r="L49" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
       <c r="M49" t="n">
         <v>1</v>
@@ -5493,50 +5988,54 @@
       <c r="W49" t="s"/>
       <c r="X49" t="s"/>
       <c r="Y49" t="s">
-        <v>359</v>
+        <v>407</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>42464</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>149998</v>
+      </c>
+      <c r="C50" t="s">
+        <v>408</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F50" t="s">
-        <v>360</v>
+        <v>409</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I50" t="s">
-        <v>361</v>
+        <v>410</v>
       </c>
       <c r="J50" t="s">
-        <v>362</v>
+        <v>411</v>
       </c>
       <c r="K50" t="s">
-        <v>363</v>
+        <v>412</v>
       </c>
       <c r="L50" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
       </c>
       <c r="N50" t="s">
-        <v>365</v>
+        <v>414</v>
       </c>
       <c r="O50" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P50" t="s"/>
       <c r="Q50" t="s"/>
@@ -5556,50 +6055,54 @@
       <c r="W50" t="s"/>
       <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>364</v>
+        <v>413</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>42464</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>149999</v>
+      </c>
+      <c r="C51" t="s">
+        <v>415</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F51" t="s">
-        <v>366</v>
+        <v>416</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I51" t="s">
-        <v>367</v>
+        <v>417</v>
       </c>
       <c r="J51" t="s">
-        <v>368</v>
+        <v>418</v>
       </c>
       <c r="K51" t="s">
-        <v>369</v>
+        <v>419</v>
       </c>
       <c r="L51" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>371</v>
+        <v>421</v>
       </c>
       <c r="O51" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P51" t="n">
         <v>5</v>
@@ -5619,41 +6122,45 @@
       <c r="W51" t="s"/>
       <c r="X51" t="s"/>
       <c r="Y51" t="s">
-        <v>370</v>
+        <v>420</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>42464</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>150000</v>
+      </c>
+      <c r="C52" t="s">
+        <v>422</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F52" t="s">
-        <v>372</v>
+        <v>423</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I52" t="s">
-        <v>373</v>
+        <v>424</v>
       </c>
       <c r="J52" t="s">
-        <v>374</v>
+        <v>425</v>
       </c>
       <c r="K52" t="s">
-        <v>375</v>
+        <v>426</v>
       </c>
       <c r="L52" t="s">
-        <v>376</v>
+        <v>427</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
@@ -5682,41 +6189,45 @@
       <c r="W52" t="s"/>
       <c r="X52" t="s"/>
       <c r="Y52" t="s">
-        <v>377</v>
+        <v>428</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>42464</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>150001</v>
+      </c>
+      <c r="C53" t="s">
+        <v>429</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F53" t="s">
-        <v>378</v>
+        <v>430</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I53" t="s">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="J53" t="s">
-        <v>380</v>
+        <v>432</v>
       </c>
       <c r="K53" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="L53" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
       <c r="M53" t="n">
         <v>4</v>
@@ -5745,50 +6256,54 @@
       <c r="W53" t="s"/>
       <c r="X53" t="s"/>
       <c r="Y53" t="s">
-        <v>382</v>
+        <v>434</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>42464</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>150002</v>
+      </c>
+      <c r="C54" t="s">
+        <v>435</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F54" t="s">
-        <v>383</v>
+        <v>436</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I54" t="s">
-        <v>384</v>
+        <v>437</v>
       </c>
       <c r="J54" t="s">
-        <v>385</v>
+        <v>438</v>
       </c>
       <c r="K54" t="s">
-        <v>386</v>
+        <v>439</v>
       </c>
       <c r="L54" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="M54" t="n">
         <v>4</v>
       </c>
       <c r="N54" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="O54" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P54" t="s"/>
       <c r="Q54" t="s"/>
@@ -5806,50 +6321,54 @@
       <c r="W54" t="s"/>
       <c r="X54" t="s"/>
       <c r="Y54" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>42464</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>150003</v>
+      </c>
+      <c r="C55" t="s">
+        <v>441</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F55" t="s">
-        <v>388</v>
+        <v>442</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I55" t="s">
-        <v>389</v>
+        <v>443</v>
       </c>
       <c r="J55" t="s">
-        <v>390</v>
+        <v>444</v>
       </c>
       <c r="K55" t="s">
-        <v>391</v>
+        <v>445</v>
       </c>
       <c r="L55" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>393</v>
+        <v>447</v>
       </c>
       <c r="O55" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P55" t="n">
         <v>3</v>
@@ -5869,50 +6388,54 @@
       <c r="W55" t="s"/>
       <c r="X55" t="s"/>
       <c r="Y55" t="s">
-        <v>392</v>
+        <v>446</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>42464</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>150004</v>
+      </c>
+      <c r="C56" t="s">
+        <v>448</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F56" t="s">
-        <v>394</v>
+        <v>449</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I56" t="s">
-        <v>395</v>
+        <v>450</v>
       </c>
       <c r="J56" t="s">
-        <v>396</v>
+        <v>451</v>
       </c>
       <c r="K56" t="s">
-        <v>397</v>
+        <v>452</v>
       </c>
       <c r="L56" t="s">
-        <v>398</v>
+        <v>453</v>
       </c>
       <c r="M56" t="n">
         <v>5</v>
       </c>
       <c r="N56" t="s">
-        <v>334</v>
+        <v>378</v>
       </c>
       <c r="O56" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5930,41 +6453,45 @@
       <c r="W56" t="s"/>
       <c r="X56" t="s"/>
       <c r="Y56" t="s">
-        <v>399</v>
+        <v>454</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
         <v>42464</v>
       </c>
-      <c r="B57" t="s"/>
-      <c r="C57" t="s"/>
+      <c r="B57" t="n">
+        <v>150005</v>
+      </c>
+      <c r="C57" t="s">
+        <v>455</v>
+      </c>
       <c r="D57" t="n">
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F57" t="s">
-        <v>400</v>
+        <v>456</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I57" t="s">
-        <v>401</v>
+        <v>457</v>
       </c>
       <c r="J57" t="s">
-        <v>402</v>
+        <v>458</v>
       </c>
       <c r="K57" t="s">
-        <v>403</v>
+        <v>459</v>
       </c>
       <c r="L57" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
       <c r="M57" t="n">
         <v>4</v>
@@ -5993,41 +6520,45 @@
       <c r="W57" t="s"/>
       <c r="X57" t="s"/>
       <c r="Y57" t="s">
-        <v>404</v>
+        <v>460</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>42464</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>3771</v>
+      </c>
+      <c r="C58" t="s">
+        <v>461</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F58" t="s">
-        <v>405</v>
+        <v>462</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I58" t="s">
-        <v>406</v>
+        <v>463</v>
       </c>
       <c r="J58" t="s">
-        <v>407</v>
+        <v>464</v>
       </c>
       <c r="K58" t="s">
-        <v>381</v>
+        <v>433</v>
       </c>
       <c r="L58" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
       <c r="M58" t="n">
         <v>5</v>
@@ -6056,50 +6587,54 @@
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>408</v>
+        <v>465</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>42464</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>539</v>
+      </c>
+      <c r="C59" t="s">
+        <v>466</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F59" t="s">
-        <v>409</v>
+        <v>467</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I59" t="s">
-        <v>410</v>
+        <v>468</v>
       </c>
       <c r="J59" t="s">
-        <v>411</v>
+        <v>469</v>
       </c>
       <c r="K59" t="s">
-        <v>412</v>
+        <v>470</v>
       </c>
       <c r="L59" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
       <c r="M59" t="n">
         <v>4</v>
       </c>
       <c r="N59" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="O59" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P59" t="s"/>
       <c r="Q59" t="n">
@@ -6117,50 +6652,54 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>413</v>
+        <v>471</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>42464</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>3978</v>
+      </c>
+      <c r="C60" t="s">
+        <v>473</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F60" t="s">
-        <v>415</v>
+        <v>474</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I60" t="s">
-        <v>416</v>
+        <v>475</v>
       </c>
       <c r="J60" t="s">
-        <v>417</v>
+        <v>476</v>
       </c>
       <c r="K60" t="s">
-        <v>418</v>
+        <v>477</v>
       </c>
       <c r="L60" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
       <c r="M60" t="n">
         <v>1</v>
       </c>
       <c r="N60" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="O60" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P60" t="n">
         <v>1</v>
@@ -6184,50 +6723,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>419</v>
+        <v>478</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>42464</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>34943</v>
+      </c>
+      <c r="C61" t="s">
+        <v>479</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F61" t="s">
-        <v>420</v>
+        <v>480</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I61" t="s">
-        <v>421</v>
+        <v>481</v>
       </c>
       <c r="J61" t="s">
-        <v>422</v>
+        <v>482</v>
       </c>
       <c r="K61" t="s">
-        <v>423</v>
+        <v>483</v>
       </c>
       <c r="L61" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>425</v>
+        <v>485</v>
       </c>
       <c r="O61" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P61" t="n">
         <v>2</v>
@@ -6251,50 +6794,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>424</v>
+        <v>484</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>42464</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>150006</v>
+      </c>
+      <c r="C62" t="s">
+        <v>486</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F62" t="s">
-        <v>426</v>
+        <v>487</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I62" t="s">
-        <v>427</v>
+        <v>488</v>
       </c>
       <c r="J62" t="s">
-        <v>428</v>
+        <v>489</v>
       </c>
       <c r="K62" t="s">
-        <v>429</v>
+        <v>490</v>
       </c>
       <c r="L62" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
       <c r="M62" t="n">
         <v>4</v>
       </c>
       <c r="N62" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="O62" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P62" t="n">
         <v>4</v>
@@ -6318,50 +6865,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>430</v>
+        <v>491</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>42464</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>150007</v>
+      </c>
+      <c r="C63" t="s">
+        <v>493</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F63" t="s">
-        <v>432</v>
+        <v>494</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I63" t="s">
-        <v>433</v>
+        <v>495</v>
       </c>
       <c r="J63" t="s">
-        <v>434</v>
+        <v>496</v>
       </c>
       <c r="K63" t="s">
-        <v>435</v>
+        <v>497</v>
       </c>
       <c r="L63" t="s">
-        <v>436</v>
+        <v>498</v>
       </c>
       <c r="M63" t="n">
         <v>3</v>
       </c>
       <c r="N63" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="O63" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P63" t="s"/>
       <c r="Q63" t="s"/>
@@ -6375,50 +6926,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>437</v>
+        <v>499</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>42464</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>150008</v>
+      </c>
+      <c r="C64" t="s">
+        <v>500</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F64" t="s">
-        <v>438</v>
+        <v>501</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I64" t="s">
-        <v>439</v>
+        <v>502</v>
       </c>
       <c r="J64" t="s">
-        <v>440</v>
+        <v>503</v>
       </c>
       <c r="K64" t="s">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="L64" t="s">
-        <v>442</v>
+        <v>505</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>414</v>
+        <v>472</v>
       </c>
       <c r="O64" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P64" t="n">
         <v>5</v>
@@ -6442,41 +6997,45 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>443</v>
+        <v>506</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>42464</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>150009</v>
+      </c>
+      <c r="C65" t="s">
+        <v>507</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F65" t="s">
-        <v>444</v>
+        <v>508</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I65" t="s">
-        <v>445</v>
+        <v>509</v>
       </c>
       <c r="J65" t="s">
-        <v>446</v>
+        <v>510</v>
       </c>
       <c r="K65" t="s">
-        <v>447</v>
+        <v>511</v>
       </c>
       <c r="L65" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
       <c r="M65" t="n">
         <v>1</v>
@@ -6505,50 +7064,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>448</v>
+        <v>512</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>42464</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>150010</v>
+      </c>
+      <c r="C66" t="s">
+        <v>513</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F66" t="s">
-        <v>449</v>
+        <v>514</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I66" t="s">
-        <v>450</v>
+        <v>515</v>
       </c>
       <c r="J66" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="K66" t="s">
-        <v>452</v>
+        <v>517</v>
       </c>
       <c r="L66" t="s">
-        <v>453</v>
+        <v>518</v>
       </c>
       <c r="M66" t="n">
         <v>1</v>
       </c>
       <c r="N66" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="O66" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P66" t="n">
         <v>1</v>
@@ -6572,50 +7135,54 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>454</v>
+        <v>519</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>42464</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>150011</v>
+      </c>
+      <c r="C67" t="s">
+        <v>520</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F67" t="s">
-        <v>455</v>
+        <v>521</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I67" t="s">
-        <v>456</v>
+        <v>522</v>
       </c>
       <c r="J67" t="s">
-        <v>451</v>
+        <v>516</v>
       </c>
       <c r="K67" t="s">
-        <v>457</v>
+        <v>523</v>
       </c>
       <c r="L67" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
       <c r="M67" t="n">
         <v>3</v>
       </c>
       <c r="N67" t="s">
-        <v>431</v>
+        <v>492</v>
       </c>
       <c r="O67" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P67" t="n">
         <v>4</v>
@@ -6639,50 +7206,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>458</v>
+        <v>524</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>42464</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>150012</v>
+      </c>
+      <c r="C68" t="s">
+        <v>525</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F68" t="s">
-        <v>459</v>
+        <v>526</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I68" t="s">
-        <v>460</v>
+        <v>527</v>
       </c>
       <c r="J68" t="s">
-        <v>461</v>
+        <v>528</v>
       </c>
       <c r="K68" t="s">
-        <v>462</v>
+        <v>529</v>
       </c>
       <c r="L68" t="s">
-        <v>463</v>
+        <v>530</v>
       </c>
       <c r="M68" t="n">
         <v>3</v>
       </c>
       <c r="N68" t="s">
-        <v>464</v>
+        <v>531</v>
       </c>
       <c r="O68" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P68" t="n">
         <v>4</v>
@@ -6706,41 +7277,45 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>465</v>
+        <v>532</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>42464</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>150013</v>
+      </c>
+      <c r="C69" t="s">
+        <v>533</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F69" t="s">
-        <v>466</v>
+        <v>534</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I69" t="s">
-        <v>467</v>
+        <v>535</v>
       </c>
       <c r="J69" t="s">
-        <v>461</v>
+        <v>528</v>
       </c>
       <c r="K69" t="s">
-        <v>468</v>
+        <v>536</v>
       </c>
       <c r="L69" t="s">
-        <v>469</v>
+        <v>537</v>
       </c>
       <c r="M69" t="n">
         <v>5</v>
@@ -6769,50 +7344,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>469</v>
+        <v>537</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>42464</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>150014</v>
+      </c>
+      <c r="C70" t="s">
+        <v>538</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F70" t="s">
-        <v>470</v>
+        <v>539</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I70" t="s">
-        <v>471</v>
+        <v>540</v>
       </c>
       <c r="J70" t="s">
-        <v>472</v>
+        <v>541</v>
       </c>
       <c r="K70" t="s">
-        <v>473</v>
+        <v>542</v>
       </c>
       <c r="L70" t="s">
-        <v>474</v>
+        <v>543</v>
       </c>
       <c r="M70" t="n">
         <v>3</v>
       </c>
       <c r="N70" t="s">
-        <v>475</v>
+        <v>544</v>
       </c>
       <c r="O70" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P70" t="n">
         <v>3</v>
@@ -6836,50 +7415,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>474</v>
+        <v>543</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>42464</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>150015</v>
+      </c>
+      <c r="C71" t="s">
+        <v>545</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F71" t="s">
-        <v>476</v>
+        <v>546</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I71" t="s">
-        <v>477</v>
+        <v>547</v>
       </c>
       <c r="J71" t="s">
-        <v>478</v>
+        <v>548</v>
       </c>
       <c r="K71" t="s">
-        <v>479</v>
+        <v>549</v>
       </c>
       <c r="L71" t="s">
-        <v>480</v>
+        <v>550</v>
       </c>
       <c r="M71" t="n">
         <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>475</v>
+        <v>544</v>
       </c>
       <c r="O71" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6903,50 +7486,54 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>480</v>
+        <v>550</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>42464</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>150016</v>
+      </c>
+      <c r="C72" t="s">
+        <v>551</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F72" t="s">
-        <v>481</v>
+        <v>552</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I72" t="s">
-        <v>482</v>
+        <v>553</v>
       </c>
       <c r="J72" t="s">
-        <v>483</v>
+        <v>554</v>
       </c>
       <c r="K72" t="s">
-        <v>484</v>
+        <v>555</v>
       </c>
       <c r="L72" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
       </c>
       <c r="N72" t="s">
-        <v>486</v>
+        <v>557</v>
       </c>
       <c r="O72" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P72" t="n">
         <v>5</v>
@@ -6970,50 +7557,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>485</v>
+        <v>556</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>42464</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>150017</v>
+      </c>
+      <c r="C73" t="s">
+        <v>558</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F73" t="s">
-        <v>487</v>
+        <v>559</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I73" t="s">
-        <v>488</v>
+        <v>560</v>
       </c>
       <c r="J73" t="s">
-        <v>489</v>
+        <v>561</v>
       </c>
       <c r="K73" t="s">
-        <v>490</v>
+        <v>562</v>
       </c>
       <c r="L73" t="s">
-        <v>491</v>
+        <v>563</v>
       </c>
       <c r="M73" t="n">
         <v>4</v>
       </c>
       <c r="N73" t="s">
-        <v>486</v>
+        <v>557</v>
       </c>
       <c r="O73" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P73" t="n">
         <v>5</v>
@@ -7037,50 +7628,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>492</v>
+        <v>564</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>42464</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>150018</v>
+      </c>
+      <c r="C74" t="s">
+        <v>565</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F74" t="s">
-        <v>493</v>
+        <v>566</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I74" t="s">
-        <v>494</v>
+        <v>567</v>
       </c>
       <c r="J74" t="s">
-        <v>495</v>
+        <v>568</v>
       </c>
       <c r="K74" t="s">
-        <v>496</v>
+        <v>569</v>
       </c>
       <c r="L74" t="s">
-        <v>497</v>
+        <v>570</v>
       </c>
       <c r="M74" t="n">
         <v>3</v>
       </c>
       <c r="N74" t="s">
-        <v>498</v>
+        <v>571</v>
       </c>
       <c r="O74" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P74" t="n">
         <v>3</v>
@@ -7104,41 +7699,45 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>497</v>
+        <v>570</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>42464</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>150019</v>
+      </c>
+      <c r="C75" t="s">
+        <v>572</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F75" t="s">
-        <v>499</v>
+        <v>573</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I75" t="s">
-        <v>500</v>
+        <v>574</v>
       </c>
       <c r="J75" t="s">
-        <v>501</v>
+        <v>575</v>
       </c>
       <c r="K75" t="s">
-        <v>502</v>
+        <v>576</v>
       </c>
       <c r="L75" t="s">
-        <v>503</v>
+        <v>577</v>
       </c>
       <c r="M75" t="n">
         <v>4</v>
@@ -7167,41 +7766,45 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>503</v>
+        <v>577</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>42464</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>9167</v>
+      </c>
+      <c r="C76" t="s">
+        <v>578</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F76" t="s">
-        <v>504</v>
+        <v>579</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I76" t="s">
-        <v>505</v>
+        <v>580</v>
       </c>
       <c r="J76" t="s">
-        <v>506</v>
+        <v>581</v>
       </c>
       <c r="K76" t="s">
-        <v>507</v>
+        <v>582</v>
       </c>
       <c r="L76" t="s">
-        <v>508</v>
+        <v>583</v>
       </c>
       <c r="M76" t="n">
         <v>3</v>
@@ -7230,50 +7833,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>508</v>
+        <v>583</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>42464</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>150020</v>
+      </c>
+      <c r="C77" t="s">
+        <v>584</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F77" t="s">
-        <v>509</v>
+        <v>585</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I77" t="s">
-        <v>510</v>
+        <v>586</v>
       </c>
       <c r="J77" t="s">
-        <v>511</v>
+        <v>587</v>
       </c>
       <c r="K77" t="s">
-        <v>512</v>
+        <v>588</v>
       </c>
       <c r="L77" t="s">
-        <v>513</v>
+        <v>589</v>
       </c>
       <c r="M77" t="n">
         <v>4</v>
       </c>
       <c r="N77" t="s">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="O77" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -7297,50 +7904,54 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>515</v>
+        <v>591</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
         <v>42464</v>
       </c>
-      <c r="B78" t="s"/>
-      <c r="C78" t="s"/>
+      <c r="B78" t="n">
+        <v>150021</v>
+      </c>
+      <c r="C78" t="s">
+        <v>592</v>
+      </c>
       <c r="D78" t="n">
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F78" t="s">
-        <v>516</v>
+        <v>593</v>
       </c>
       <c r="G78" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H78" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I78" t="s">
-        <v>517</v>
+        <v>594</v>
       </c>
       <c r="J78" t="s">
-        <v>518</v>
+        <v>595</v>
       </c>
       <c r="K78" t="s">
-        <v>519</v>
+        <v>596</v>
       </c>
       <c r="L78" t="s">
-        <v>520</v>
+        <v>597</v>
       </c>
       <c r="M78" t="n">
         <v>4</v>
       </c>
       <c r="N78" t="s">
-        <v>521</v>
+        <v>598</v>
       </c>
       <c r="O78" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P78" t="n">
         <v>5</v>
@@ -7364,50 +7975,54 @@
       <c r="W78" t="s"/>
       <c r="X78" t="s"/>
       <c r="Y78" t="s">
-        <v>520</v>
+        <v>597</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
         <v>42464</v>
       </c>
-      <c r="B79" t="s"/>
-      <c r="C79" t="s"/>
+      <c r="B79" t="n">
+        <v>31466</v>
+      </c>
+      <c r="C79" t="s">
+        <v>599</v>
+      </c>
       <c r="D79" t="n">
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F79" t="s">
-        <v>522</v>
+        <v>600</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H79" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I79" t="s">
-        <v>523</v>
+        <v>601</v>
       </c>
       <c r="J79" t="s">
-        <v>524</v>
+        <v>602</v>
       </c>
       <c r="K79" t="s">
-        <v>525</v>
+        <v>603</v>
       </c>
       <c r="L79" t="s">
-        <v>526</v>
+        <v>604</v>
       </c>
       <c r="M79" t="n">
         <v>4</v>
       </c>
       <c r="N79" t="s">
-        <v>521</v>
+        <v>598</v>
       </c>
       <c r="O79" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -7431,50 +8046,54 @@
       <c r="W79" t="s"/>
       <c r="X79" t="s"/>
       <c r="Y79" t="s">
-        <v>526</v>
+        <v>604</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
         <v>42464</v>
       </c>
-      <c r="B80" t="s"/>
-      <c r="C80" t="s"/>
+      <c r="B80" t="n">
+        <v>150022</v>
+      </c>
+      <c r="C80" t="s">
+        <v>605</v>
+      </c>
       <c r="D80" t="n">
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F80" t="s">
-        <v>527</v>
+        <v>606</v>
       </c>
       <c r="G80" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H80" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I80" t="s">
-        <v>528</v>
+        <v>607</v>
       </c>
       <c r="J80" t="s">
-        <v>529</v>
+        <v>608</v>
       </c>
       <c r="K80" t="s">
-        <v>530</v>
+        <v>609</v>
       </c>
       <c r="L80" t="s">
-        <v>531</v>
+        <v>610</v>
       </c>
       <c r="M80" t="n">
         <v>4</v>
       </c>
       <c r="N80" t="s">
-        <v>532</v>
+        <v>611</v>
       </c>
       <c r="O80" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P80" t="n">
         <v>5</v>
@@ -7498,50 +8117,54 @@
       <c r="W80" t="s"/>
       <c r="X80" t="s"/>
       <c r="Y80" t="s">
-        <v>531</v>
+        <v>610</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
         <v>42464</v>
       </c>
-      <c r="B81" t="s"/>
-      <c r="C81" t="s"/>
+      <c r="B81" t="n">
+        <v>150023</v>
+      </c>
+      <c r="C81" t="s">
+        <v>612</v>
+      </c>
       <c r="D81" t="n">
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F81" t="s">
-        <v>533</v>
+        <v>613</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H81" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I81" t="s">
-        <v>534</v>
+        <v>614</v>
       </c>
       <c r="J81" t="s">
-        <v>535</v>
+        <v>615</v>
       </c>
       <c r="K81" t="s">
-        <v>536</v>
+        <v>616</v>
       </c>
       <c r="L81" t="s">
-        <v>537</v>
+        <v>617</v>
       </c>
       <c r="M81" t="n">
         <v>4</v>
       </c>
       <c r="N81" t="s">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="O81" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -7565,50 +8188,54 @@
       <c r="W81" t="s"/>
       <c r="X81" t="s"/>
       <c r="Y81" t="s">
-        <v>537</v>
+        <v>617</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
         <v>42464</v>
       </c>
-      <c r="B82" t="s"/>
-      <c r="C82" t="s"/>
+      <c r="B82" t="n">
+        <v>150024</v>
+      </c>
+      <c r="C82" t="s">
+        <v>618</v>
+      </c>
       <c r="D82" t="n">
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F82" t="s">
-        <v>538</v>
+        <v>619</v>
       </c>
       <c r="G82" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H82" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I82" t="s">
-        <v>539</v>
+        <v>620</v>
       </c>
       <c r="J82" t="s">
-        <v>540</v>
+        <v>621</v>
       </c>
       <c r="K82" t="s">
-        <v>541</v>
+        <v>622</v>
       </c>
       <c r="L82" t="s">
-        <v>542</v>
+        <v>623</v>
       </c>
       <c r="M82" t="n">
         <v>2</v>
       </c>
       <c r="N82" t="s">
-        <v>514</v>
+        <v>590</v>
       </c>
       <c r="O82" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P82" t="n">
         <v>2</v>
@@ -7632,50 +8259,54 @@
       <c r="W82" t="s"/>
       <c r="X82" t="s"/>
       <c r="Y82" t="s">
-        <v>543</v>
+        <v>624</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
         <v>42464</v>
       </c>
-      <c r="B83" t="s"/>
-      <c r="C83" t="s"/>
+      <c r="B83" t="n">
+        <v>150025</v>
+      </c>
+      <c r="C83" t="s">
+        <v>625</v>
+      </c>
       <c r="D83" t="n">
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F83" t="s">
-        <v>544</v>
+        <v>626</v>
       </c>
       <c r="G83" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H83" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I83" t="s">
-        <v>545</v>
+        <v>627</v>
       </c>
       <c r="J83" t="s">
-        <v>546</v>
+        <v>628</v>
       </c>
       <c r="K83" t="s">
-        <v>547</v>
+        <v>629</v>
       </c>
       <c r="L83" t="s">
-        <v>548</v>
+        <v>630</v>
       </c>
       <c r="M83" t="n">
         <v>3</v>
       </c>
       <c r="N83" t="s">
-        <v>549</v>
+        <v>631</v>
       </c>
       <c r="O83" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P83" t="n">
         <v>4</v>
@@ -7699,50 +8330,54 @@
       <c r="W83" t="s"/>
       <c r="X83" t="s"/>
       <c r="Y83" t="s">
-        <v>548</v>
+        <v>630</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
         <v>42464</v>
       </c>
-      <c r="B84" t="s"/>
-      <c r="C84" t="s"/>
+      <c r="B84" t="n">
+        <v>150026</v>
+      </c>
+      <c r="C84" t="s">
+        <v>632</v>
+      </c>
       <c r="D84" t="n">
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F84" t="s">
-        <v>550</v>
+        <v>633</v>
       </c>
       <c r="G84" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H84" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I84" t="s">
-        <v>551</v>
+        <v>634</v>
       </c>
       <c r="J84" t="s">
-        <v>552</v>
+        <v>635</v>
       </c>
       <c r="K84" t="s">
-        <v>553</v>
+        <v>636</v>
       </c>
       <c r="L84" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
       <c r="M84" t="n">
         <v>4</v>
       </c>
       <c r="N84" t="s">
-        <v>555</v>
+        <v>638</v>
       </c>
       <c r="O84" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P84" t="n">
         <v>5</v>
@@ -7766,50 +8401,54 @@
       <c r="W84" t="s"/>
       <c r="X84" t="s"/>
       <c r="Y84" t="s">
-        <v>554</v>
+        <v>637</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
         <v>42464</v>
       </c>
-      <c r="B85" t="s"/>
-      <c r="C85" t="s"/>
+      <c r="B85" t="n">
+        <v>150027</v>
+      </c>
+      <c r="C85" t="s">
+        <v>639</v>
+      </c>
       <c r="D85" t="n">
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F85" t="s">
-        <v>556</v>
+        <v>640</v>
       </c>
       <c r="G85" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H85" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I85" t="s">
-        <v>557</v>
+        <v>641</v>
       </c>
       <c r="J85" t="s">
-        <v>558</v>
+        <v>642</v>
       </c>
       <c r="K85" t="s">
-        <v>559</v>
+        <v>643</v>
       </c>
       <c r="L85" t="s">
-        <v>560</v>
+        <v>644</v>
       </c>
       <c r="M85" t="n">
         <v>4</v>
       </c>
       <c r="N85" t="s">
-        <v>555</v>
+        <v>638</v>
       </c>
       <c r="O85" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P85" t="n">
         <v>4</v>
@@ -7833,50 +8472,54 @@
       <c r="W85" t="s"/>
       <c r="X85" t="s"/>
       <c r="Y85" t="s">
-        <v>560</v>
+        <v>644</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
         <v>42464</v>
       </c>
-      <c r="B86" t="s"/>
-      <c r="C86" t="s"/>
+      <c r="B86" t="n">
+        <v>150028</v>
+      </c>
+      <c r="C86" t="s">
+        <v>645</v>
+      </c>
       <c r="D86" t="n">
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F86" t="s">
-        <v>561</v>
+        <v>646</v>
       </c>
       <c r="G86" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H86" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I86" t="s">
-        <v>562</v>
+        <v>647</v>
       </c>
       <c r="J86" t="s">
-        <v>563</v>
+        <v>648</v>
       </c>
       <c r="K86" t="s">
-        <v>564</v>
+        <v>649</v>
       </c>
       <c r="L86" t="s">
-        <v>565</v>
+        <v>650</v>
       </c>
       <c r="M86" t="n">
         <v>4</v>
       </c>
       <c r="N86" t="s">
-        <v>566</v>
+        <v>651</v>
       </c>
       <c r="O86" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P86" t="n">
         <v>4</v>
@@ -7898,50 +8541,54 @@
       <c r="W86" t="s"/>
       <c r="X86" t="s"/>
       <c r="Y86" t="s">
-        <v>565</v>
+        <v>650</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
         <v>42464</v>
       </c>
-      <c r="B87" t="s"/>
-      <c r="C87" t="s"/>
+      <c r="B87" t="n">
+        <v>150029</v>
+      </c>
+      <c r="C87" t="s">
+        <v>652</v>
+      </c>
       <c r="D87" t="n">
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F87" t="s">
-        <v>567</v>
+        <v>653</v>
       </c>
       <c r="G87" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H87" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I87" t="s">
-        <v>568</v>
+        <v>654</v>
       </c>
       <c r="J87" t="s">
-        <v>569</v>
+        <v>655</v>
       </c>
       <c r="K87" t="s">
-        <v>570</v>
+        <v>656</v>
       </c>
       <c r="L87" t="s">
-        <v>571</v>
+        <v>657</v>
       </c>
       <c r="M87" t="n">
         <v>5</v>
       </c>
       <c r="N87" t="s">
-        <v>566</v>
+        <v>651</v>
       </c>
       <c r="O87" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P87" t="n">
         <v>5</v>
@@ -7965,50 +8612,54 @@
       <c r="W87" t="s"/>
       <c r="X87" t="s"/>
       <c r="Y87" t="s">
-        <v>571</v>
+        <v>657</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
         <v>42464</v>
       </c>
-      <c r="B88" t="s"/>
-      <c r="C88" t="s"/>
+      <c r="B88" t="n">
+        <v>150030</v>
+      </c>
+      <c r="C88" t="s">
+        <v>658</v>
+      </c>
       <c r="D88" t="n">
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F88" t="s">
-        <v>572</v>
+        <v>659</v>
       </c>
       <c r="G88" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H88" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I88" t="s">
-        <v>573</v>
+        <v>660</v>
       </c>
       <c r="J88" t="s">
-        <v>574</v>
+        <v>661</v>
       </c>
       <c r="K88" t="s">
-        <v>575</v>
+        <v>662</v>
       </c>
       <c r="L88" t="s">
-        <v>576</v>
+        <v>663</v>
       </c>
       <c r="M88" t="n">
         <v>3</v>
       </c>
       <c r="N88" t="s">
-        <v>577</v>
+        <v>664</v>
       </c>
       <c r="O88" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P88" t="n">
         <v>5</v>
@@ -8030,50 +8681,54 @@
       <c r="W88" t="s"/>
       <c r="X88" t="s"/>
       <c r="Y88" t="s">
-        <v>578</v>
+        <v>665</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
         <v>42464</v>
       </c>
-      <c r="B89" t="s"/>
-      <c r="C89" t="s"/>
+      <c r="B89" t="n">
+        <v>150031</v>
+      </c>
+      <c r="C89" t="s">
+        <v>666</v>
+      </c>
       <c r="D89" t="n">
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F89" t="s">
-        <v>579</v>
+        <v>667</v>
       </c>
       <c r="G89" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H89" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I89" t="s">
-        <v>580</v>
+        <v>668</v>
       </c>
       <c r="J89" t="s">
-        <v>581</v>
+        <v>669</v>
       </c>
       <c r="K89" t="s">
-        <v>582</v>
+        <v>670</v>
       </c>
       <c r="L89" t="s">
-        <v>583</v>
+        <v>671</v>
       </c>
       <c r="M89" t="n">
         <v>3</v>
       </c>
       <c r="N89" t="s">
-        <v>584</v>
+        <v>672</v>
       </c>
       <c r="O89" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P89" t="n">
         <v>2</v>
@@ -8097,50 +8752,54 @@
       <c r="W89" t="s"/>
       <c r="X89" t="s"/>
       <c r="Y89" t="s">
-        <v>585</v>
+        <v>673</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
         <v>42464</v>
       </c>
-      <c r="B90" t="s"/>
-      <c r="C90" t="s"/>
+      <c r="B90" t="n">
+        <v>150032</v>
+      </c>
+      <c r="C90" t="s">
+        <v>674</v>
+      </c>
       <c r="D90" t="n">
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F90" t="s">
-        <v>586</v>
+        <v>675</v>
       </c>
       <c r="G90" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H90" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I90" t="s">
-        <v>587</v>
+        <v>676</v>
       </c>
       <c r="J90" t="s">
-        <v>588</v>
+        <v>677</v>
       </c>
       <c r="K90" t="s">
-        <v>589</v>
+        <v>678</v>
       </c>
       <c r="L90" t="s">
-        <v>590</v>
+        <v>679</v>
       </c>
       <c r="M90" t="n">
         <v>2</v>
       </c>
       <c r="N90" t="s">
-        <v>591</v>
+        <v>680</v>
       </c>
       <c r="O90" t="s">
-        <v>106</v>
+        <v>113</v>
       </c>
       <c r="P90" t="n">
         <v>2</v>
@@ -8164,50 +8823,54 @@
       <c r="W90" t="s"/>
       <c r="X90" t="s"/>
       <c r="Y90" t="s">
-        <v>590</v>
+        <v>679</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
         <v>42464</v>
       </c>
-      <c r="B91" t="s"/>
-      <c r="C91" t="s"/>
+      <c r="B91" t="n">
+        <v>150033</v>
+      </c>
+      <c r="C91" t="s">
+        <v>681</v>
+      </c>
       <c r="D91" t="n">
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F91" t="s">
-        <v>592</v>
+        <v>682</v>
       </c>
       <c r="G91" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H91" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I91" t="s">
-        <v>593</v>
+        <v>683</v>
       </c>
       <c r="J91" t="s">
-        <v>594</v>
+        <v>684</v>
       </c>
       <c r="K91" t="s">
-        <v>595</v>
+        <v>685</v>
       </c>
       <c r="L91" t="s">
-        <v>596</v>
+        <v>686</v>
       </c>
       <c r="M91" t="n">
         <v>4</v>
       </c>
       <c r="N91" t="s">
-        <v>597</v>
+        <v>687</v>
       </c>
       <c r="O91" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P91" t="n">
         <v>4</v>
@@ -8231,50 +8894,54 @@
       <c r="W91" t="s"/>
       <c r="X91" t="s"/>
       <c r="Y91" t="s">
-        <v>598</v>
+        <v>688</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
         <v>42464</v>
       </c>
-      <c r="B92" t="s"/>
-      <c r="C92" t="s"/>
+      <c r="B92" t="n">
+        <v>30053</v>
+      </c>
+      <c r="C92" t="s">
+        <v>689</v>
+      </c>
       <c r="D92" t="n">
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F92" t="s">
-        <v>599</v>
+        <v>690</v>
       </c>
       <c r="G92" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H92" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I92" t="s">
-        <v>600</v>
+        <v>691</v>
       </c>
       <c r="J92" t="s">
-        <v>601</v>
+        <v>692</v>
       </c>
       <c r="K92" t="s">
-        <v>602</v>
+        <v>693</v>
       </c>
       <c r="L92" t="s">
-        <v>603</v>
+        <v>694</v>
       </c>
       <c r="M92" t="n">
         <v>1</v>
       </c>
       <c r="N92" t="s">
-        <v>604</v>
+        <v>695</v>
       </c>
       <c r="O92" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P92" t="n">
         <v>1</v>
@@ -8298,50 +8965,54 @@
       <c r="W92" t="s"/>
       <c r="X92" t="s"/>
       <c r="Y92" t="s">
-        <v>605</v>
+        <v>696</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
         <v>42464</v>
       </c>
-      <c r="B93" t="s"/>
-      <c r="C93" t="s"/>
+      <c r="B93" t="n">
+        <v>150034</v>
+      </c>
+      <c r="C93" t="s">
+        <v>697</v>
+      </c>
       <c r="D93" t="n">
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F93" t="s">
-        <v>606</v>
+        <v>698</v>
       </c>
       <c r="G93" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H93" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I93" t="s">
-        <v>607</v>
+        <v>699</v>
       </c>
       <c r="J93" t="s">
-        <v>608</v>
+        <v>700</v>
       </c>
       <c r="K93" t="s">
-        <v>609</v>
+        <v>701</v>
       </c>
       <c r="L93" t="s">
-        <v>610</v>
+        <v>702</v>
       </c>
       <c r="M93" t="n">
         <v>4</v>
       </c>
       <c r="N93" t="s">
-        <v>611</v>
+        <v>703</v>
       </c>
       <c r="O93" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P93" t="n">
         <v>5</v>
@@ -8365,50 +9036,54 @@
       <c r="W93" t="s"/>
       <c r="X93" t="s"/>
       <c r="Y93" t="s">
-        <v>612</v>
+        <v>704</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
         <v>42464</v>
       </c>
-      <c r="B94" t="s"/>
-      <c r="C94" t="s"/>
+      <c r="B94" t="n">
+        <v>150035</v>
+      </c>
+      <c r="C94" t="s">
+        <v>705</v>
+      </c>
       <c r="D94" t="n">
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F94" t="s">
-        <v>613</v>
+        <v>706</v>
       </c>
       <c r="G94" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H94" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I94" t="s">
-        <v>614</v>
+        <v>707</v>
       </c>
       <c r="J94" t="s">
-        <v>615</v>
+        <v>708</v>
       </c>
       <c r="K94" t="s">
-        <v>616</v>
+        <v>709</v>
       </c>
       <c r="L94" t="s">
-        <v>617</v>
+        <v>710</v>
       </c>
       <c r="M94" t="n">
         <v>4</v>
       </c>
       <c r="N94" t="s">
-        <v>604</v>
+        <v>695</v>
       </c>
       <c r="O94" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P94" t="n">
         <v>4</v>
@@ -8432,50 +9107,54 @@
       <c r="W94" t="s"/>
       <c r="X94" t="s"/>
       <c r="Y94" t="s">
-        <v>618</v>
+        <v>711</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
         <v>42464</v>
       </c>
-      <c r="B95" t="s"/>
-      <c r="C95" t="s"/>
+      <c r="B95" t="n">
+        <v>150036</v>
+      </c>
+      <c r="C95" t="s">
+        <v>712</v>
+      </c>
       <c r="D95" t="n">
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F95" t="s">
-        <v>619</v>
+        <v>713</v>
       </c>
       <c r="G95" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H95" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I95" t="s">
-        <v>620</v>
+        <v>714</v>
       </c>
       <c r="J95" t="s">
-        <v>621</v>
+        <v>715</v>
       </c>
       <c r="K95" t="s">
-        <v>622</v>
+        <v>716</v>
       </c>
       <c r="L95" t="s">
-        <v>623</v>
+        <v>717</v>
       </c>
       <c r="M95" t="n">
         <v>3</v>
       </c>
       <c r="N95" t="s">
-        <v>624</v>
+        <v>718</v>
       </c>
       <c r="O95" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P95" t="n">
         <v>4</v>
@@ -8495,50 +9174,54 @@
       <c r="W95" t="s"/>
       <c r="X95" t="s"/>
       <c r="Y95" t="s">
-        <v>625</v>
+        <v>719</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
         <v>42464</v>
       </c>
-      <c r="B96" t="s"/>
-      <c r="C96" t="s"/>
+      <c r="B96" t="n">
+        <v>150037</v>
+      </c>
+      <c r="C96" t="s">
+        <v>720</v>
+      </c>
       <c r="D96" t="n">
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F96" t="s">
-        <v>626</v>
+        <v>721</v>
       </c>
       <c r="G96" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H96" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I96" t="s">
-        <v>627</v>
+        <v>722</v>
       </c>
       <c r="J96" t="s">
-        <v>628</v>
+        <v>723</v>
       </c>
       <c r="K96" t="s">
-        <v>629</v>
+        <v>724</v>
       </c>
       <c r="L96" t="s">
-        <v>630</v>
+        <v>725</v>
       </c>
       <c r="M96" t="n">
         <v>3</v>
       </c>
       <c r="N96" t="s">
-        <v>624</v>
+        <v>718</v>
       </c>
       <c r="O96" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P96" t="n">
         <v>5</v>
@@ -8558,50 +9241,54 @@
       <c r="W96" t="s"/>
       <c r="X96" t="s"/>
       <c r="Y96" t="s">
-        <v>630</v>
+        <v>725</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
         <v>42464</v>
       </c>
-      <c r="B97" t="s"/>
-      <c r="C97" t="s"/>
+      <c r="B97" t="n">
+        <v>150038</v>
+      </c>
+      <c r="C97" t="s">
+        <v>726</v>
+      </c>
       <c r="D97" t="n">
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F97" t="s">
-        <v>631</v>
+        <v>727</v>
       </c>
       <c r="G97" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H97" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I97" t="s">
-        <v>632</v>
+        <v>728</v>
       </c>
       <c r="J97" t="s">
-        <v>633</v>
+        <v>729</v>
       </c>
       <c r="K97" t="s">
-        <v>634</v>
+        <v>730</v>
       </c>
       <c r="L97" t="s">
-        <v>635</v>
+        <v>731</v>
       </c>
       <c r="M97" t="n">
         <v>1</v>
       </c>
       <c r="N97" t="s">
-        <v>624</v>
+        <v>718</v>
       </c>
       <c r="O97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P97" t="n">
         <v>1</v>
@@ -8621,50 +9308,54 @@
       <c r="W97" t="s"/>
       <c r="X97" t="s"/>
       <c r="Y97" t="s">
-        <v>636</v>
+        <v>732</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
         <v>42464</v>
       </c>
-      <c r="B98" t="s"/>
-      <c r="C98" t="s"/>
+      <c r="B98" t="n">
+        <v>150039</v>
+      </c>
+      <c r="C98" t="s">
+        <v>733</v>
+      </c>
       <c r="D98" t="n">
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F98" t="s">
-        <v>637</v>
+        <v>734</v>
       </c>
       <c r="G98" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H98" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I98" t="s">
-        <v>638</v>
+        <v>735</v>
       </c>
       <c r="J98" t="s">
-        <v>639</v>
+        <v>736</v>
       </c>
       <c r="K98" t="s">
-        <v>640</v>
+        <v>737</v>
       </c>
       <c r="L98" t="s">
-        <v>641</v>
+        <v>738</v>
       </c>
       <c r="M98" t="n">
         <v>5</v>
       </c>
       <c r="N98" t="s">
-        <v>642</v>
+        <v>739</v>
       </c>
       <c r="O98" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P98" t="n">
         <v>5</v>
@@ -8688,50 +9379,54 @@
       <c r="W98" t="s"/>
       <c r="X98" t="s"/>
       <c r="Y98" t="s">
-        <v>641</v>
+        <v>738</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
         <v>42464</v>
       </c>
-      <c r="B99" t="s"/>
-      <c r="C99" t="s"/>
+      <c r="B99" t="n">
+        <v>150040</v>
+      </c>
+      <c r="C99" t="s">
+        <v>740</v>
+      </c>
       <c r="D99" t="n">
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F99" t="s">
-        <v>643</v>
+        <v>741</v>
       </c>
       <c r="G99" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H99" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I99" t="s">
-        <v>644</v>
+        <v>742</v>
       </c>
       <c r="J99" t="s">
-        <v>639</v>
+        <v>736</v>
       </c>
       <c r="K99" t="s">
-        <v>645</v>
+        <v>743</v>
       </c>
       <c r="L99" t="s">
-        <v>646</v>
+        <v>744</v>
       </c>
       <c r="M99" t="n">
         <v>5</v>
       </c>
       <c r="N99" t="s">
-        <v>642</v>
+        <v>739</v>
       </c>
       <c r="O99" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P99" t="n">
         <v>5</v>
@@ -8755,50 +9450,54 @@
       <c r="W99" t="s"/>
       <c r="X99" t="s"/>
       <c r="Y99" t="s">
-        <v>646</v>
+        <v>744</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
         <v>42464</v>
       </c>
-      <c r="B100" t="s"/>
-      <c r="C100" t="s"/>
+      <c r="B100" t="n">
+        <v>150041</v>
+      </c>
+      <c r="C100" t="s">
+        <v>745</v>
+      </c>
       <c r="D100" t="n">
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F100" t="s">
-        <v>647</v>
+        <v>746</v>
       </c>
       <c r="G100" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H100" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I100" t="s">
-        <v>648</v>
+        <v>747</v>
       </c>
       <c r="J100" t="s">
-        <v>649</v>
+        <v>748</v>
       </c>
       <c r="K100" t="s">
-        <v>650</v>
+        <v>749</v>
       </c>
       <c r="L100" t="s">
-        <v>651</v>
+        <v>750</v>
       </c>
       <c r="M100" t="n">
         <v>4</v>
       </c>
       <c r="N100" t="s">
-        <v>652</v>
+        <v>751</v>
       </c>
       <c r="O100" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="P100" t="n">
         <v>4</v>
@@ -8822,50 +9521,54 @@
       <c r="W100" t="s"/>
       <c r="X100" t="s"/>
       <c r="Y100" t="s">
-        <v>651</v>
+        <v>750</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
         <v>42464</v>
       </c>
-      <c r="B101" t="s"/>
-      <c r="C101" t="s"/>
+      <c r="B101" t="n">
+        <v>150042</v>
+      </c>
+      <c r="C101" t="s">
+        <v>752</v>
+      </c>
       <c r="D101" t="n">
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F101" t="s">
-        <v>653</v>
+        <v>753</v>
       </c>
       <c r="G101" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H101" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I101" t="s">
-        <v>654</v>
+        <v>754</v>
       </c>
       <c r="J101" t="s">
-        <v>655</v>
+        <v>755</v>
       </c>
       <c r="K101" t="s">
-        <v>656</v>
+        <v>756</v>
       </c>
       <c r="L101" t="s">
-        <v>657</v>
+        <v>757</v>
       </c>
       <c r="M101" t="n">
         <v>1</v>
       </c>
       <c r="N101" t="s">
-        <v>658</v>
+        <v>758</v>
       </c>
       <c r="O101" t="s">
-        <v>171</v>
+        <v>187</v>
       </c>
       <c r="P101" t="n">
         <v>1</v>
@@ -8885,50 +9588,54 @@
       <c r="W101" t="s"/>
       <c r="X101" t="s"/>
       <c r="Y101" t="s">
-        <v>659</v>
+        <v>759</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="n">
         <v>42464</v>
       </c>
-      <c r="B102" t="s"/>
-      <c r="C102" t="s"/>
+      <c r="B102" t="n">
+        <v>150043</v>
+      </c>
+      <c r="C102" t="s">
+        <v>760</v>
+      </c>
       <c r="D102" t="n">
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F102" t="s">
-        <v>660</v>
+        <v>761</v>
       </c>
       <c r="G102" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H102" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I102" t="s">
-        <v>661</v>
+        <v>762</v>
       </c>
       <c r="J102" t="s">
-        <v>662</v>
+        <v>763</v>
       </c>
       <c r="K102" t="s">
-        <v>663</v>
+        <v>764</v>
       </c>
       <c r="L102" t="s">
-        <v>664</v>
+        <v>765</v>
       </c>
       <c r="M102" t="n">
         <v>5</v>
       </c>
       <c r="N102" t="s">
-        <v>665</v>
+        <v>766</v>
       </c>
       <c r="O102" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="P102" t="n">
         <v>5</v>
@@ -8952,7 +9659,7 @@
       <c r="W102" t="s"/>
       <c r="X102" t="s"/>
       <c r="Y102" t="s">
-        <v>664</v>
+        <v>765</v>
       </c>
     </row>
   </sheetData>
